--- a/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831832625326822</v>
+        <v>0.9831832625326838</v>
       </c>
       <c r="D2">
-        <v>1.00527323814896</v>
+        <v>1.005273238148962</v>
       </c>
       <c r="E2">
-        <v>0.9908883561150347</v>
+        <v>0.990888356115036</v>
       </c>
       <c r="F2">
-        <v>0.9928005698790795</v>
+        <v>0.9928005698790809</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038917090174219</v>
+        <v>1.03891709017422</v>
       </c>
       <c r="J2">
-        <v>1.005878863184411</v>
+        <v>1.005878863184413</v>
       </c>
       <c r="K2">
-        <v>1.016659594008636</v>
+        <v>1.016659594008637</v>
       </c>
       <c r="L2">
-        <v>1.002476107309849</v>
+        <v>1.00247610730985</v>
       </c>
       <c r="M2">
-        <v>1.004361123861327</v>
+        <v>1.004361123861328</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9927844734042274</v>
+        <v>0.9927844734042272</v>
       </c>
       <c r="D3">
         <v>1.012745228183852</v>
       </c>
       <c r="E3">
-        <v>0.9993629379876865</v>
+        <v>0.9993629379876864</v>
       </c>
       <c r="F3">
         <v>1.002703530660451</v>
@@ -486,7 +486,7 @@
         <v>1.01000397663617</v>
       </c>
       <c r="M3">
-        <v>1.013301935788305</v>
+        <v>1.013301935788304</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987499763113903</v>
+        <v>0.9987499763113901</v>
       </c>
       <c r="D4">
         <v>1.017390522844013</v>
@@ -506,7 +506,7 @@
         <v>1.00462945170419</v>
       </c>
       <c r="F4">
-        <v>1.008862995946738</v>
+        <v>1.008862995946739</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1.014672322599953</v>
       </c>
       <c r="M4">
-        <v>1.018855616493862</v>
+        <v>1.018855616493863</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -562,7 +562,7 @@
         <v>1.016589814846665</v>
       </c>
       <c r="M5">
-        <v>1.021138997229724</v>
+        <v>1.021138997229725</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001611890405735</v>
+        <v>1.001611890405734</v>
       </c>
       <c r="D6">
-        <v>1.01961966503874</v>
+        <v>1.019619665038739</v>
       </c>
       <c r="E6">
-        <v>1.007156202565685</v>
+        <v>1.007156202565684</v>
       </c>
       <c r="F6">
-        <v>1.01181984248082</v>
+        <v>1.011819842480818</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045778753403797</v>
+        <v>1.045778753403796</v>
       </c>
       <c r="J6">
-        <v>1.020444064937647</v>
+        <v>1.020444064937645</v>
       </c>
       <c r="K6">
-        <v>1.029231378108356</v>
+        <v>1.029231378108354</v>
       </c>
       <c r="L6">
-        <v>1.01690921940518</v>
+        <v>1.016909219405179</v>
       </c>
       <c r="M6">
-        <v>1.021519482918827</v>
+        <v>1.021519482918825</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9987829648382698</v>
+        <v>0.9987829648382721</v>
       </c>
       <c r="D7">
-        <v>1.017416215591477</v>
+        <v>1.017416215591479</v>
       </c>
       <c r="E7">
-        <v>1.004658576385745</v>
+        <v>1.004658576385747</v>
       </c>
       <c r="F7">
-        <v>1.008897071637348</v>
+        <v>1.008897071637349</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044733852796662</v>
+        <v>1.044733852796663</v>
       </c>
       <c r="J7">
-        <v>1.018211751707494</v>
+        <v>1.018211751707497</v>
       </c>
       <c r="K7">
-        <v>1.027305957548449</v>
+        <v>1.027305957548451</v>
       </c>
       <c r="L7">
-        <v>1.014698117106356</v>
+        <v>1.014698117106358</v>
       </c>
       <c r="M7">
-        <v>1.018886324035564</v>
+        <v>1.018886324035566</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9864820157615802</v>
+        <v>0.98648201576158</v>
       </c>
       <c r="D8">
         <v>1.007839746875711</v>
       </c>
       <c r="E8">
-        <v>0.9937997431231166</v>
+        <v>0.993799743123116</v>
       </c>
       <c r="F8">
-        <v>0.9962016079681529</v>
+        <v>0.996201607968152</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>1.005064361050179</v>
       </c>
       <c r="M8">
-        <v>1.007433277911046</v>
+        <v>1.007433277911045</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.962683652906591</v>
+        <v>0.9626836529065904</v>
       </c>
       <c r="D9">
-        <v>0.9893445818925326</v>
+        <v>0.9893445818925324</v>
       </c>
       <c r="E9">
-        <v>0.9728055395965898</v>
+        <v>0.9728055395965896</v>
       </c>
       <c r="F9">
-        <v>0.9716949136845558</v>
+        <v>0.9716949136845556</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>1.03115809034807</v>
       </c>
       <c r="J9">
-        <v>0.9896266400053254</v>
+        <v>0.989626640005325</v>
       </c>
       <c r="K9">
         <v>1.002612934334461</v>
       </c>
       <c r="L9">
-        <v>0.9863557954614528</v>
+        <v>0.9863557954614525</v>
       </c>
       <c r="M9">
         <v>0.9852645451954068</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9450031797808958</v>
+        <v>0.9450031797808932</v>
       </c>
       <c r="D10">
-        <v>0.9756421917468491</v>
+        <v>0.9756421917468466</v>
       </c>
       <c r="E10">
-        <v>0.9572278928598374</v>
+        <v>0.9572278928598348</v>
       </c>
       <c r="F10">
-        <v>0.9535278599956029</v>
+        <v>0.953527859995601</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024387582774609</v>
+        <v>1.024387582774607</v>
       </c>
       <c r="J10">
-        <v>0.9755825267277797</v>
+        <v>0.9755825267277771</v>
       </c>
       <c r="K10">
-        <v>0.9904656156509658</v>
+        <v>0.9904656156509635</v>
       </c>
       <c r="L10">
-        <v>0.9724148787367082</v>
+        <v>0.9724148787367055</v>
       </c>
       <c r="M10">
-        <v>0.9687901318527613</v>
+        <v>0.9687901318527594</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9368043285525613</v>
+        <v>0.9368043285525594</v>
       </c>
       <c r="D11">
-        <v>0.9693016656660101</v>
+        <v>0.9693016656660084</v>
       </c>
       <c r="E11">
-        <v>0.9500116568986682</v>
+        <v>0.950011656898666</v>
       </c>
       <c r="F11">
-        <v>0.9451132962056912</v>
+        <v>0.9451132962056891</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02122907551927</v>
+        <v>1.021229075519269</v>
       </c>
       <c r="J11">
-        <v>0.969064787406245</v>
+        <v>0.9690647874062429</v>
       </c>
       <c r="K11">
-        <v>0.9848266956789304</v>
+        <v>0.9848266956789287</v>
       </c>
       <c r="L11">
-        <v>0.9659421393677559</v>
+        <v>0.9659421393677537</v>
       </c>
       <c r="M11">
-        <v>0.9611502387614334</v>
+        <v>0.9611502387614312</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.933665112536872</v>
+        <v>0.9336651125368742</v>
       </c>
       <c r="D12">
-        <v>0.9668764858957224</v>
+        <v>0.9668764858957243</v>
       </c>
       <c r="E12">
-        <v>0.9472500958316434</v>
+        <v>0.9472500958316455</v>
       </c>
       <c r="F12">
-        <v>0.9418930245111186</v>
+        <v>0.9418930245111209</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020017090667918</v>
+        <v>1.020017090667919</v>
       </c>
       <c r="J12">
-        <v>0.9665686854952137</v>
+        <v>0.9665686854952158</v>
       </c>
       <c r="K12">
-        <v>0.9826670365922663</v>
+        <v>0.982667036592268</v>
       </c>
       <c r="L12">
-        <v>0.963462833027089</v>
+        <v>0.9634628330270912</v>
       </c>
       <c r="M12">
-        <v>0.9582250732459342</v>
+        <v>0.9582250732459362</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9343429554423721</v>
+        <v>0.934342955442372</v>
       </c>
       <c r="D13">
         <v>0.9674000271816953</v>
       </c>
       <c r="E13">
-        <v>0.9478463229123789</v>
+        <v>0.947846322912379</v>
       </c>
       <c r="F13">
-        <v>0.9425882995189727</v>
+        <v>0.9425882995189725</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>0.983133388184786</v>
       </c>
       <c r="L13">
-        <v>0.963998224155726</v>
+        <v>0.9639982241557258</v>
       </c>
       <c r="M13">
-        <v>0.9588566937686478</v>
+        <v>0.9588566937686476</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9365468337418063</v>
+        <v>0.9365468337418043</v>
       </c>
       <c r="D14">
-        <v>0.9691026860916276</v>
+        <v>0.9691026860916259</v>
       </c>
       <c r="E14">
-        <v>0.949785108550587</v>
+        <v>0.949785108550585</v>
       </c>
       <c r="F14">
-        <v>0.9448491214535826</v>
+        <v>0.9448491214535811</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021129714313696</v>
+        <v>1.021129714313695</v>
       </c>
       <c r="J14">
-        <v>0.9688600540388086</v>
+        <v>0.9688600540388065</v>
       </c>
       <c r="K14">
-        <v>0.9846495595335907</v>
+        <v>0.984649559533589</v>
       </c>
       <c r="L14">
-        <v>0.9657387924533751</v>
+        <v>0.9657387924533734</v>
       </c>
       <c r="M14">
-        <v>0.9609103002767398</v>
+        <v>0.9609103002767387</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9378918756570296</v>
+        <v>0.937891875657029</v>
       </c>
       <c r="D15">
-        <v>0.9701421742112485</v>
+        <v>0.9701421742112484</v>
       </c>
       <c r="E15">
-        <v>0.9509685591163192</v>
+        <v>0.9509685591163185</v>
       </c>
       <c r="F15">
-        <v>0.9462291189659026</v>
+        <v>0.9462291189659018</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021648628887223</v>
       </c>
       <c r="J15">
-        <v>0.9699294717283327</v>
+        <v>0.9699294717283322</v>
       </c>
       <c r="K15">
         <v>0.9855748199110607</v>
       </c>
       <c r="L15">
-        <v>0.9668009503222919</v>
+        <v>0.9668009503222914</v>
       </c>
       <c r="M15">
-        <v>0.962163637406081</v>
+        <v>0.9621636374060805</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9455348858037943</v>
+        <v>0.9455348858037951</v>
       </c>
       <c r="D16">
-        <v>0.9760536984904034</v>
+        <v>0.9760536984904045</v>
       </c>
       <c r="E16">
-        <v>0.9576960520558901</v>
+        <v>0.9576960520558909</v>
       </c>
       <c r="F16">
-        <v>0.9540737622332421</v>
+        <v>0.9540737622332428</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024592045092675</v>
       </c>
       <c r="J16">
-        <v>0.9760051219793654</v>
+        <v>0.9760051219793664</v>
       </c>
       <c r="K16">
-        <v>0.9908312083072793</v>
+        <v>0.9908312083072802</v>
       </c>
       <c r="L16">
-        <v>0.9728344967382527</v>
+        <v>0.9728344967382536</v>
       </c>
       <c r="M16">
-        <v>0.9692855886519872</v>
+        <v>0.969285588651988</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9501759207855189</v>
+        <v>0.9501759207855212</v>
       </c>
       <c r="D17">
-        <v>0.9796471251202122</v>
+        <v>0.9796471251202139</v>
       </c>
       <c r="E17">
-        <v>0.9617832764462152</v>
+        <v>0.9617832764462174</v>
       </c>
       <c r="F17">
-        <v>0.9588398198330613</v>
+        <v>0.9588398198330633</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026374628914199</v>
+        <v>1.0263746289142</v>
       </c>
       <c r="J17">
-        <v>0.9796932230047499</v>
+        <v>0.979693223004752</v>
       </c>
       <c r="K17">
-        <v>0.9940216797507032</v>
+        <v>0.9940216797507049</v>
       </c>
       <c r="L17">
-        <v>0.9764962919445106</v>
+        <v>0.9764962919445125</v>
       </c>
       <c r="M17">
-        <v>0.9736101921263989</v>
+        <v>0.9736101921264009</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9528315057194467</v>
+        <v>0.9528315057194487</v>
       </c>
       <c r="D18">
-        <v>0.9817044964800846</v>
+        <v>0.9817044964800867</v>
       </c>
       <c r="E18">
-        <v>0.9641226436380087</v>
+        <v>0.9641226436380106</v>
       </c>
       <c r="F18">
-        <v>0.9615678577355319</v>
+        <v>0.9615678577355335</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027392857988642</v>
+        <v>1.027392857988643</v>
       </c>
       <c r="J18">
-        <v>0.9818030497398974</v>
+        <v>0.9818030497398994</v>
       </c>
       <c r="K18">
-        <v>0.9958466882687368</v>
+        <v>0.9958466882687383</v>
       </c>
       <c r="L18">
-        <v>0.9785908026420886</v>
+        <v>0.9785908026420905</v>
       </c>
       <c r="M18">
-        <v>0.9760846804956447</v>
+        <v>0.9760846804956463</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9537285934721035</v>
+        <v>0.953728593472106</v>
       </c>
       <c r="D19">
-        <v>0.9823996960518734</v>
+        <v>0.9823996960518754</v>
       </c>
       <c r="E19">
-        <v>0.9649130152750122</v>
+        <v>0.9649130152750147</v>
       </c>
       <c r="F19">
-        <v>0.9624895749839205</v>
+        <v>0.9624895749839228</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027736524135355</v>
+        <v>1.027736524135356</v>
       </c>
       <c r="J19">
-        <v>0.9825156847833039</v>
+        <v>0.9825156847833063</v>
       </c>
       <c r="K19">
-        <v>0.9964630935362452</v>
+        <v>0.9964630935362471</v>
       </c>
       <c r="L19">
-        <v>0.9792982191609195</v>
+        <v>0.979298219160922</v>
       </c>
       <c r="M19">
-        <v>0.9769205835273632</v>
+        <v>0.9769205835273652</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9496833834528634</v>
+        <v>0.9496833834528626</v>
       </c>
       <c r="D20">
-        <v>0.97926563632065</v>
+        <v>0.9792656363206494</v>
       </c>
       <c r="E20">
-        <v>0.9613494413367815</v>
+        <v>0.9613494413367807</v>
       </c>
       <c r="F20">
         <v>0.9583339185822725</v>
@@ -1123,16 +1123,16 @@
         <v>1.026185631418109</v>
       </c>
       <c r="J20">
-        <v>0.9793018672701349</v>
+        <v>0.979301867270134</v>
       </c>
       <c r="K20">
-        <v>0.9936831432343984</v>
+        <v>0.9936831432343977</v>
       </c>
       <c r="L20">
-        <v>0.9761077555019584</v>
+        <v>0.9761077555019576</v>
       </c>
       <c r="M20">
-        <v>0.9731512397715455</v>
+        <v>0.9731512397715453</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9359005474679448</v>
+        <v>0.9359005474679449</v>
       </c>
       <c r="D21">
-        <v>0.9686033092312729</v>
+        <v>0.9686033092312734</v>
       </c>
       <c r="E21">
-        <v>0.9492165188099432</v>
+        <v>0.9492165188099433</v>
       </c>
       <c r="F21">
-        <v>0.9441860940039368</v>
+        <v>0.9441860940039369</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,13 +1161,13 @@
         <v>1.020880286002044</v>
       </c>
       <c r="J21">
-        <v>0.9683461855839423</v>
+        <v>0.9683461855839425</v>
       </c>
       <c r="K21">
-        <v>0.9842049569131771</v>
+        <v>0.9842049569131774</v>
       </c>
       <c r="L21">
-        <v>0.9652283968823261</v>
+        <v>0.9652283968823262</v>
       </c>
       <c r="M21">
         <v>0.9603080794776445</v>
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.926683830260119</v>
+        <v>0.92668383026012</v>
       </c>
       <c r="D22">
-        <v>0.9614884088993869</v>
+        <v>0.9614884088993878</v>
       </c>
       <c r="E22">
-        <v>0.9411117191625993</v>
+        <v>0.9411117191626003</v>
       </c>
       <c r="F22">
-        <v>0.9347343906687979</v>
+        <v>0.934734390668799</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.017317117747848</v>
       </c>
       <c r="J22">
-        <v>0.9610168673195548</v>
+        <v>0.9610168673195556</v>
       </c>
       <c r="K22">
-        <v>0.9778634409082827</v>
+        <v>0.9778634409082835</v>
       </c>
       <c r="L22">
-        <v>0.9579475572466241</v>
+        <v>0.9579475572466251</v>
       </c>
       <c r="M22">
-        <v>0.9517199852139864</v>
+        <v>0.9517199852139873</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9316268416452145</v>
+        <v>0.9316268416452133</v>
       </c>
       <c r="D23">
-        <v>0.9653026089673206</v>
+        <v>0.9653026089673193</v>
       </c>
       <c r="E23">
-        <v>0.9454574794863497</v>
+        <v>0.9454574794863487</v>
       </c>
       <c r="F23">
-        <v>0.939802564634644</v>
+        <v>0.9398025646346432</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019229440165469</v>
+        <v>1.019229440165468</v>
       </c>
       <c r="J23">
-        <v>0.9649478576475913</v>
+        <v>0.9649478576475904</v>
       </c>
       <c r="K23">
-        <v>0.9812646563714028</v>
+        <v>0.9812646563714017</v>
       </c>
       <c r="L23">
-        <v>0.961852787476809</v>
+        <v>0.9618527874768081</v>
       </c>
       <c r="M23">
-        <v>0.9563258050614045</v>
+        <v>0.9563258050614039</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9499060979791303</v>
+        <v>0.9499060979791301</v>
       </c>
       <c r="D24">
-        <v>0.9794381333669021</v>
+        <v>0.979438133366902</v>
       </c>
       <c r="E24">
-        <v>0.9615456099431958</v>
+        <v>0.9615456099431956</v>
       </c>
       <c r="F24">
-        <v>0.9585626731294036</v>
+        <v>0.9585626731294035</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1281,10 +1281,10 @@
         <v>0.9938362237779537</v>
       </c>
       <c r="L24">
-        <v>0.976283445489366</v>
+        <v>0.9762834454893655</v>
       </c>
       <c r="M24">
-        <v>0.97335876802751</v>
+        <v>0.9733587680275099</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9691234363688597</v>
+        <v>0.9691234363688602</v>
       </c>
       <c r="D25">
-        <v>0.9943441972371745</v>
+        <v>0.9943441972371753</v>
       </c>
       <c r="E25">
-        <v>0.9784840323771072</v>
+        <v>0.9784840323771078</v>
       </c>
       <c r="F25">
-        <v>0.9783198845578771</v>
+        <v>0.9783198845578774</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033607480426565</v>
       </c>
       <c r="J25">
-        <v>0.9947365524110608</v>
+        <v>0.9947365524110614</v>
       </c>
       <c r="K25">
-        <v>1.007030951373163</v>
+        <v>1.007030951373164</v>
       </c>
       <c r="L25">
-        <v>0.9914257988634021</v>
+        <v>0.9914257988634025</v>
       </c>
       <c r="M25">
-        <v>0.9912643459336052</v>
+        <v>0.9912643459336055</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831832625326838</v>
+        <v>0.9831832625326822</v>
       </c>
       <c r="D2">
-        <v>1.005273238148962</v>
+        <v>1.00527323814896</v>
       </c>
       <c r="E2">
-        <v>0.990888356115036</v>
+        <v>0.9908883561150347</v>
       </c>
       <c r="F2">
-        <v>0.9928005698790809</v>
+        <v>0.9928005698790795</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03891709017422</v>
+        <v>1.038917090174219</v>
       </c>
       <c r="J2">
-        <v>1.005878863184413</v>
+        <v>1.005878863184411</v>
       </c>
       <c r="K2">
-        <v>1.016659594008637</v>
+        <v>1.016659594008636</v>
       </c>
       <c r="L2">
-        <v>1.00247610730985</v>
+        <v>1.002476107309849</v>
       </c>
       <c r="M2">
-        <v>1.004361123861328</v>
+        <v>1.004361123861327</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9927844734042272</v>
+        <v>0.9927844734042274</v>
       </c>
       <c r="D3">
         <v>1.012745228183852</v>
       </c>
       <c r="E3">
-        <v>0.9993629379876864</v>
+        <v>0.9993629379876865</v>
       </c>
       <c r="F3">
         <v>1.002703530660451</v>
@@ -486,7 +486,7 @@
         <v>1.01000397663617</v>
       </c>
       <c r="M3">
-        <v>1.013301935788304</v>
+        <v>1.013301935788305</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,7 +497,7 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987499763113901</v>
+        <v>0.9987499763113903</v>
       </c>
       <c r="D4">
         <v>1.017390522844013</v>
@@ -506,7 +506,7 @@
         <v>1.00462945170419</v>
       </c>
       <c r="F4">
-        <v>1.008862995946739</v>
+        <v>1.008862995946738</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -524,7 +524,7 @@
         <v>1.014672322599953</v>
       </c>
       <c r="M4">
-        <v>1.018855616493863</v>
+        <v>1.018855616493862</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -562,7 +562,7 @@
         <v>1.016589814846665</v>
       </c>
       <c r="M5">
-        <v>1.021138997229725</v>
+        <v>1.021138997229724</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001611890405734</v>
+        <v>1.001611890405735</v>
       </c>
       <c r="D6">
-        <v>1.019619665038739</v>
+        <v>1.01961966503874</v>
       </c>
       <c r="E6">
-        <v>1.007156202565684</v>
+        <v>1.007156202565685</v>
       </c>
       <c r="F6">
-        <v>1.011819842480818</v>
+        <v>1.01181984248082</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045778753403796</v>
+        <v>1.045778753403797</v>
       </c>
       <c r="J6">
-        <v>1.020444064937645</v>
+        <v>1.020444064937647</v>
       </c>
       <c r="K6">
-        <v>1.029231378108354</v>
+        <v>1.029231378108356</v>
       </c>
       <c r="L6">
-        <v>1.016909219405179</v>
+        <v>1.01690921940518</v>
       </c>
       <c r="M6">
-        <v>1.021519482918825</v>
+        <v>1.021519482918827</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9987829648382721</v>
+        <v>0.9987829648382698</v>
       </c>
       <c r="D7">
-        <v>1.017416215591479</v>
+        <v>1.017416215591477</v>
       </c>
       <c r="E7">
-        <v>1.004658576385747</v>
+        <v>1.004658576385745</v>
       </c>
       <c r="F7">
-        <v>1.008897071637349</v>
+        <v>1.008897071637348</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044733852796663</v>
+        <v>1.044733852796662</v>
       </c>
       <c r="J7">
-        <v>1.018211751707497</v>
+        <v>1.018211751707494</v>
       </c>
       <c r="K7">
-        <v>1.027305957548451</v>
+        <v>1.027305957548449</v>
       </c>
       <c r="L7">
-        <v>1.014698117106358</v>
+        <v>1.014698117106356</v>
       </c>
       <c r="M7">
-        <v>1.018886324035566</v>
+        <v>1.018886324035564</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.98648201576158</v>
+        <v>0.9864820157615802</v>
       </c>
       <c r="D8">
         <v>1.007839746875711</v>
       </c>
       <c r="E8">
-        <v>0.993799743123116</v>
+        <v>0.9937997431231166</v>
       </c>
       <c r="F8">
-        <v>0.996201607968152</v>
+        <v>0.9962016079681529</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -676,7 +676,7 @@
         <v>1.005064361050179</v>
       </c>
       <c r="M8">
-        <v>1.007433277911045</v>
+        <v>1.007433277911046</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9626836529065904</v>
+        <v>0.962683652906591</v>
       </c>
       <c r="D9">
-        <v>0.9893445818925324</v>
+        <v>0.9893445818925326</v>
       </c>
       <c r="E9">
-        <v>0.9728055395965896</v>
+        <v>0.9728055395965898</v>
       </c>
       <c r="F9">
-        <v>0.9716949136845556</v>
+        <v>0.9716949136845558</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,13 +705,13 @@
         <v>1.03115809034807</v>
       </c>
       <c r="J9">
-        <v>0.989626640005325</v>
+        <v>0.9896266400053254</v>
       </c>
       <c r="K9">
         <v>1.002612934334461</v>
       </c>
       <c r="L9">
-        <v>0.9863557954614525</v>
+        <v>0.9863557954614528</v>
       </c>
       <c r="M9">
         <v>0.9852645451954068</v>
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9450031797808932</v>
+        <v>0.9450031797808958</v>
       </c>
       <c r="D10">
-        <v>0.9756421917468466</v>
+        <v>0.9756421917468491</v>
       </c>
       <c r="E10">
-        <v>0.9572278928598348</v>
+        <v>0.9572278928598374</v>
       </c>
       <c r="F10">
-        <v>0.953527859995601</v>
+        <v>0.9535278599956029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024387582774607</v>
+        <v>1.024387582774609</v>
       </c>
       <c r="J10">
-        <v>0.9755825267277771</v>
+        <v>0.9755825267277797</v>
       </c>
       <c r="K10">
-        <v>0.9904656156509635</v>
+        <v>0.9904656156509658</v>
       </c>
       <c r="L10">
-        <v>0.9724148787367055</v>
+        <v>0.9724148787367082</v>
       </c>
       <c r="M10">
-        <v>0.9687901318527594</v>
+        <v>0.9687901318527613</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9368043285525594</v>
+        <v>0.9368043285525613</v>
       </c>
       <c r="D11">
-        <v>0.9693016656660084</v>
+        <v>0.9693016656660101</v>
       </c>
       <c r="E11">
-        <v>0.950011656898666</v>
+        <v>0.9500116568986682</v>
       </c>
       <c r="F11">
-        <v>0.9451132962056891</v>
+        <v>0.9451132962056912</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.021229075519269</v>
+        <v>1.02122907551927</v>
       </c>
       <c r="J11">
-        <v>0.9690647874062429</v>
+        <v>0.969064787406245</v>
       </c>
       <c r="K11">
-        <v>0.9848266956789287</v>
+        <v>0.9848266956789304</v>
       </c>
       <c r="L11">
-        <v>0.9659421393677537</v>
+        <v>0.9659421393677559</v>
       </c>
       <c r="M11">
-        <v>0.9611502387614312</v>
+        <v>0.9611502387614334</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9336651125368742</v>
+        <v>0.933665112536872</v>
       </c>
       <c r="D12">
-        <v>0.9668764858957243</v>
+        <v>0.9668764858957224</v>
       </c>
       <c r="E12">
-        <v>0.9472500958316455</v>
+        <v>0.9472500958316434</v>
       </c>
       <c r="F12">
-        <v>0.9418930245111209</v>
+        <v>0.9418930245111186</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020017090667919</v>
+        <v>1.020017090667918</v>
       </c>
       <c r="J12">
-        <v>0.9665686854952158</v>
+        <v>0.9665686854952137</v>
       </c>
       <c r="K12">
-        <v>0.982667036592268</v>
+        <v>0.9826670365922663</v>
       </c>
       <c r="L12">
-        <v>0.9634628330270912</v>
+        <v>0.963462833027089</v>
       </c>
       <c r="M12">
-        <v>0.9582250732459362</v>
+        <v>0.9582250732459342</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.934342955442372</v>
+        <v>0.9343429554423721</v>
       </c>
       <c r="D13">
         <v>0.9674000271816953</v>
       </c>
       <c r="E13">
-        <v>0.947846322912379</v>
+        <v>0.9478463229123789</v>
       </c>
       <c r="F13">
-        <v>0.9425882995189725</v>
+        <v>0.9425882995189727</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -863,10 +863,10 @@
         <v>0.983133388184786</v>
       </c>
       <c r="L13">
-        <v>0.9639982241557258</v>
+        <v>0.963998224155726</v>
       </c>
       <c r="M13">
-        <v>0.9588566937686476</v>
+        <v>0.9588566937686478</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9365468337418043</v>
+        <v>0.9365468337418063</v>
       </c>
       <c r="D14">
-        <v>0.9691026860916259</v>
+        <v>0.9691026860916276</v>
       </c>
       <c r="E14">
-        <v>0.949785108550585</v>
+        <v>0.949785108550587</v>
       </c>
       <c r="F14">
-        <v>0.9448491214535811</v>
+        <v>0.9448491214535826</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021129714313695</v>
+        <v>1.021129714313696</v>
       </c>
       <c r="J14">
-        <v>0.9688600540388065</v>
+        <v>0.9688600540388086</v>
       </c>
       <c r="K14">
-        <v>0.984649559533589</v>
+        <v>0.9846495595335907</v>
       </c>
       <c r="L14">
-        <v>0.9657387924533734</v>
+        <v>0.9657387924533751</v>
       </c>
       <c r="M14">
-        <v>0.9609103002767387</v>
+        <v>0.9609103002767398</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,19 +912,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.937891875657029</v>
+        <v>0.9378918756570296</v>
       </c>
       <c r="D15">
-        <v>0.9701421742112484</v>
+        <v>0.9701421742112485</v>
       </c>
       <c r="E15">
-        <v>0.9509685591163185</v>
+        <v>0.9509685591163192</v>
       </c>
       <c r="F15">
-        <v>0.9462291189659018</v>
+        <v>0.9462291189659026</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.021648628887223</v>
       </c>
       <c r="J15">
-        <v>0.9699294717283322</v>
+        <v>0.9699294717283327</v>
       </c>
       <c r="K15">
         <v>0.9855748199110607</v>
       </c>
       <c r="L15">
-        <v>0.9668009503222914</v>
+        <v>0.9668009503222919</v>
       </c>
       <c r="M15">
-        <v>0.9621636374060805</v>
+        <v>0.962163637406081</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9455348858037951</v>
+        <v>0.9455348858037943</v>
       </c>
       <c r="D16">
-        <v>0.9760536984904045</v>
+        <v>0.9760536984904034</v>
       </c>
       <c r="E16">
-        <v>0.9576960520558909</v>
+        <v>0.9576960520558901</v>
       </c>
       <c r="F16">
-        <v>0.9540737622332428</v>
+        <v>0.9540737622332421</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.024592045092675</v>
       </c>
       <c r="J16">
-        <v>0.9760051219793664</v>
+        <v>0.9760051219793654</v>
       </c>
       <c r="K16">
-        <v>0.9908312083072802</v>
+        <v>0.9908312083072793</v>
       </c>
       <c r="L16">
-        <v>0.9728344967382536</v>
+        <v>0.9728344967382527</v>
       </c>
       <c r="M16">
-        <v>0.969285588651988</v>
+        <v>0.9692855886519872</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9501759207855212</v>
+        <v>0.9501759207855189</v>
       </c>
       <c r="D17">
-        <v>0.9796471251202139</v>
+        <v>0.9796471251202122</v>
       </c>
       <c r="E17">
-        <v>0.9617832764462174</v>
+        <v>0.9617832764462152</v>
       </c>
       <c r="F17">
-        <v>0.9588398198330633</v>
+        <v>0.9588398198330613</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.0263746289142</v>
+        <v>1.026374628914199</v>
       </c>
       <c r="J17">
-        <v>0.979693223004752</v>
+        <v>0.9796932230047499</v>
       </c>
       <c r="K17">
-        <v>0.9940216797507049</v>
+        <v>0.9940216797507032</v>
       </c>
       <c r="L17">
-        <v>0.9764962919445125</v>
+        <v>0.9764962919445106</v>
       </c>
       <c r="M17">
-        <v>0.9736101921264009</v>
+        <v>0.9736101921263989</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9528315057194487</v>
+        <v>0.9528315057194467</v>
       </c>
       <c r="D18">
-        <v>0.9817044964800867</v>
+        <v>0.9817044964800846</v>
       </c>
       <c r="E18">
-        <v>0.9641226436380106</v>
+        <v>0.9641226436380087</v>
       </c>
       <c r="F18">
-        <v>0.9615678577355335</v>
+        <v>0.9615678577355319</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027392857988643</v>
+        <v>1.027392857988642</v>
       </c>
       <c r="J18">
-        <v>0.9818030497398994</v>
+        <v>0.9818030497398974</v>
       </c>
       <c r="K18">
-        <v>0.9958466882687383</v>
+        <v>0.9958466882687368</v>
       </c>
       <c r="L18">
-        <v>0.9785908026420905</v>
+        <v>0.9785908026420886</v>
       </c>
       <c r="M18">
-        <v>0.9760846804956463</v>
+        <v>0.9760846804956447</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.953728593472106</v>
+        <v>0.9537285934721035</v>
       </c>
       <c r="D19">
-        <v>0.9823996960518754</v>
+        <v>0.9823996960518734</v>
       </c>
       <c r="E19">
-        <v>0.9649130152750147</v>
+        <v>0.9649130152750122</v>
       </c>
       <c r="F19">
-        <v>0.9624895749839228</v>
+        <v>0.9624895749839205</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027736524135356</v>
+        <v>1.027736524135355</v>
       </c>
       <c r="J19">
-        <v>0.9825156847833063</v>
+        <v>0.9825156847833039</v>
       </c>
       <c r="K19">
-        <v>0.9964630935362471</v>
+        <v>0.9964630935362452</v>
       </c>
       <c r="L19">
-        <v>0.979298219160922</v>
+        <v>0.9792982191609195</v>
       </c>
       <c r="M19">
-        <v>0.9769205835273652</v>
+        <v>0.9769205835273632</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,13 +1105,13 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9496833834528626</v>
+        <v>0.9496833834528634</v>
       </c>
       <c r="D20">
-        <v>0.9792656363206494</v>
+        <v>0.97926563632065</v>
       </c>
       <c r="E20">
-        <v>0.9613494413367807</v>
+        <v>0.9613494413367815</v>
       </c>
       <c r="F20">
         <v>0.9583339185822725</v>
@@ -1123,16 +1123,16 @@
         <v>1.026185631418109</v>
       </c>
       <c r="J20">
-        <v>0.979301867270134</v>
+        <v>0.9793018672701349</v>
       </c>
       <c r="K20">
-        <v>0.9936831432343977</v>
+        <v>0.9936831432343984</v>
       </c>
       <c r="L20">
-        <v>0.9761077555019576</v>
+        <v>0.9761077555019584</v>
       </c>
       <c r="M20">
-        <v>0.9731512397715453</v>
+        <v>0.9731512397715455</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9359005474679449</v>
+        <v>0.9359005474679448</v>
       </c>
       <c r="D21">
-        <v>0.9686033092312734</v>
+        <v>0.9686033092312729</v>
       </c>
       <c r="E21">
-        <v>0.9492165188099433</v>
+        <v>0.9492165188099432</v>
       </c>
       <c r="F21">
-        <v>0.9441860940039369</v>
+        <v>0.9441860940039368</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,13 +1161,13 @@
         <v>1.020880286002044</v>
       </c>
       <c r="J21">
-        <v>0.9683461855839425</v>
+        <v>0.9683461855839423</v>
       </c>
       <c r="K21">
-        <v>0.9842049569131774</v>
+        <v>0.9842049569131771</v>
       </c>
       <c r="L21">
-        <v>0.9652283968823262</v>
+        <v>0.9652283968823261</v>
       </c>
       <c r="M21">
         <v>0.9603080794776445</v>
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.92668383026012</v>
+        <v>0.926683830260119</v>
       </c>
       <c r="D22">
-        <v>0.9614884088993878</v>
+        <v>0.9614884088993869</v>
       </c>
       <c r="E22">
-        <v>0.9411117191626003</v>
+        <v>0.9411117191625993</v>
       </c>
       <c r="F22">
-        <v>0.934734390668799</v>
+        <v>0.9347343906687979</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.017317117747848</v>
       </c>
       <c r="J22">
-        <v>0.9610168673195556</v>
+        <v>0.9610168673195548</v>
       </c>
       <c r="K22">
-        <v>0.9778634409082835</v>
+        <v>0.9778634409082827</v>
       </c>
       <c r="L22">
-        <v>0.9579475572466251</v>
+        <v>0.9579475572466241</v>
       </c>
       <c r="M22">
-        <v>0.9517199852139873</v>
+        <v>0.9517199852139864</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9316268416452133</v>
+        <v>0.9316268416452145</v>
       </c>
       <c r="D23">
-        <v>0.9653026089673193</v>
+        <v>0.9653026089673206</v>
       </c>
       <c r="E23">
-        <v>0.9454574794863487</v>
+        <v>0.9454574794863497</v>
       </c>
       <c r="F23">
-        <v>0.9398025646346432</v>
+        <v>0.939802564634644</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019229440165468</v>
+        <v>1.019229440165469</v>
       </c>
       <c r="J23">
-        <v>0.9649478576475904</v>
+        <v>0.9649478576475913</v>
       </c>
       <c r="K23">
-        <v>0.9812646563714017</v>
+        <v>0.9812646563714028</v>
       </c>
       <c r="L23">
-        <v>0.9618527874768081</v>
+        <v>0.961852787476809</v>
       </c>
       <c r="M23">
-        <v>0.9563258050614039</v>
+        <v>0.9563258050614045</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9499060979791301</v>
+        <v>0.9499060979791303</v>
       </c>
       <c r="D24">
-        <v>0.979438133366902</v>
+        <v>0.9794381333669021</v>
       </c>
       <c r="E24">
-        <v>0.9615456099431956</v>
+        <v>0.9615456099431958</v>
       </c>
       <c r="F24">
-        <v>0.9585626731294035</v>
+        <v>0.9585626731294036</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1281,10 +1281,10 @@
         <v>0.9938362237779537</v>
       </c>
       <c r="L24">
-        <v>0.9762834454893655</v>
+        <v>0.976283445489366</v>
       </c>
       <c r="M24">
-        <v>0.9733587680275099</v>
+        <v>0.97335876802751</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9691234363688602</v>
+        <v>0.9691234363688597</v>
       </c>
       <c r="D25">
-        <v>0.9943441972371753</v>
+        <v>0.9943441972371745</v>
       </c>
       <c r="E25">
-        <v>0.9784840323771078</v>
+        <v>0.9784840323771072</v>
       </c>
       <c r="F25">
-        <v>0.9783198845578774</v>
+        <v>0.9783198845578771</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.033607480426565</v>
       </c>
       <c r="J25">
-        <v>0.9947365524110614</v>
+        <v>0.9947365524110608</v>
       </c>
       <c r="K25">
-        <v>1.007030951373164</v>
+        <v>1.007030951373163</v>
       </c>
       <c r="L25">
-        <v>0.9914257988634025</v>
+        <v>0.9914257988634021</v>
       </c>
       <c r="M25">
-        <v>0.9912643459336055</v>
+        <v>0.9912643459336052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9831832625326822</v>
+        <v>0.9859408714217944</v>
       </c>
       <c r="D2">
-        <v>1.00527323814896</v>
+        <v>1.007487210778364</v>
       </c>
       <c r="E2">
-        <v>0.9908883561150347</v>
+        <v>0.9932365397315496</v>
       </c>
       <c r="F2">
-        <v>0.9928005698790795</v>
+        <v>0.9948064850316028</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038917090174219</v>
+        <v>1.040087442017468</v>
       </c>
       <c r="J2">
-        <v>1.005878863184411</v>
+        <v>1.008550377079239</v>
       </c>
       <c r="K2">
-        <v>1.016659594008636</v>
+        <v>1.018843213131376</v>
       </c>
       <c r="L2">
-        <v>1.002476107309849</v>
+        <v>1.004790911497546</v>
       </c>
       <c r="M2">
-        <v>1.004361123861327</v>
+        <v>1.006338651119053</v>
+      </c>
+      <c r="N2">
+        <v>1.009982634297036</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9927844734042274</v>
+        <v>0.9955156075456773</v>
       </c>
       <c r="D3">
-        <v>1.012745228183852</v>
+        <v>1.014941544103671</v>
       </c>
       <c r="E3">
-        <v>0.9993629379876865</v>
+        <v>1.001689693125859</v>
       </c>
       <c r="F3">
-        <v>1.002703530660451</v>
+        <v>1.00468095256272</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042507622789142</v>
+        <v>1.043669444767335</v>
       </c>
       <c r="J3">
-        <v>1.013473792539809</v>
+        <v>1.016129272653107</v>
       </c>
       <c r="K3">
-        <v>1.023217587901825</v>
+        <v>1.025386748994289</v>
       </c>
       <c r="L3">
-        <v>1.01000397663617</v>
+        <v>1.012300999570843</v>
       </c>
       <c r="M3">
-        <v>1.013301935788305</v>
+        <v>1.01525428805095</v>
+      </c>
+      <c r="N3">
+        <v>1.017572292771931</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9987499763113903</v>
+        <v>1.001466063398624</v>
       </c>
       <c r="D4">
-        <v>1.017390522844013</v>
+        <v>1.019576875543785</v>
       </c>
       <c r="E4">
-        <v>1.00462945170419</v>
+        <v>1.006944078574824</v>
       </c>
       <c r="F4">
-        <v>1.008862995946738</v>
+        <v>1.010824053132615</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044721648530871</v>
+        <v>1.04587873553125</v>
       </c>
       <c r="J4">
-        <v>1.01818571196298</v>
+        <v>1.020832341327338</v>
       </c>
       <c r="K4">
-        <v>1.027283494377137</v>
+        <v>1.029444629866168</v>
       </c>
       <c r="L4">
-        <v>1.014672322599953</v>
+        <v>1.016959410970939</v>
       </c>
       <c r="M4">
-        <v>1.018855616493862</v>
+        <v>1.020793573358071</v>
+      </c>
+      <c r="N4">
+        <v>1.022282040343129</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001203095262751</v>
+        <v>1.003913296596957</v>
       </c>
       <c r="D5">
-        <v>1.01930123442182</v>
+        <v>1.021483707850963</v>
       </c>
       <c r="E5">
-        <v>1.006795277186779</v>
+        <v>1.009105172692284</v>
       </c>
       <c r="F5">
-        <v>1.011397410257487</v>
+        <v>1.013352025548832</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045627966871977</v>
+        <v>1.046783229697047</v>
       </c>
       <c r="J5">
-        <v>1.020121573029174</v>
+        <v>1.022764803081911</v>
       </c>
       <c r="K5">
-        <v>1.028953256814575</v>
+        <v>1.031111299468983</v>
       </c>
       <c r="L5">
-        <v>1.016589814846665</v>
+        <v>1.018873058877474</v>
       </c>
       <c r="M5">
-        <v>1.021138997229724</v>
+        <v>1.023071302831393</v>
+      </c>
+      <c r="N5">
+        <v>1.02421724641505</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001611890405735</v>
+        <v>1.004321127773895</v>
       </c>
       <c r="D6">
-        <v>1.01961966503874</v>
+        <v>1.021801504201657</v>
       </c>
       <c r="E6">
-        <v>1.007156202565685</v>
+        <v>1.009465323936603</v>
       </c>
       <c r="F6">
-        <v>1.01181984248082</v>
+        <v>1.013773400313495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045778753403797</v>
+        <v>1.046933719146258</v>
       </c>
       <c r="J6">
-        <v>1.020444064937647</v>
+        <v>1.0230867419642</v>
       </c>
       <c r="K6">
-        <v>1.029231378108356</v>
+        <v>1.031388916984125</v>
       </c>
       <c r="L6">
-        <v>1.01690921940518</v>
+        <v>1.019191836292269</v>
       </c>
       <c r="M6">
-        <v>1.021519482918827</v>
+        <v>1.023450861764321</v>
+      </c>
+      <c r="N6">
+        <v>1.024539642487478</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9987829648382698</v>
+        <v>1.001498971621073</v>
       </c>
       <c r="D7">
-        <v>1.017416215591477</v>
+        <v>1.019602515289658</v>
       </c>
       <c r="E7">
-        <v>1.004658576385745</v>
+        <v>1.006973138650219</v>
       </c>
       <c r="F7">
-        <v>1.008897071637348</v>
+        <v>1.010858041095555</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044733852796662</v>
+        <v>1.045890914793972</v>
       </c>
       <c r="J7">
-        <v>1.018211751707494</v>
+        <v>1.020858334438359</v>
       </c>
       <c r="K7">
-        <v>1.027305957548449</v>
+        <v>1.029467050650636</v>
       </c>
       <c r="L7">
-        <v>1.014698117106356</v>
+        <v>1.016985152856467</v>
       </c>
       <c r="M7">
-        <v>1.018886324035564</v>
+        <v>1.020824203876678</v>
+      </c>
+      <c r="N7">
+        <v>1.022308070367349</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9864820157615802</v>
+        <v>0.9892302070559723</v>
       </c>
       <c r="D8">
-        <v>1.007839746875711</v>
+        <v>1.010047422785924</v>
       </c>
       <c r="E8">
-        <v>0.9937997431231166</v>
+        <v>0.9961402930913048</v>
       </c>
       <c r="F8">
-        <v>0.9962016079681529</v>
+        <v>0.9981974261320774</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040154249676074</v>
+        <v>1.041321542273125</v>
       </c>
       <c r="J8">
-        <v>1.008489747495824</v>
+        <v>1.011155498467021</v>
       </c>
       <c r="K8">
-        <v>1.018914560751957</v>
+        <v>1.021092993816575</v>
       </c>
       <c r="L8">
-        <v>1.005064361050179</v>
+        <v>1.007372801642571</v>
       </c>
       <c r="M8">
-        <v>1.007433277911046</v>
+        <v>1.009401869916561</v>
+      </c>
+      <c r="N8">
+        <v>1.012591455256001</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.962683652906591</v>
+        <v>0.9655078537697049</v>
       </c>
       <c r="D9">
-        <v>0.9893445818925326</v>
+        <v>0.9916034282924864</v>
       </c>
       <c r="E9">
-        <v>0.9728055395965898</v>
+        <v>0.9752079412074531</v>
       </c>
       <c r="F9">
-        <v>0.9716949136845558</v>
+        <v>0.9737713156316583</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03115809034807</v>
+        <v>1.032350631671223</v>
       </c>
       <c r="J9">
-        <v>0.9896266400053254</v>
+        <v>0.9923403046023013</v>
       </c>
       <c r="K9">
-        <v>1.002612934334461</v>
+        <v>1.004834219014468</v>
       </c>
       <c r="L9">
-        <v>0.9863557954614528</v>
+        <v>0.9887164808330956</v>
       </c>
       <c r="M9">
-        <v>0.9852645451954068</v>
+        <v>0.9873047693603793</v>
+      </c>
+      <c r="N9">
+        <v>0.9937495416578603</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9450031797808958</v>
+        <v>0.9478972297087955</v>
       </c>
       <c r="D10">
-        <v>0.9756421917468491</v>
+        <v>0.9779485171817273</v>
       </c>
       <c r="E10">
-        <v>0.9572278928598374</v>
+        <v>0.9596874361336792</v>
       </c>
       <c r="F10">
-        <v>0.9535278599956029</v>
+        <v>0.9556770222776323</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024387582774609</v>
+        <v>1.025604069707875</v>
       </c>
       <c r="J10">
-        <v>0.9755825267277797</v>
+        <v>0.9783422301429889</v>
       </c>
       <c r="K10">
-        <v>0.9904656156509658</v>
+        <v>0.9927276688043102</v>
       </c>
       <c r="L10">
-        <v>0.9724148787367082</v>
+        <v>0.9748247994875453</v>
       </c>
       <c r="M10">
-        <v>0.9687901318527613</v>
+        <v>0.9708954707909412</v>
+      </c>
+      <c r="N10">
+        <v>0.9797315883272142</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9368043285525613</v>
+        <v>0.9397352158303791</v>
       </c>
       <c r="D11">
-        <v>0.9693016656660101</v>
+        <v>0.9716331318465937</v>
       </c>
       <c r="E11">
-        <v>0.9500116568986682</v>
+        <v>0.9525013982191041</v>
       </c>
       <c r="F11">
-        <v>0.9451132962056912</v>
+        <v>0.9473005061354253</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02122907551927</v>
+        <v>1.022458363060281</v>
       </c>
       <c r="J11">
-        <v>0.969064787406245</v>
+        <v>0.9718492871521518</v>
       </c>
       <c r="K11">
-        <v>0.9848266956789304</v>
+        <v>0.9871105941777182</v>
       </c>
       <c r="L11">
-        <v>0.9659421393677559</v>
+        <v>0.9683783254998334</v>
       </c>
       <c r="M11">
-        <v>0.9611502387614334</v>
+        <v>0.9632897315991105</v>
+      </c>
+      <c r="N11">
+        <v>0.9732294246125793</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.933665112536872</v>
+        <v>0.9366109198861015</v>
       </c>
       <c r="D12">
-        <v>0.9668764858957224</v>
+        <v>0.9692181491455231</v>
       </c>
       <c r="E12">
-        <v>0.9472500958316434</v>
+        <v>0.9497520764658729</v>
       </c>
       <c r="F12">
-        <v>0.9418930245111186</v>
+        <v>0.9440955945734145</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020017090667918</v>
+        <v>1.021251588236126</v>
       </c>
       <c r="J12">
-        <v>0.9665686854952137</v>
+        <v>0.9693633095838304</v>
       </c>
       <c r="K12">
-        <v>0.9826670365922663</v>
+        <v>0.9849598361435445</v>
       </c>
       <c r="L12">
-        <v>0.963462833027089</v>
+        <v>0.9659097029788891</v>
       </c>
       <c r="M12">
-        <v>0.9582250732459342</v>
+        <v>0.9603783698613306</v>
+      </c>
+      <c r="N12">
+        <v>0.970739916670965</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9343429554423721</v>
+        <v>0.9372855015642021</v>
       </c>
       <c r="D13">
-        <v>0.9674000271816953</v>
+        <v>0.9697394609259136</v>
       </c>
       <c r="E13">
-        <v>0.9478463229123789</v>
+        <v>0.9503456279253473</v>
       </c>
       <c r="F13">
-        <v>0.9425882995189727</v>
+        <v>0.9447875144249194</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020278906906571</v>
+        <v>1.021512264536126</v>
       </c>
       <c r="J13">
-        <v>0.967107683627336</v>
+        <v>0.9699000910471693</v>
       </c>
       <c r="K13">
-        <v>0.983133388184786</v>
+        <v>0.9854242397473776</v>
       </c>
       <c r="L13">
-        <v>0.963998224155726</v>
+        <v>0.9664427567871775</v>
       </c>
       <c r="M13">
-        <v>0.9588566937686478</v>
+        <v>0.9610069744921725</v>
+      </c>
+      <c r="N13">
+        <v>0.9712774604255516</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9365468337418063</v>
+        <v>0.9394789273684617</v>
       </c>
       <c r="D14">
-        <v>0.9691026860916276</v>
+        <v>0.9714349764655019</v>
       </c>
       <c r="E14">
-        <v>0.949785108550587</v>
+        <v>0.9522758393109617</v>
       </c>
       <c r="F14">
-        <v>0.9448491214535826</v>
+        <v>0.9470375743142591</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.021129714313696</v>
+        <v>1.022359422603935</v>
       </c>
       <c r="J14">
-        <v>0.9688600540388086</v>
+        <v>0.9716453707465612</v>
       </c>
       <c r="K14">
-        <v>0.9846495595335907</v>
+        <v>0.98693417665676</v>
       </c>
       <c r="L14">
-        <v>0.9657387924533751</v>
+        <v>0.9681758415060546</v>
       </c>
       <c r="M14">
-        <v>0.9609103002767398</v>
+        <v>0.9630509097975939</v>
+      </c>
+      <c r="N14">
+        <v>0.9730252186223032</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9378918756570296</v>
+        <v>0.9408177018068113</v>
       </c>
       <c r="D15">
-        <v>0.9701421742112485</v>
+        <v>0.9724701831284276</v>
       </c>
       <c r="E15">
-        <v>0.9509685591163192</v>
+        <v>0.9534541496531949</v>
       </c>
       <c r="F15">
-        <v>0.9462291189659026</v>
+        <v>0.9484111123017885</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021648628887223</v>
+        <v>1.022876152216497</v>
       </c>
       <c r="J15">
-        <v>0.9699294717283327</v>
+        <v>0.9727105472156711</v>
       </c>
       <c r="K15">
-        <v>0.9855748199110607</v>
+        <v>0.9878557055940254</v>
       </c>
       <c r="L15">
-        <v>0.9668009503222919</v>
+        <v>0.9692335179576845</v>
       </c>
       <c r="M15">
-        <v>0.962163637406081</v>
+        <v>0.9642984441290239</v>
+      </c>
+      <c r="N15">
+        <v>0.9740919077641765</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9455348858037943</v>
+        <v>0.9484266491809752</v>
       </c>
       <c r="D16">
-        <v>0.9760536984904034</v>
+        <v>0.9783584653036356</v>
       </c>
       <c r="E16">
-        <v>0.9576960520558901</v>
+        <v>0.9601537220233125</v>
       </c>
       <c r="F16">
-        <v>0.9540737622332421</v>
+        <v>0.9562205564252669</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024592045092675</v>
+        <v>1.025807740779529</v>
       </c>
       <c r="J16">
-        <v>0.9760051219793654</v>
+        <v>0.9787632965432348</v>
       </c>
       <c r="K16">
-        <v>0.9908312083072793</v>
+        <v>0.9930919122771883</v>
       </c>
       <c r="L16">
-        <v>0.9728344967382527</v>
+        <v>0.9752427930195531</v>
       </c>
       <c r="M16">
-        <v>0.9692855886519872</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9713888038723922</v>
+      </c>
+      <c r="N16">
+        <v>0.9801532526900455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9501759207855189</v>
+        <v>0.953048233737944</v>
       </c>
       <c r="D17">
-        <v>0.9796471251202122</v>
+        <v>0.9819386440102442</v>
       </c>
       <c r="E17">
-        <v>0.9617832764462152</v>
+        <v>0.9642250176087979</v>
       </c>
       <c r="F17">
-        <v>0.9588398198330613</v>
+        <v>0.9609664360774069</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026374628914199</v>
+        <v>1.027583611715639</v>
       </c>
       <c r="J17">
-        <v>0.9796932230047499</v>
+        <v>0.9824384464267205</v>
       </c>
       <c r="K17">
-        <v>0.9940216797507032</v>
+        <v>0.9962709428745973</v>
       </c>
       <c r="L17">
-        <v>0.9764962919445106</v>
+        <v>0.9788908009121662</v>
       </c>
       <c r="M17">
-        <v>0.9736101921263989</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9756953225071546</v>
+      </c>
+      <c r="N17">
+        <v>0.9838336217079114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9528315057194467</v>
+        <v>0.9556930895593417</v>
       </c>
       <c r="D18">
-        <v>0.9817044964800846</v>
+        <v>0.9839887163275812</v>
       </c>
       <c r="E18">
-        <v>0.9641226436380087</v>
+        <v>0.9665556036643336</v>
       </c>
       <c r="F18">
-        <v>0.9615678577355319</v>
+        <v>0.9636833158144051</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027392857988642</v>
+        <v>1.028598152612294</v>
       </c>
       <c r="J18">
-        <v>0.9818030497398974</v>
+        <v>0.984541173072063</v>
       </c>
       <c r="K18">
-        <v>0.9958466882687368</v>
+        <v>0.9980896698712068</v>
       </c>
       <c r="L18">
-        <v>0.9785908026420886</v>
+        <v>0.9809777319146382</v>
       </c>
       <c r="M18">
-        <v>0.9760846804956447</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9781598191453625</v>
+      </c>
+      <c r="N18">
+        <v>0.9859393344662764</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9537285934721035</v>
+        <v>0.9565866171487694</v>
       </c>
       <c r="D19">
-        <v>0.9823996960518734</v>
+        <v>0.9846814954044999</v>
       </c>
       <c r="E19">
-        <v>0.9649130152750122</v>
+        <v>0.96734306246313</v>
       </c>
       <c r="F19">
-        <v>0.9624895749839205</v>
+        <v>0.9646013258583519</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027736524135355</v>
+        <v>1.028940597450457</v>
       </c>
       <c r="J19">
-        <v>0.9825156847833039</v>
+        <v>0.985251459509911</v>
       </c>
       <c r="K19">
-        <v>0.9964630935362452</v>
+        <v>0.998703995744314</v>
       </c>
       <c r="L19">
-        <v>0.9792982191609195</v>
+        <v>0.9816826376408959</v>
       </c>
       <c r="M19">
-        <v>0.9769205835273632</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9789924040340395</v>
+      </c>
+      <c r="N19">
+        <v>0.9866506295923367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9496833834528634</v>
+        <v>0.952557717996397</v>
       </c>
       <c r="D20">
-        <v>0.97926563632065</v>
+        <v>0.9815585312279894</v>
       </c>
       <c r="E20">
-        <v>0.9613494413367815</v>
+        <v>0.9637928375041838</v>
       </c>
       <c r="F20">
-        <v>0.9583339185822725</v>
+        <v>0.960462634972979</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026185631418109</v>
+        <v>1.027395310372709</v>
       </c>
       <c r="J20">
-        <v>0.9793018672701349</v>
+        <v>0.9820484321127642</v>
       </c>
       <c r="K20">
-        <v>0.9936831432343984</v>
+        <v>0.9959335923548847</v>
       </c>
       <c r="L20">
-        <v>0.9761077555019584</v>
+        <v>0.978503694756281</v>
       </c>
       <c r="M20">
-        <v>0.9731512397715455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9752382514988229</v>
+      </c>
+      <c r="N20">
+        <v>0.9834430535288938</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9359005474679448</v>
+        <v>0.9388356825625833</v>
       </c>
       <c r="D21">
-        <v>0.9686033092312729</v>
+        <v>0.9709376778011224</v>
       </c>
       <c r="E21">
-        <v>0.9492165188099432</v>
+        <v>0.9517097442916059</v>
       </c>
       <c r="F21">
-        <v>0.9441860940039368</v>
+        <v>0.9463776797673107</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020880286002044</v>
+        <v>1.022111055493793</v>
       </c>
       <c r="J21">
-        <v>0.9683461855839423</v>
+        <v>0.9711335633269198</v>
       </c>
       <c r="K21">
-        <v>0.9842049569131771</v>
+        <v>0.9864913866895816</v>
       </c>
       <c r="L21">
-        <v>0.9652283968823261</v>
+        <v>0.9676676222700167</v>
       </c>
       <c r="M21">
-        <v>0.9603080794776445</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9624515039301256</v>
+      </c>
+      <c r="N21">
+        <v>0.9725126843774208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.926683830260119</v>
+        <v>0.9296645381193418</v>
       </c>
       <c r="D22">
-        <v>0.9614884088993869</v>
+        <v>0.9638539513143591</v>
       </c>
       <c r="E22">
-        <v>0.9411117191625993</v>
+        <v>0.9436423440654084</v>
       </c>
       <c r="F22">
-        <v>0.9347343906687979</v>
+        <v>0.9369727937030025</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017317117747848</v>
+        <v>1.018563850545847</v>
       </c>
       <c r="J22">
-        <v>0.9610168673195548</v>
+        <v>0.9638353333387846</v>
       </c>
       <c r="K22">
-        <v>0.9778634409082827</v>
+        <v>0.980177164524608</v>
       </c>
       <c r="L22">
-        <v>0.9579475572466241</v>
+        <v>0.9604195063329637</v>
       </c>
       <c r="M22">
-        <v>0.9517199852139864</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9539055135404823</v>
+      </c>
+      <c r="N22">
+        <v>0.9652040900655838</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9316268416452145</v>
+        <v>0.9345825890899337</v>
       </c>
       <c r="D23">
-        <v>0.9653026089673206</v>
+        <v>0.9676510697224424</v>
       </c>
       <c r="E23">
-        <v>0.9454574794863497</v>
+        <v>0.9479676164444883</v>
       </c>
       <c r="F23">
-        <v>0.939802564634644</v>
+        <v>0.9420153536153528</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019229440165469</v>
+        <v>1.020467415940331</v>
       </c>
       <c r="J23">
-        <v>0.9649478576475913</v>
+        <v>0.9677492503147551</v>
       </c>
       <c r="K23">
-        <v>0.9812646563714028</v>
+        <v>0.9835634012517201</v>
       </c>
       <c r="L23">
-        <v>0.961852787476809</v>
+        <v>0.9643067882682568</v>
       </c>
       <c r="M23">
-        <v>0.9563258050614045</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9584882895666829</v>
+      </c>
+      <c r="N23">
+        <v>0.9691235652525927</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9499060979791303</v>
+        <v>0.9527795171668418</v>
       </c>
       <c r="D24">
-        <v>0.9794381333669021</v>
+        <v>0.981730405200116</v>
       </c>
       <c r="E24">
-        <v>0.9615456099431958</v>
+        <v>0.963988256724143</v>
       </c>
       <c r="F24">
-        <v>0.9585626731294036</v>
+        <v>0.9606904386829342</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026271097415343</v>
+        <v>1.027480461112246</v>
       </c>
       <c r="J24">
-        <v>0.9794788312575117</v>
+        <v>0.9822247885798322</v>
       </c>
       <c r="K24">
-        <v>0.9938362237779537</v>
+        <v>0.9960861357983727</v>
       </c>
       <c r="L24">
-        <v>0.976283445489366</v>
+        <v>0.9786787370436436</v>
       </c>
       <c r="M24">
-        <v>0.97335876802751</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9754449279504622</v>
+      </c>
+      <c r="N24">
+        <v>0.9836196604423735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9691234363688597</v>
+        <v>0.9719251578367407</v>
       </c>
       <c r="D25">
-        <v>0.9943441972371745</v>
+        <v>0.9965878397136061</v>
       </c>
       <c r="E25">
-        <v>0.9784840323771072</v>
+        <v>0.9808680937432294</v>
       </c>
       <c r="F25">
-        <v>0.9783198845578771</v>
+        <v>0.9803726439675127</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033607480426565</v>
+        <v>1.03479244124497</v>
       </c>
       <c r="J25">
-        <v>0.9947365524110608</v>
+        <v>0.9974357539531254</v>
       </c>
       <c r="K25">
-        <v>1.007030951373163</v>
+        <v>1.009239357024094</v>
       </c>
       <c r="L25">
-        <v>0.9914257988634021</v>
+        <v>0.9937708506739461</v>
       </c>
       <c r="M25">
-        <v>0.9912643459336052</v>
+        <v>0.99328348769698</v>
+      </c>
+      <c r="N25">
+        <v>0.9988522271312189</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9859408714217944</v>
+        <v>0.9970017530101006</v>
       </c>
       <c r="D2">
-        <v>1.007487210778364</v>
+        <v>1.019637106047367</v>
       </c>
       <c r="E2">
-        <v>0.9932365397315496</v>
+        <v>1.003247751401724</v>
       </c>
       <c r="F2">
-        <v>0.9948064850316028</v>
+        <v>1.020230614574062</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040087442017468</v>
+        <v>1.046482338837426</v>
       </c>
       <c r="J2">
-        <v>1.008550377079239</v>
+        <v>1.01927251244767</v>
       </c>
       <c r="K2">
-        <v>1.018843213131376</v>
+        <v>1.030829479172449</v>
       </c>
       <c r="L2">
-        <v>1.004790911497546</v>
+        <v>1.014662024568901</v>
       </c>
       <c r="M2">
-        <v>1.006338651119053</v>
+        <v>1.031415119883573</v>
       </c>
       <c r="N2">
-        <v>1.009982634297036</v>
+        <v>1.020719996327537</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9955156075456773</v>
+        <v>1.004537077665593</v>
       </c>
       <c r="D3">
-        <v>1.014941544103671</v>
+        <v>1.025693329281584</v>
       </c>
       <c r="E3">
-        <v>1.001689693125859</v>
+        <v>1.009532042513321</v>
       </c>
       <c r="F3">
-        <v>1.00468095256272</v>
+        <v>1.027274476178848</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043669444767335</v>
+        <v>1.049062547537493</v>
       </c>
       <c r="J3">
-        <v>1.016129272653107</v>
+        <v>1.024904816912091</v>
       </c>
       <c r="K3">
-        <v>1.025386748994289</v>
+        <v>1.036007684052247</v>
       </c>
       <c r="L3">
-        <v>1.012300999570843</v>
+        <v>1.02004439473975</v>
       </c>
       <c r="M3">
-        <v>1.01525428805095</v>
+        <v>1.037569874842368</v>
       </c>
       <c r="N3">
-        <v>1.017572292771931</v>
+        <v>1.026360299310332</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001466063398624</v>
+        <v>1.009264119280741</v>
       </c>
       <c r="D4">
-        <v>1.019576875543785</v>
+        <v>1.029494213271546</v>
       </c>
       <c r="E4">
-        <v>1.006944078574824</v>
+        <v>1.013480241183123</v>
       </c>
       <c r="F4">
-        <v>1.010824053132615</v>
+        <v>1.031699584716426</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04587873553125</v>
+        <v>1.050665215966621</v>
       </c>
       <c r="J4">
-        <v>1.020832341327338</v>
+        <v>1.028433780403048</v>
       </c>
       <c r="K4">
-        <v>1.029444629866168</v>
+        <v>1.039249238509065</v>
       </c>
       <c r="L4">
-        <v>1.016959410970939</v>
+        <v>1.023418649102549</v>
       </c>
       <c r="M4">
-        <v>1.020793573358071</v>
+        <v>1.041429904390769</v>
       </c>
       <c r="N4">
-        <v>1.022282040343129</v>
+        <v>1.029894274334223</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003913296596957</v>
+        <v>1.011217765837753</v>
       </c>
       <c r="D5">
-        <v>1.021483707850963</v>
+        <v>1.031065381393616</v>
       </c>
       <c r="E5">
-        <v>1.009105172692284</v>
+        <v>1.015113329705213</v>
       </c>
       <c r="F5">
-        <v>1.013352025548832</v>
+        <v>1.033529871819819</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046783229697047</v>
+        <v>1.051323685557288</v>
       </c>
       <c r="J5">
-        <v>1.022764803081911</v>
+        <v>1.029891174167377</v>
       </c>
       <c r="K5">
-        <v>1.031111299468983</v>
+        <v>1.04058721770991</v>
       </c>
       <c r="L5">
-        <v>1.018873058877474</v>
+        <v>1.024812594451188</v>
       </c>
       <c r="M5">
-        <v>1.023071302831393</v>
+        <v>1.043024895946925</v>
       </c>
       <c r="N5">
-        <v>1.02421724641505</v>
+        <v>1.031353737764864</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004321127773895</v>
+        <v>1.011543876944855</v>
       </c>
       <c r="D6">
-        <v>1.021801504201657</v>
+        <v>1.031327661679756</v>
       </c>
       <c r="E6">
-        <v>1.009465323936603</v>
+        <v>1.015386007494129</v>
       </c>
       <c r="F6">
-        <v>1.013773400313495</v>
+        <v>1.033835472351583</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046933719146258</v>
+        <v>1.051433368660218</v>
       </c>
       <c r="J6">
-        <v>1.0230867419642</v>
+        <v>1.030134382128924</v>
       </c>
       <c r="K6">
-        <v>1.031388916984125</v>
+        <v>1.04081045480185</v>
       </c>
       <c r="L6">
-        <v>1.019191836292269</v>
+        <v>1.025045240044439</v>
       </c>
       <c r="M6">
-        <v>1.023450861764321</v>
+        <v>1.043291116938973</v>
       </c>
       <c r="N6">
-        <v>1.024539642487478</v>
+        <v>1.031597291109613</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001498971621073</v>
+        <v>1.009290353484128</v>
       </c>
       <c r="D7">
-        <v>1.019602515289658</v>
+        <v>1.029515310409599</v>
       </c>
       <c r="E7">
-        <v>1.006973138650219</v>
+        <v>1.013502165681655</v>
       </c>
       <c r="F7">
-        <v>1.010858041095555</v>
+        <v>1.031724156888585</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045890914793972</v>
+        <v>1.05067407364555</v>
       </c>
       <c r="J7">
-        <v>1.020858334438359</v>
+        <v>1.028453355194934</v>
       </c>
       <c r="K7">
-        <v>1.029467050650636</v>
+        <v>1.039267212286642</v>
       </c>
       <c r="L7">
-        <v>1.016985152856467</v>
+        <v>1.023437369951495</v>
       </c>
       <c r="M7">
-        <v>1.020824203876678</v>
+        <v>1.041451323872143</v>
       </c>
       <c r="N7">
-        <v>1.022308070367349</v>
+        <v>1.02991387692456</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9892302070559723</v>
+        <v>0.9995804412282333</v>
       </c>
       <c r="D8">
-        <v>1.010047422785924</v>
+        <v>1.021709191610866</v>
       </c>
       <c r="E8">
-        <v>0.9961402930913048</v>
+        <v>1.005397000047604</v>
       </c>
       <c r="F8">
-        <v>0.9981974261320774</v>
+        <v>1.022639707157838</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041321542273125</v>
+        <v>1.047368640042501</v>
       </c>
       <c r="J8">
-        <v>1.011155498467021</v>
+        <v>1.021200820997201</v>
       </c>
       <c r="K8">
-        <v>1.021092993816575</v>
+        <v>1.032602913293722</v>
       </c>
       <c r="L8">
-        <v>1.007372801642571</v>
+        <v>1.016504358473792</v>
       </c>
       <c r="M8">
-        <v>1.009401869916561</v>
+        <v>1.033521498984508</v>
       </c>
       <c r="N8">
-        <v>1.012591455256001</v>
+        <v>1.022651043296389</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9655078537697049</v>
+        <v>0.981229259429604</v>
       </c>
       <c r="D9">
-        <v>0.9916034282924864</v>
+        <v>1.00697596707802</v>
       </c>
       <c r="E9">
-        <v>0.9752079412074531</v>
+        <v>0.9901322380430816</v>
       </c>
       <c r="F9">
-        <v>0.9737713156316583</v>
+        <v>1.005527796242686</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032350631671223</v>
+        <v>1.040995549521356</v>
       </c>
       <c r="J9">
-        <v>0.9923403046023013</v>
+        <v>1.007462729601188</v>
       </c>
       <c r="K9">
-        <v>1.004834219014468</v>
+        <v>1.019956868988407</v>
       </c>
       <c r="L9">
-        <v>0.9887164808330956</v>
+        <v>1.003387467707321</v>
       </c>
       <c r="M9">
-        <v>0.9873047693603793</v>
+        <v>1.018531820964906</v>
       </c>
       <c r="N9">
-        <v>0.9937495416578603</v>
+        <v>1.008893442234811</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9478972297087955</v>
+        <v>0.968000135677073</v>
       </c>
       <c r="D10">
-        <v>0.9779485171817273</v>
+        <v>0.9963780786654606</v>
       </c>
       <c r="E10">
-        <v>0.9596874361336792</v>
+        <v>0.9791728063743652</v>
       </c>
       <c r="F10">
-        <v>0.9556770222776323</v>
+        <v>0.9932396635646861</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025604069707875</v>
+        <v>1.036320945310798</v>
       </c>
       <c r="J10">
-        <v>0.9783422301429889</v>
+        <v>0.9975435196523254</v>
       </c>
       <c r="K10">
-        <v>0.9927276688043102</v>
+        <v>1.010813037406062</v>
       </c>
       <c r="L10">
-        <v>0.9748247994875453</v>
+        <v>0.9939285673714879</v>
       </c>
       <c r="M10">
-        <v>0.9708954707909412</v>
+        <v>1.007732060258065</v>
       </c>
       <c r="N10">
-        <v>0.9797315883272142</v>
+        <v>0.9989601458700728</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9397352158303791</v>
+        <v>0.9619932413458034</v>
       </c>
       <c r="D11">
-        <v>0.9716331318465937</v>
+        <v>0.9915738955993229</v>
       </c>
       <c r="E11">
-        <v>0.9525013982191041</v>
+        <v>0.974209271385777</v>
       </c>
       <c r="F11">
-        <v>0.9473005061354253</v>
+        <v>0.9876736054873937</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.022458363060281</v>
+        <v>1.034180716375902</v>
       </c>
       <c r="J11">
-        <v>0.9718492871521518</v>
+        <v>0.9930373154690531</v>
       </c>
       <c r="K11">
-        <v>0.9871105941777182</v>
+        <v>1.006656484764505</v>
       </c>
       <c r="L11">
-        <v>0.9683783254998334</v>
+        <v>0.9896345227373247</v>
       </c>
       <c r="M11">
-        <v>0.9632897315991105</v>
+        <v>1.002831784508285</v>
       </c>
       <c r="N11">
-        <v>0.9732294246125793</v>
+        <v>0.9944475423599913</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9366109198861015</v>
+        <v>0.9597159188367475</v>
       </c>
       <c r="D12">
-        <v>0.9692181491455231</v>
+        <v>0.9897539778719238</v>
       </c>
       <c r="E12">
-        <v>0.9497520764658729</v>
+        <v>0.9723296323586839</v>
       </c>
       <c r="F12">
-        <v>0.9440955945734145</v>
+        <v>0.9855656697049132</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.021251588236126</v>
+        <v>1.033366803270426</v>
       </c>
       <c r="J12">
-        <v>0.9693633095838304</v>
+        <v>0.9913287408945208</v>
       </c>
       <c r="K12">
-        <v>0.9849598361435445</v>
+        <v>1.005080143799555</v>
       </c>
       <c r="L12">
-        <v>0.9659097029788891</v>
+        <v>0.9880068723808413</v>
       </c>
       <c r="M12">
-        <v>0.9603783698613306</v>
+        <v>1.000974733838023</v>
       </c>
       <c r="N12">
-        <v>0.970739916670965</v>
+        <v>0.9927365414135869</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9372855015642021</v>
+        <v>0.9602065727456369</v>
       </c>
       <c r="D13">
-        <v>0.9697394609259136</v>
+        <v>0.9901460140585365</v>
       </c>
       <c r="E13">
-        <v>0.9503456279253473</v>
+        <v>0.9727345049392568</v>
       </c>
       <c r="F13">
-        <v>0.9447875144249194</v>
+        <v>0.986019723202501</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.021512264536126</v>
+        <v>1.03354227358158</v>
       </c>
       <c r="J13">
-        <v>0.9699000910471693</v>
+        <v>0.9916968629852907</v>
       </c>
       <c r="K13">
-        <v>0.9854242397473776</v>
+        <v>1.005419789917263</v>
       </c>
       <c r="L13">
-        <v>0.9664427567871775</v>
+        <v>0.9883575367329641</v>
       </c>
       <c r="M13">
-        <v>0.9610069744921725</v>
+        <v>1.00137480272217</v>
       </c>
       <c r="N13">
-        <v>0.9712774604255516</v>
+        <v>0.9931051862799499</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9394789273684617</v>
+        <v>0.9618059641178488</v>
       </c>
       <c r="D14">
-        <v>0.9714349764655019</v>
+        <v>0.9914242028134063</v>
       </c>
       <c r="E14">
-        <v>0.9522758393109617</v>
+        <v>0.9740546535441226</v>
       </c>
       <c r="F14">
-        <v>0.9470375743142591</v>
+        <v>0.9875002107806218</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.022359422603935</v>
+        <v>1.03411383374699</v>
       </c>
       <c r="J14">
-        <v>0.9716453707465612</v>
+        <v>0.9928968126095082</v>
       </c>
       <c r="K14">
-        <v>0.98693417665676</v>
+        <v>1.006526862594655</v>
       </c>
       <c r="L14">
-        <v>0.9681758415060546</v>
+        <v>0.989500664684378</v>
       </c>
       <c r="M14">
-        <v>0.9630509097975939</v>
+        <v>1.00267905253053</v>
       </c>
       <c r="N14">
-        <v>0.9730252186223032</v>
+        <v>0.9943068399702698</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9408177018068113</v>
+        <v>0.9627851570160322</v>
       </c>
       <c r="D15">
-        <v>0.9724701831284276</v>
+        <v>0.9922069424463145</v>
       </c>
       <c r="E15">
-        <v>0.9534541496531949</v>
+        <v>0.9748631721042317</v>
       </c>
       <c r="F15">
-        <v>0.9484111123017885</v>
+        <v>0.9884069109535825</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.022876152216497</v>
+        <v>1.034463433318994</v>
       </c>
       <c r="J15">
-        <v>0.9727105472156711</v>
+        <v>0.9936314353945435</v>
       </c>
       <c r="K15">
-        <v>0.9878557055940254</v>
+        <v>1.007204581897876</v>
       </c>
       <c r="L15">
-        <v>0.9692335179576845</v>
+        <v>0.9902005646432648</v>
       </c>
       <c r="M15">
-        <v>0.9642984441290239</v>
+        <v>1.00347765404554</v>
       </c>
       <c r="N15">
-        <v>0.9740919077641765</v>
+        <v>0.9950425060039225</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9484266491809752</v>
+        <v>0.9683925752516348</v>
       </c>
       <c r="D16">
-        <v>0.9783584653036356</v>
+        <v>0.9966921271664855</v>
       </c>
       <c r="E16">
-        <v>0.9601537220233125</v>
+        <v>0.9794973624905117</v>
       </c>
       <c r="F16">
-        <v>0.9562205564252669</v>
+        <v>0.9936036007586679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025807740779529</v>
+        <v>1.036460416237526</v>
       </c>
       <c r="J16">
-        <v>0.9787632965432348</v>
+        <v>0.9978378824700046</v>
       </c>
       <c r="K16">
-        <v>0.9930919122771883</v>
+        <v>1.01108451002351</v>
       </c>
       <c r="L16">
-        <v>0.9752427930195531</v>
+        <v>0.9942091359775007</v>
       </c>
       <c r="M16">
-        <v>0.9713888038723922</v>
+        <v>1.008052292088462</v>
       </c>
       <c r="N16">
-        <v>0.9801532526900455</v>
+        <v>0.999254926716717</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.953048233737944</v>
+        <v>0.9718325597610726</v>
       </c>
       <c r="D17">
-        <v>0.9819386440102442</v>
+        <v>0.999445885619179</v>
       </c>
       <c r="E17">
-        <v>0.9642250176087979</v>
+        <v>0.982343765527816</v>
       </c>
       <c r="F17">
-        <v>0.9609664360774069</v>
+        <v>0.9967952948471321</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027583611715639</v>
+        <v>1.037680995435433</v>
       </c>
       <c r="J17">
-        <v>0.9824384464267205</v>
+        <v>1.000417925734734</v>
       </c>
       <c r="K17">
-        <v>0.9962709428745973</v>
+        <v>1.01346363744818</v>
       </c>
       <c r="L17">
-        <v>0.9788908009121662</v>
+        <v>0.9966686206362375</v>
       </c>
       <c r="M17">
-        <v>0.9756953225071546</v>
+        <v>1.010859748447552</v>
       </c>
       <c r="N17">
-        <v>0.9838336217079114</v>
+        <v>1.001838633938818</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9556930895593417</v>
+        <v>0.9738124795738976</v>
       </c>
       <c r="D18">
-        <v>0.9839887163275812</v>
+        <v>1.001031569899197</v>
       </c>
       <c r="E18">
-        <v>0.9665556036643336</v>
+        <v>0.9839832257730772</v>
       </c>
       <c r="F18">
-        <v>0.9636833158144051</v>
+        <v>0.9986335647437681</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028598152612294</v>
+        <v>1.038381848246064</v>
       </c>
       <c r="J18">
-        <v>0.984541173072063</v>
+        <v>1.001902678062801</v>
       </c>
       <c r="K18">
-        <v>0.9980896698712068</v>
+        <v>1.01483252082883</v>
       </c>
       <c r="L18">
-        <v>0.9809777319146382</v>
+        <v>0.9980842781422953</v>
       </c>
       <c r="M18">
-        <v>0.9781598191453625</v>
+        <v>1.012475926398594</v>
       </c>
       <c r="N18">
-        <v>0.9859393344662764</v>
+        <v>1.003325494785494</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9565866171487694</v>
+        <v>0.9744831945114193</v>
       </c>
       <c r="D19">
-        <v>0.9846814954044999</v>
+        <v>1.001568851221016</v>
       </c>
       <c r="E19">
-        <v>0.96734306246313</v>
+        <v>0.984538801943991</v>
       </c>
       <c r="F19">
-        <v>0.9646013258583519</v>
+        <v>0.9992565016011135</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.028940597450457</v>
+        <v>1.038618981991607</v>
       </c>
       <c r="J19">
-        <v>0.985251459509911</v>
+        <v>1.002405609597952</v>
       </c>
       <c r="K19">
-        <v>0.998703995744314</v>
+        <v>1.015296160735589</v>
       </c>
       <c r="L19">
-        <v>0.9816826376408959</v>
+        <v>0.9985638525910185</v>
       </c>
       <c r="M19">
-        <v>0.9789924040340395</v>
+        <v>1.013023468735819</v>
       </c>
       <c r="N19">
-        <v>0.9866506295923367</v>
+        <v>1.003829140541111</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.952557717996397</v>
+        <v>0.9714662584756666</v>
       </c>
       <c r="D20">
-        <v>0.9815585312279894</v>
+        <v>0.999152578611913</v>
       </c>
       <c r="E20">
-        <v>0.9637928375041838</v>
+        <v>0.9820405464824319</v>
       </c>
       <c r="F20">
-        <v>0.960462634972979</v>
+        <v>0.9964553002970364</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027395310372709</v>
+        <v>1.037551196130432</v>
       </c>
       <c r="J20">
-        <v>0.9820484321127642</v>
+        <v>1.000143215746506</v>
       </c>
       <c r="K20">
-        <v>0.9959335923548847</v>
+        <v>1.013210345287834</v>
       </c>
       <c r="L20">
-        <v>0.978503694756281</v>
+        <v>0.9964067174593213</v>
       </c>
       <c r="M20">
-        <v>0.9752382514988229</v>
+        <v>1.010560766663472</v>
       </c>
       <c r="N20">
-        <v>0.9834430535288938</v>
+        <v>1.001563533830896</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9388356825625833</v>
+        <v>0.9613362927051184</v>
       </c>
       <c r="D21">
-        <v>0.9709376778011224</v>
+        <v>0.99104881312466</v>
       </c>
       <c r="E21">
-        <v>0.9517097442916059</v>
+        <v>0.9736669233475417</v>
       </c>
       <c r="F21">
-        <v>0.9463776797673107</v>
+        <v>0.9870653923410206</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.022111055493793</v>
+        <v>1.033946059310132</v>
       </c>
       <c r="J21">
-        <v>0.9711335633269198</v>
+        <v>0.9925444438010552</v>
       </c>
       <c r="K21">
-        <v>0.9864913866895816</v>
+        <v>1.006201776304684</v>
       </c>
       <c r="L21">
-        <v>0.9676676222700167</v>
+        <v>0.9891649682962248</v>
       </c>
       <c r="M21">
-        <v>0.9624515039301256</v>
+        <v>1.002296029448547</v>
       </c>
       <c r="N21">
-        <v>0.9725126843774208</v>
+        <v>0.9939539707576915</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9296645381193418</v>
+        <v>0.9546979314335895</v>
       </c>
       <c r="D22">
-        <v>0.9638539513143591</v>
+        <v>0.9857468049009092</v>
       </c>
       <c r="E22">
-        <v>0.9436423440654084</v>
+        <v>0.968192105983893</v>
       </c>
       <c r="F22">
-        <v>0.9369727937030025</v>
+        <v>0.980925356320236</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.018563850545847</v>
+        <v>1.031568905655891</v>
       </c>
       <c r="J22">
-        <v>0.9638353333387846</v>
+        <v>0.9875637896450703</v>
       </c>
       <c r="K22">
-        <v>0.980177164524608</v>
+        <v>1.001606008861661</v>
       </c>
       <c r="L22">
-        <v>0.9604195063329637</v>
+        <v>0.9844211618823859</v>
       </c>
       <c r="M22">
-        <v>0.9539055135404823</v>
+        <v>0.9968843986786852</v>
       </c>
       <c r="N22">
-        <v>0.9652040900655838</v>
+        <v>0.9889662435015161</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9345825890899337</v>
+        <v>0.9582441528676054</v>
       </c>
       <c r="D23">
-        <v>0.9676510697224424</v>
+        <v>0.9885782562027129</v>
       </c>
       <c r="E23">
-        <v>0.9479676164444883</v>
+        <v>0.9711155054803118</v>
       </c>
       <c r="F23">
-        <v>0.9420153536153528</v>
+        <v>0.9842040398355364</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.020467415940331</v>
+        <v>1.032840105408925</v>
       </c>
       <c r="J23">
-        <v>0.9677492503147551</v>
+        <v>0.9902245056000719</v>
       </c>
       <c r="K23">
-        <v>0.9835634012517201</v>
+        <v>1.004061280506011</v>
       </c>
       <c r="L23">
-        <v>0.9643067882682568</v>
+        <v>0.9869550767542187</v>
       </c>
       <c r="M23">
-        <v>0.9584882895666829</v>
+        <v>0.9997748112490482</v>
       </c>
       <c r="N23">
-        <v>0.9691235652525927</v>
+        <v>0.9916307379783624</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9527795171668418</v>
+        <v>0.9716318560392602</v>
       </c>
       <c r="D24">
-        <v>0.981730405200116</v>
+        <v>0.9992851746580235</v>
       </c>
       <c r="E24">
-        <v>0.963988256724143</v>
+        <v>0.9821776221536241</v>
       </c>
       <c r="F24">
-        <v>0.9606904386829342</v>
+        <v>0.9966090012180585</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027480461112246</v>
+        <v>1.037609881011037</v>
       </c>
       <c r="J24">
-        <v>0.9822247885798322</v>
+        <v>1.000267407388294</v>
       </c>
       <c r="K24">
-        <v>0.9960861357983727</v>
+        <v>1.013324855069985</v>
       </c>
       <c r="L24">
-        <v>0.9786787370436436</v>
+        <v>0.9965251184828401</v>
       </c>
       <c r="M24">
-        <v>0.9754449279504622</v>
+        <v>1.010695929443801</v>
       </c>
       <c r="N24">
-        <v>0.9836196604423735</v>
+        <v>1.001687901839061</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9719251578367407</v>
+        <v>0.9861359102932952</v>
       </c>
       <c r="D25">
-        <v>0.9965878397136061</v>
+        <v>1.010912072922678</v>
       </c>
       <c r="E25">
-        <v>0.9808680937432294</v>
+        <v>0.9942066934921256</v>
       </c>
       <c r="F25">
-        <v>0.9803726439675127</v>
+        <v>1.010095675187067</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03479244124497</v>
+        <v>1.04271361542507</v>
       </c>
       <c r="J25">
-        <v>0.9974357539531254</v>
+        <v>1.011139037368228</v>
       </c>
       <c r="K25">
-        <v>1.009239357024094</v>
+        <v>1.023343322193729</v>
       </c>
       <c r="L25">
-        <v>0.9937708506739461</v>
+        <v>1.006895613769773</v>
       </c>
       <c r="M25">
-        <v>0.99328348769698</v>
+        <v>1.022539264561198</v>
       </c>
       <c r="N25">
-        <v>0.9988522271312189</v>
+        <v>1.01257497078056</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C2">
-        <v>0.9970017530101006</v>
+        <v>1.033729844475412</v>
       </c>
       <c r="D2">
-        <v>1.019637106047367</v>
+        <v>1.05018406947373</v>
       </c>
       <c r="E2">
-        <v>1.003247751401724</v>
+        <v>1.045922522768668</v>
       </c>
       <c r="F2">
-        <v>1.020230614574062</v>
+        <v>1.05778803344428</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046482338837426</v>
+        <v>1.065383232638694</v>
       </c>
       <c r="J2">
-        <v>1.01927251244767</v>
+        <v>1.054946466896889</v>
       </c>
       <c r="K2">
-        <v>1.030829479172449</v>
+        <v>1.060985881106156</v>
       </c>
       <c r="L2">
-        <v>1.014662024568901</v>
+        <v>1.056777114461221</v>
       </c>
       <c r="M2">
-        <v>1.031415119883573</v>
+        <v>1.068496980808761</v>
       </c>
       <c r="N2">
-        <v>1.020719996327537</v>
+        <v>1.021645879118821</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004537077665593</v>
+        <v>1.038398854283116</v>
       </c>
       <c r="D3">
-        <v>1.025693329281584</v>
+        <v>1.053767511835302</v>
       </c>
       <c r="E3">
-        <v>1.009532042513321</v>
+        <v>1.049793132330052</v>
       </c>
       <c r="F3">
-        <v>1.027274476178848</v>
+        <v>1.061856247622886</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049062547537493</v>
+        <v>1.067161363461485</v>
       </c>
       <c r="J3">
-        <v>1.024904816912091</v>
+        <v>1.057894780917454</v>
       </c>
       <c r="K3">
-        <v>1.036007684052247</v>
+        <v>1.063755718928604</v>
       </c>
       <c r="L3">
-        <v>1.02004439473975</v>
+        <v>1.059826204083794</v>
       </c>
       <c r="M3">
-        <v>1.037569874842368</v>
+        <v>1.071754420447832</v>
       </c>
       <c r="N3">
-        <v>1.026360299310332</v>
+        <v>1.022660575082013</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009264119280741</v>
+        <v>1.041359128063285</v>
       </c>
       <c r="D4">
-        <v>1.029494213271546</v>
+        <v>1.056042242363607</v>
       </c>
       <c r="E4">
-        <v>1.013480241183123</v>
+        <v>1.052252491434427</v>
       </c>
       <c r="F4">
-        <v>1.031699584716426</v>
+        <v>1.064440984537706</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050665215966621</v>
+        <v>1.068279249625771</v>
       </c>
       <c r="J4">
-        <v>1.028433780403048</v>
+        <v>1.05976093461484</v>
       </c>
       <c r="K4">
-        <v>1.039249238509065</v>
+        <v>1.065508254770901</v>
       </c>
       <c r="L4">
-        <v>1.023418649102549</v>
+        <v>1.061758668013727</v>
       </c>
       <c r="M4">
-        <v>1.041429904390769</v>
+        <v>1.073819230389826</v>
       </c>
       <c r="N4">
-        <v>1.029894274334223</v>
+        <v>1.023302463732892</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011217765837753</v>
+        <v>1.042589566511809</v>
       </c>
       <c r="D5">
-        <v>1.031065381393616</v>
+        <v>1.05698834420622</v>
       </c>
       <c r="E5">
-        <v>1.015113329705213</v>
+        <v>1.053275952849001</v>
       </c>
       <c r="F5">
-        <v>1.033529871819819</v>
+        <v>1.06551657930553</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051323685557288</v>
+        <v>1.06874158488443</v>
       </c>
       <c r="J5">
-        <v>1.029891174167377</v>
+        <v>1.060535812100045</v>
       </c>
       <c r="K5">
-        <v>1.04058721770991</v>
+        <v>1.066235791566916</v>
       </c>
       <c r="L5">
-        <v>1.024812594451188</v>
+        <v>1.062561683515763</v>
       </c>
       <c r="M5">
-        <v>1.043024895946925</v>
+        <v>1.074677310511367</v>
       </c>
       <c r="N5">
-        <v>1.031353737764864</v>
+        <v>1.023568898565736</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011543876944855</v>
+        <v>1.042795352548162</v>
       </c>
       <c r="D6">
-        <v>1.031327661679756</v>
+        <v>1.057146610563953</v>
       </c>
       <c r="E6">
-        <v>1.015386007494129</v>
+        <v>1.053447193810151</v>
       </c>
       <c r="F6">
-        <v>1.033835472351583</v>
+        <v>1.065696540492364</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051433368660218</v>
+        <v>1.068818771570853</v>
       </c>
       <c r="J6">
-        <v>1.030134382128924</v>
+        <v>1.060665359978268</v>
       </c>
       <c r="K6">
-        <v>1.04081045480185</v>
+        <v>1.066357414967182</v>
       </c>
       <c r="L6">
-        <v>1.025045240044439</v>
+        <v>1.06269597113872</v>
       </c>
       <c r="M6">
-        <v>1.043291116938973</v>
+        <v>1.074820810589503</v>
       </c>
       <c r="N6">
-        <v>1.031597291109613</v>
+        <v>1.023613436726301</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009290353484128</v>
+        <v>1.041375623825727</v>
       </c>
       <c r="D7">
-        <v>1.029515310409599</v>
+        <v>1.056054923845188</v>
       </c>
       <c r="E7">
-        <v>1.013502165681655</v>
+        <v>1.052266207579633</v>
       </c>
       <c r="F7">
-        <v>1.031724156888585</v>
+        <v>1.064455399527265</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05067407364555</v>
+        <v>1.068285457070894</v>
       </c>
       <c r="J7">
-        <v>1.028453355194934</v>
+        <v>1.059771326102333</v>
       </c>
       <c r="K7">
-        <v>1.039267212286642</v>
+        <v>1.065518012052296</v>
       </c>
       <c r="L7">
-        <v>1.023437369951495</v>
+        <v>1.061769434459615</v>
       </c>
       <c r="M7">
-        <v>1.041451323872143</v>
+        <v>1.07383073484288</v>
       </c>
       <c r="N7">
-        <v>1.02991387692456</v>
+        <v>1.023306037136952</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9995804412282333</v>
+        <v>1.035320684357422</v>
       </c>
       <c r="D8">
-        <v>1.021709191610866</v>
+        <v>1.051404428988493</v>
       </c>
       <c r="E8">
-        <v>1.005397000047604</v>
+        <v>1.047240193808958</v>
       </c>
       <c r="F8">
-        <v>1.022639707157838</v>
+        <v>1.059173012625109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047368640042501</v>
+        <v>1.065991051442473</v>
       </c>
       <c r="J8">
-        <v>1.021200820997201</v>
+        <v>1.055951666730451</v>
       </c>
       <c r="K8">
-        <v>1.032602913293722</v>
+        <v>1.061930363031662</v>
       </c>
       <c r="L8">
-        <v>1.016504358473792</v>
+        <v>1.057816142143177</v>
       </c>
       <c r="M8">
-        <v>1.033521498984508</v>
+        <v>1.069606943817913</v>
       </c>
       <c r="N8">
-        <v>1.022651043296389</v>
+        <v>1.021991903966137</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.981229259429604</v>
+        <v>1.024160234480011</v>
       </c>
       <c r="D9">
-        <v>1.00697596707802</v>
+        <v>1.042856669425609</v>
       </c>
       <c r="E9">
-        <v>0.9901322380430816</v>
+        <v>1.038020390938504</v>
       </c>
       <c r="F9">
-        <v>1.005527796242686</v>
+        <v>1.049481484196931</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040995549521356</v>
+        <v>1.061688169340099</v>
       </c>
       <c r="J9">
-        <v>1.007462729601188</v>
+        <v>1.048887759901394</v>
       </c>
       <c r="K9">
-        <v>1.019956868988407</v>
+        <v>1.055290692268635</v>
       </c>
       <c r="L9">
-        <v>1.003387467707321</v>
+        <v>1.050525325640883</v>
       </c>
       <c r="M9">
-        <v>1.018531820964906</v>
+        <v>1.061819714126643</v>
       </c>
       <c r="N9">
-        <v>1.008893442234811</v>
+        <v>1.019558939950074</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.968000135677073</v>
+        <v>1.016353354519485</v>
       </c>
       <c r="D10">
-        <v>0.9963780786654606</v>
+        <v>1.036897028112157</v>
       </c>
       <c r="E10">
-        <v>0.9791728063743652</v>
+        <v>1.031603947770673</v>
       </c>
       <c r="F10">
-        <v>0.9932396635646861</v>
+        <v>1.04273576334855</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036320945310798</v>
+        <v>1.058630693251695</v>
       </c>
       <c r="J10">
-        <v>0.9975435196523254</v>
+        <v>1.043932838197846</v>
       </c>
       <c r="K10">
-        <v>1.010813037406062</v>
+        <v>1.050630588498773</v>
       </c>
       <c r="L10">
-        <v>0.9939285673714879</v>
+        <v>1.045425103066424</v>
       </c>
       <c r="M10">
-        <v>1.007732060258065</v>
+        <v>1.056374023396823</v>
       </c>
       <c r="N10">
-        <v>0.9989601458700728</v>
+        <v>1.017850954203515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9619932413458034</v>
+        <v>1.012877084230592</v>
       </c>
       <c r="D11">
-        <v>0.9915738955993229</v>
+        <v>1.034248755337932</v>
       </c>
       <c r="E11">
-        <v>0.974209271385777</v>
+        <v>1.028755353865684</v>
       </c>
       <c r="F11">
-        <v>0.9876736054873937</v>
+        <v>1.03974074984521</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034180716375902</v>
+        <v>1.057258538018834</v>
       </c>
       <c r="J11">
-        <v>0.9930373154690531</v>
+        <v>1.041723802952111</v>
       </c>
       <c r="K11">
-        <v>1.006656484764505</v>
+        <v>1.048552456004709</v>
       </c>
       <c r="L11">
-        <v>0.9896345227373247</v>
+        <v>1.043154623642096</v>
       </c>
       <c r="M11">
-        <v>1.002831784508285</v>
+        <v>1.053950209639524</v>
       </c>
       <c r="N11">
-        <v>0.9944475423599913</v>
+        <v>1.017089247183659</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9597159188367475</v>
+        <v>1.011570627825386</v>
       </c>
       <c r="D12">
-        <v>0.9897539778719238</v>
+        <v>1.033254369031313</v>
       </c>
       <c r="E12">
-        <v>0.9723296323586839</v>
+        <v>1.027686139986779</v>
       </c>
       <c r="F12">
-        <v>0.9855656697049132</v>
+        <v>1.038616542084282</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033366803270426</v>
+        <v>1.05674129390064</v>
       </c>
       <c r="J12">
-        <v>0.9913287408945208</v>
+        <v>1.040893244081352</v>
       </c>
       <c r="K12">
-        <v>1.005080143799555</v>
+        <v>1.047771044567503</v>
       </c>
       <c r="L12">
-        <v>0.9880068723808413</v>
+        <v>1.042301468369386</v>
       </c>
       <c r="M12">
-        <v>1.000974733838023</v>
+        <v>1.053039509467058</v>
       </c>
       <c r="N12">
-        <v>0.9927365414135869</v>
+        <v>1.016802830126023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9602065727456369</v>
+        <v>1.011851569405427</v>
       </c>
       <c r="D13">
-        <v>0.9901460140585365</v>
+        <v>1.033468161326072</v>
       </c>
       <c r="E13">
-        <v>0.9727345049392568</v>
+        <v>1.027916002706259</v>
       </c>
       <c r="F13">
-        <v>0.986019723202501</v>
+        <v>1.038858229158115</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03354227358158</v>
+        <v>1.056852592145736</v>
       </c>
       <c r="J13">
-        <v>0.9916968629852907</v>
+        <v>1.041071863521939</v>
       </c>
       <c r="K13">
-        <v>1.005419789917263</v>
+        <v>1.047939097367858</v>
       </c>
       <c r="L13">
-        <v>0.9883575367329641</v>
+        <v>1.042484924459756</v>
       </c>
       <c r="M13">
-        <v>1.00137480272217</v>
+        <v>1.053235336273992</v>
       </c>
       <c r="N13">
-        <v>0.9931051862799499</v>
+        <v>1.016864427945833</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9618059641178488</v>
+        <v>1.012769407438648</v>
       </c>
       <c r="D14">
-        <v>0.9914242028134063</v>
+        <v>1.034166780506438</v>
       </c>
       <c r="E14">
-        <v>0.9740546535441226</v>
+        <v>1.028667202562153</v>
       </c>
       <c r="F14">
-        <v>0.9875002107806218</v>
+        <v>1.039648065296849</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03411383374699</v>
+        <v>1.057215938677416</v>
       </c>
       <c r="J14">
-        <v>0.9928968126095082</v>
+        <v>1.041655356102167</v>
       </c>
       <c r="K14">
-        <v>1.006526862594655</v>
+        <v>1.048488060778033</v>
       </c>
       <c r="L14">
-        <v>0.989500664684378</v>
+        <v>1.043084304307407</v>
       </c>
       <c r="M14">
-        <v>1.00267905253053</v>
+        <v>1.05387514581828</v>
       </c>
       <c r="N14">
-        <v>0.9943068399702698</v>
+        <v>1.01706564391603</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9627851570160322</v>
+        <v>1.013332876240992</v>
       </c>
       <c r="D15">
-        <v>0.9922069424463145</v>
+        <v>1.034595788621693</v>
       </c>
       <c r="E15">
-        <v>0.9748631721042317</v>
+        <v>1.029128550540794</v>
       </c>
       <c r="F15">
-        <v>0.9884069109535825</v>
+        <v>1.040133136978755</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034463433318994</v>
+        <v>1.057438796271307</v>
       </c>
       <c r="J15">
-        <v>0.9936314353945435</v>
+        <v>1.042013521787454</v>
       </c>
       <c r="K15">
-        <v>1.007204581897876</v>
+        <v>1.048825022528966</v>
       </c>
       <c r="L15">
-        <v>0.9902005646432648</v>
+        <v>1.043452288879963</v>
       </c>
       <c r="M15">
-        <v>1.00347765404554</v>
+        <v>1.054267961478935</v>
       </c>
       <c r="N15">
-        <v>0.9950425060039225</v>
+        <v>1.017189152951115</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9683925752516348</v>
+        <v>1.016581975551921</v>
       </c>
       <c r="D16">
-        <v>0.9966921271664855</v>
+        <v>1.037071314497781</v>
       </c>
       <c r="E16">
-        <v>0.9794973624905117</v>
+        <v>1.031791472273656</v>
       </c>
       <c r="F16">
-        <v>0.9936036007586679</v>
+        <v>1.042932921798106</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036460416237526</v>
+        <v>1.058720715678689</v>
       </c>
       <c r="J16">
-        <v>0.9978378824700046</v>
+        <v>1.044078065925464</v>
       </c>
       <c r="K16">
-        <v>1.01108451002351</v>
+        <v>1.050767200086218</v>
       </c>
       <c r="L16">
-        <v>0.9942091359775007</v>
+        <v>1.045574440114162</v>
       </c>
       <c r="M16">
-        <v>1.008052292088462</v>
+        <v>1.056533455570941</v>
       </c>
       <c r="N16">
-        <v>0.999254926716717</v>
+        <v>1.017901026430989</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9718325597610726</v>
+        <v>1.018593832485234</v>
       </c>
       <c r="D17">
-        <v>0.999445885619179</v>
+        <v>1.03860565762715</v>
       </c>
       <c r="E17">
-        <v>0.982343765527816</v>
+        <v>1.033442660786632</v>
       </c>
       <c r="F17">
-        <v>0.9967952948471321</v>
+        <v>1.044668912083882</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037680995435433</v>
+        <v>1.05951169626744</v>
       </c>
       <c r="J17">
-        <v>1.000417925734734</v>
+        <v>1.045355763825846</v>
       </c>
       <c r="K17">
-        <v>1.01346363744818</v>
+        <v>1.051969034513434</v>
       </c>
       <c r="L17">
-        <v>0.9966686206362375</v>
+        <v>1.046888671239883</v>
       </c>
       <c r="M17">
-        <v>1.010859748447552</v>
+        <v>1.057936580775194</v>
       </c>
       <c r="N17">
-        <v>1.001838633938818</v>
+        <v>1.018341529936572</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9738124795738976</v>
+        <v>1.019758125533232</v>
       </c>
       <c r="D18">
-        <v>1.001031569899197</v>
+        <v>1.039494118558111</v>
       </c>
       <c r="E18">
-        <v>0.9839832257730772</v>
+        <v>1.034399035094103</v>
       </c>
       <c r="F18">
-        <v>0.9986335647437681</v>
+        <v>1.045674381447197</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038381848246064</v>
+        <v>1.059968429095182</v>
       </c>
       <c r="J18">
-        <v>1.001902678062801</v>
+        <v>1.046094928723016</v>
       </c>
       <c r="K18">
-        <v>1.01483252082883</v>
+        <v>1.052664259960959</v>
       </c>
       <c r="L18">
-        <v>0.9980842781422953</v>
+        <v>1.047649286971954</v>
       </c>
       <c r="M18">
-        <v>1.012475926398594</v>
+        <v>1.058748687566518</v>
       </c>
       <c r="N18">
-        <v>1.003325494785494</v>
+        <v>1.018596343508757</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9744831945114193</v>
+        <v>1.020153584593708</v>
       </c>
       <c r="D19">
-        <v>1.001568851221016</v>
+        <v>1.03979597447045</v>
       </c>
       <c r="E19">
-        <v>0.984538801943991</v>
+        <v>1.034724008090433</v>
       </c>
       <c r="F19">
-        <v>0.9992565016011135</v>
+        <v>1.046016032989192</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038618981991607</v>
+        <v>1.060123386627238</v>
       </c>
       <c r="J19">
-        <v>1.002405609597952</v>
+        <v>1.046345945170115</v>
       </c>
       <c r="K19">
-        <v>1.015296160735589</v>
+        <v>1.052900345770975</v>
       </c>
       <c r="L19">
-        <v>0.9985638525910185</v>
+        <v>1.047907641463627</v>
       </c>
       <c r="M19">
-        <v>1.013023468735819</v>
+        <v>1.059024539023173</v>
       </c>
       <c r="N19">
-        <v>1.003829140541111</v>
+        <v>1.018682872626312</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9714662584756666</v>
+        <v>1.018378935457858</v>
       </c>
       <c r="D20">
-        <v>0.999152578611913</v>
+        <v>1.038441712684291</v>
       </c>
       <c r="E20">
-        <v>0.9820405464824319</v>
+        <v>1.033266204604848</v>
       </c>
       <c r="F20">
-        <v>0.9964553002970364</v>
+        <v>1.04448339578994</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037551196130432</v>
+        <v>1.059427312938649</v>
       </c>
       <c r="J20">
-        <v>1.000143215746506</v>
+        <v>1.045219312707476</v>
       </c>
       <c r="K20">
-        <v>1.013210345287834</v>
+        <v>1.051840690460889</v>
       </c>
       <c r="L20">
-        <v>0.9964067174593213</v>
+        <v>1.046748285765591</v>
       </c>
       <c r="M20">
-        <v>1.010560766663472</v>
+        <v>1.057786695167955</v>
       </c>
       <c r="N20">
-        <v>1.001563533830896</v>
+        <v>1.018294488959389</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9613362927051184</v>
+        <v>1.012499553864273</v>
       </c>
       <c r="D21">
-        <v>0.99104881312466</v>
+        <v>1.033961354355901</v>
       </c>
       <c r="E21">
-        <v>0.9736669233475417</v>
+        <v>1.028446304628273</v>
       </c>
       <c r="F21">
-        <v>0.9870653923410206</v>
+        <v>1.039415806952549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033946059310132</v>
+        <v>1.057109153646126</v>
       </c>
       <c r="J21">
-        <v>0.9925444438010552</v>
+        <v>1.041483812849467</v>
       </c>
       <c r="K21">
-        <v>1.006201776304684</v>
+        <v>1.048326670721532</v>
       </c>
       <c r="L21">
-        <v>0.9891649682962248</v>
+        <v>1.042908076344437</v>
       </c>
       <c r="M21">
-        <v>1.002296029448547</v>
+        <v>1.053687028822715</v>
       </c>
       <c r="N21">
-        <v>0.9939539707576915</v>
+        <v>1.017006488369488</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9546979314335895</v>
+        <v>1.008714477466774</v>
       </c>
       <c r="D22">
-        <v>0.9857468049009092</v>
+        <v>1.031082181107061</v>
       </c>
       <c r="E22">
-        <v>0.968192105983893</v>
+        <v>1.025351199584468</v>
       </c>
       <c r="F22">
-        <v>0.980925356320236</v>
+        <v>1.036161441046847</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031568905655891</v>
+        <v>1.055607695891591</v>
       </c>
       <c r="J22">
-        <v>0.9875637896450703</v>
+        <v>1.039076891948884</v>
       </c>
       <c r="K22">
-        <v>1.001606008861661</v>
+        <v>1.046062057052315</v>
       </c>
       <c r="L22">
-        <v>0.9844211618823859</v>
+        <v>1.040436635267336</v>
       </c>
       <c r="M22">
-        <v>0.9968843986786852</v>
+        <v>1.051049030325855</v>
       </c>
       <c r="N22">
-        <v>0.9889662435015161</v>
+        <v>1.016176420160155</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9582441528676054</v>
+        <v>1.010729692530045</v>
       </c>
       <c r="D23">
-        <v>0.9885782562027129</v>
+        <v>1.032614566266363</v>
       </c>
       <c r="E23">
-        <v>0.9711155054803118</v>
+        <v>1.026998300573581</v>
       </c>
       <c r="F23">
-        <v>0.9842040398355364</v>
+        <v>1.03789331434645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032840105408925</v>
+        <v>1.056407923264448</v>
       </c>
       <c r="J23">
-        <v>0.9902245056000719</v>
+        <v>1.040358538664111</v>
       </c>
       <c r="K23">
-        <v>1.004061280506011</v>
+        <v>1.047267961494399</v>
       </c>
       <c r="L23">
-        <v>0.9869550767542187</v>
+        <v>1.041752358680715</v>
       </c>
       <c r="M23">
-        <v>0.9997748112490482</v>
+        <v>1.052453383300374</v>
       </c>
       <c r="N23">
-        <v>0.9916307379783624</v>
+        <v>1.016618430696675</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9716318560392602</v>
+        <v>1.018476066511792</v>
       </c>
       <c r="D24">
-        <v>0.9992851746580235</v>
+        <v>1.038515812381758</v>
       </c>
       <c r="E24">
-        <v>0.9821776221536241</v>
+        <v>1.033345958333128</v>
       </c>
       <c r="F24">
-        <v>0.9966090012180585</v>
+        <v>1.044567244529142</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037609881011037</v>
+        <v>1.05946545642626</v>
       </c>
       <c r="J24">
-        <v>1.000267407388294</v>
+        <v>1.045280987893721</v>
       </c>
       <c r="K24">
-        <v>1.013324855069985</v>
+        <v>1.051898701456436</v>
       </c>
       <c r="L24">
-        <v>0.9965251184828401</v>
+        <v>1.046811738280744</v>
       </c>
       <c r="M24">
-        <v>1.010695929443801</v>
+        <v>1.057854441492811</v>
       </c>
       <c r="N24">
-        <v>1.001687901839061</v>
+        <v>1.01831575130643</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9861359102932952</v>
+        <v>1.027107265500628</v>
       </c>
       <c r="D25">
-        <v>1.010912072922678</v>
+        <v>1.045110660928265</v>
       </c>
       <c r="E25">
-        <v>0.9942066934921256</v>
+        <v>1.040449527255508</v>
       </c>
       <c r="F25">
-        <v>1.010095675187067</v>
+        <v>1.052035074800177</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04271361542507</v>
+        <v>1.062832764741169</v>
       </c>
       <c r="J25">
-        <v>1.011139037368228</v>
+        <v>1.050755575556287</v>
       </c>
       <c r="K25">
-        <v>1.023343322193729</v>
+        <v>1.057046845562827</v>
       </c>
       <c r="L25">
-        <v>1.006895613769773</v>
+        <v>1.05245076737076</v>
       </c>
       <c r="M25">
-        <v>1.022539264561198</v>
+        <v>1.063875955497966</v>
       </c>
       <c r="N25">
-        <v>1.01257497078056</v>
+        <v>1.020202527106685</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.033729844475412</v>
+        <v>1.056554295772895</v>
       </c>
       <c r="D2">
-        <v>1.05018406947373</v>
+        <v>1.061880159772376</v>
       </c>
       <c r="E2">
-        <v>1.045922522768668</v>
+        <v>1.063108978231971</v>
       </c>
       <c r="F2">
-        <v>1.05778803344428</v>
+        <v>1.074439240449316</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065383232638694</v>
+        <v>1.054129719975071</v>
       </c>
       <c r="J2">
-        <v>1.054946466896889</v>
+        <v>1.061555325885056</v>
       </c>
       <c r="K2">
-        <v>1.060985881106156</v>
+        <v>1.064603020345378</v>
       </c>
       <c r="L2">
-        <v>1.056777114461221</v>
+        <v>1.065828508331149</v>
       </c>
       <c r="M2">
-        <v>1.068496980808761</v>
+        <v>1.077128450119488</v>
       </c>
       <c r="N2">
-        <v>1.021645879118821</v>
+        <v>1.024245067184439</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.038398854283116</v>
+        <v>1.057537079297227</v>
       </c>
       <c r="D3">
-        <v>1.053767511835302</v>
+        <v>1.062652828369846</v>
       </c>
       <c r="E3">
-        <v>1.049793132330052</v>
+        <v>1.063968215666284</v>
       </c>
       <c r="F3">
-        <v>1.061856247622886</v>
+        <v>1.075342580909083</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067161363461485</v>
+        <v>1.05444041915412</v>
       </c>
       <c r="J3">
-        <v>1.057894780917454</v>
+        <v>1.062190069750803</v>
       </c>
       <c r="K3">
-        <v>1.063755718928604</v>
+        <v>1.065190502055134</v>
       </c>
       <c r="L3">
-        <v>1.059826204083794</v>
+        <v>1.066502581242343</v>
       </c>
       <c r="M3">
-        <v>1.071754420447832</v>
+        <v>1.077848703985172</v>
       </c>
       <c r="N3">
-        <v>1.022660575082013</v>
+        <v>1.024460774060276</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.041359128063285</v>
+        <v>1.058173449703919</v>
       </c>
       <c r="D4">
-        <v>1.056042242363607</v>
+        <v>1.063153164679208</v>
       </c>
       <c r="E4">
-        <v>1.052252491434427</v>
+        <v>1.064524916488953</v>
       </c>
       <c r="F4">
-        <v>1.064440984537706</v>
+        <v>1.07592785094246</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068279249625771</v>
+        <v>1.054640423384994</v>
       </c>
       <c r="J4">
-        <v>1.05976093461484</v>
+        <v>1.062600595645402</v>
       </c>
       <c r="K4">
-        <v>1.065508254770901</v>
+        <v>1.065570347094107</v>
       </c>
       <c r="L4">
-        <v>1.061758668013727</v>
+        <v>1.066938822253564</v>
       </c>
       <c r="M4">
-        <v>1.073819230389826</v>
+        <v>1.078314865907837</v>
       </c>
       <c r="N4">
-        <v>1.023302463732892</v>
+        <v>1.024600184208667</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.042589566511809</v>
+        <v>1.058441085194728</v>
       </c>
       <c r="D5">
-        <v>1.05698834420622</v>
+        <v>1.063363592931275</v>
       </c>
       <c r="E5">
-        <v>1.053275952849001</v>
+        <v>1.064759123839088</v>
       </c>
       <c r="F5">
-        <v>1.06551657930553</v>
+        <v>1.07617407629912</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06874158488443</v>
+        <v>1.054724255887667</v>
       </c>
       <c r="J5">
-        <v>1.060535812100045</v>
+        <v>1.062773132957957</v>
       </c>
       <c r="K5">
-        <v>1.066235791566916</v>
+        <v>1.065729962429856</v>
       </c>
       <c r="L5">
-        <v>1.062561683515763</v>
+        <v>1.06712223391864</v>
       </c>
       <c r="M5">
-        <v>1.074677310511367</v>
+        <v>1.078510865509056</v>
       </c>
       <c r="N5">
-        <v>1.023568898565736</v>
+        <v>1.02465875195506</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.042795352548162</v>
+        <v>1.058486028525383</v>
       </c>
       <c r="D6">
-        <v>1.057146610563953</v>
+        <v>1.063398929818458</v>
       </c>
       <c r="E6">
-        <v>1.053447193810151</v>
+        <v>1.064798458234848</v>
       </c>
       <c r="F6">
-        <v>1.065696540492364</v>
+        <v>1.076215429009851</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068818771570853</v>
+        <v>1.054738317099918</v>
       </c>
       <c r="J6">
-        <v>1.060665359978268</v>
+        <v>1.062802099904611</v>
       </c>
       <c r="K6">
-        <v>1.066357414967182</v>
+        <v>1.065756758326581</v>
       </c>
       <c r="L6">
-        <v>1.06269597113872</v>
+        <v>1.067153030450272</v>
       </c>
       <c r="M6">
-        <v>1.074820810589503</v>
+        <v>1.078543776146524</v>
       </c>
       <c r="N6">
-        <v>1.023613436726301</v>
+        <v>1.024668583364029</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.041375623825727</v>
+        <v>1.058177025449474</v>
       </c>
       <c r="D7">
-        <v>1.056054923845188</v>
+        <v>1.063155976092043</v>
       </c>
       <c r="E7">
-        <v>1.052266207579633</v>
+        <v>1.064528045311357</v>
       </c>
       <c r="F7">
-        <v>1.064455399527265</v>
+        <v>1.075931140320614</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068285457070894</v>
+        <v>1.054641544539175</v>
       </c>
       <c r="J7">
-        <v>1.059771326102333</v>
+        <v>1.062602901286247</v>
       </c>
       <c r="K7">
-        <v>1.065518012052296</v>
+        <v>1.0655724801642</v>
       </c>
       <c r="L7">
-        <v>1.061769434459615</v>
+        <v>1.066941272947808</v>
       </c>
       <c r="M7">
-        <v>1.07383073484288</v>
+        <v>1.078317484766723</v>
       </c>
       <c r="N7">
-        <v>1.023306037136952</v>
+        <v>1.024600966952521</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.035320684357422</v>
+        <v>1.056886339664937</v>
       </c>
       <c r="D8">
-        <v>1.051404428988493</v>
+        <v>1.062141209783629</v>
       </c>
       <c r="E8">
-        <v>1.047240193808958</v>
+        <v>1.063399212376903</v>
       </c>
       <c r="F8">
-        <v>1.059173012625109</v>
+        <v>1.074744372840765</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065991051442473</v>
+        <v>1.054234936995178</v>
       </c>
       <c r="J8">
-        <v>1.055951666730451</v>
+        <v>1.061769880557947</v>
       </c>
       <c r="K8">
-        <v>1.061930363031662</v>
+        <v>1.064801623051684</v>
       </c>
       <c r="L8">
-        <v>1.057816142143177</v>
+        <v>1.066056299175529</v>
       </c>
       <c r="M8">
-        <v>1.069606943817913</v>
+        <v>1.077371839956455</v>
       </c>
       <c r="N8">
-        <v>1.021991903966137</v>
+        <v>1.024318000599235</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.024160234480011</v>
+        <v>1.054615423081794</v>
       </c>
       <c r="D9">
-        <v>1.042856669425609</v>
+        <v>1.060355935807046</v>
       </c>
       <c r="E9">
-        <v>1.038020390938504</v>
+        <v>1.061415609849954</v>
       </c>
       <c r="F9">
-        <v>1.049481484196931</v>
+        <v>1.072658926758232</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061688169340099</v>
+        <v>1.053510510370943</v>
       </c>
       <c r="J9">
-        <v>1.048887759901394</v>
+        <v>1.060300531111873</v>
       </c>
       <c r="K9">
-        <v>1.055290692268635</v>
+        <v>1.063441056108458</v>
       </c>
       <c r="L9">
-        <v>1.050525325640883</v>
+        <v>1.064497448293904</v>
       </c>
       <c r="M9">
-        <v>1.061819714126643</v>
+        <v>1.075706379713119</v>
       </c>
       <c r="N9">
-        <v>1.019558939950074</v>
+        <v>1.023818118793616</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.016353354519485</v>
+        <v>1.053103839171154</v>
       </c>
       <c r="D10">
-        <v>1.036897028112157</v>
+        <v>1.059167758812218</v>
       </c>
       <c r="E10">
-        <v>1.031603947770673</v>
+        <v>1.060097011078111</v>
       </c>
       <c r="F10">
-        <v>1.04273576334855</v>
+        <v>1.071272599960863</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058630693251695</v>
+        <v>1.053022258831806</v>
       </c>
       <c r="J10">
-        <v>1.043932838197846</v>
+        <v>1.059320035040105</v>
       </c>
       <c r="K10">
-        <v>1.050630588498773</v>
+        <v>1.062532573842687</v>
       </c>
       <c r="L10">
-        <v>1.045425103066424</v>
+        <v>1.063458666895702</v>
       </c>
       <c r="M10">
-        <v>1.056374023396823</v>
+        <v>1.074596733004101</v>
       </c>
       <c r="N10">
-        <v>1.017850954203515</v>
+        <v>1.023484040755719</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.012877084230592</v>
+        <v>1.05244987654199</v>
       </c>
       <c r="D11">
-        <v>1.034248755337932</v>
+        <v>1.058653756001705</v>
       </c>
       <c r="E11">
-        <v>1.028755353865684</v>
+        <v>1.059526960708989</v>
       </c>
       <c r="F11">
-        <v>1.03974074984521</v>
+        <v>1.070673263057141</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057258538018834</v>
+        <v>1.052809590024744</v>
       </c>
       <c r="J11">
-        <v>1.041723802952111</v>
+        <v>1.058895259601859</v>
       </c>
       <c r="K11">
-        <v>1.048552456004709</v>
+        <v>1.062138861087946</v>
       </c>
       <c r="L11">
-        <v>1.043154623642096</v>
+        <v>1.06300898250055</v>
       </c>
       <c r="M11">
-        <v>1.053950209639524</v>
+        <v>1.074116413513845</v>
       </c>
       <c r="N11">
-        <v>1.017089247183659</v>
+        <v>1.023339190703628</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.011570627825386</v>
+        <v>1.052207051059386</v>
       </c>
       <c r="D12">
-        <v>1.033254369031313</v>
+        <v>1.058462906635977</v>
       </c>
       <c r="E12">
-        <v>1.027686139986779</v>
+        <v>1.059315356794976</v>
       </c>
       <c r="F12">
-        <v>1.038616542084282</v>
+        <v>1.07045078690467</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05674129390064</v>
+        <v>1.05273040766208</v>
       </c>
       <c r="J12">
-        <v>1.040893244081352</v>
+        <v>1.058737447736646</v>
       </c>
       <c r="K12">
-        <v>1.047771044567503</v>
+        <v>1.061992569325535</v>
       </c>
       <c r="L12">
-        <v>1.042301468369386</v>
+        <v>1.062841967881194</v>
       </c>
       <c r="M12">
-        <v>1.053039509467058</v>
+        <v>1.073938027266085</v>
       </c>
       <c r="N12">
-        <v>1.016802830126023</v>
+        <v>1.023285358459553</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.011851569405427</v>
+        <v>1.052259134075167</v>
       </c>
       <c r="D13">
-        <v>1.033468161326072</v>
+        <v>1.058503841097462</v>
       </c>
       <c r="E13">
-        <v>1.027916002706259</v>
+        <v>1.059360740280598</v>
       </c>
       <c r="F13">
-        <v>1.038858229158115</v>
+        <v>1.070498502246162</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056852592145736</v>
+        <v>1.052747401033352</v>
       </c>
       <c r="J13">
-        <v>1.041071863521939</v>
+        <v>1.058771300323063</v>
       </c>
       <c r="K13">
-        <v>1.047939097367858</v>
+        <v>1.062023951623038</v>
       </c>
       <c r="L13">
-        <v>1.042484924459756</v>
+        <v>1.062877792245885</v>
       </c>
       <c r="M13">
-        <v>1.053235336273992</v>
+        <v>1.073976290537857</v>
       </c>
       <c r="N13">
-        <v>1.016864427945833</v>
+        <v>1.023296906941733</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.012769407438648</v>
+        <v>1.052429802766293</v>
       </c>
       <c r="D14">
-        <v>1.034166780506438</v>
+        <v>1.058637978813743</v>
       </c>
       <c r="E14">
-        <v>1.028667202562153</v>
+        <v>1.059509466637684</v>
       </c>
       <c r="F14">
-        <v>1.039648065296849</v>
+        <v>1.070654870158785</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057215938677416</v>
+        <v>1.052803048612033</v>
       </c>
       <c r="J14">
-        <v>1.041655356102167</v>
+        <v>1.058882215458704</v>
       </c>
       <c r="K14">
-        <v>1.048488060778033</v>
+        <v>1.06212676956629</v>
       </c>
       <c r="L14">
-        <v>1.043084304307407</v>
+        <v>1.062995176643561</v>
       </c>
       <c r="M14">
-        <v>1.05387514581828</v>
+        <v>1.074101667518742</v>
       </c>
       <c r="N14">
-        <v>1.01706564391603</v>
+        <v>1.023334741492494</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.013332876240992</v>
+        <v>1.05253496871248</v>
       </c>
       <c r="D15">
-        <v>1.034595788621693</v>
+        <v>1.058720635351147</v>
       </c>
       <c r="E15">
-        <v>1.029128550540794</v>
+        <v>1.059601120200767</v>
       </c>
       <c r="F15">
-        <v>1.040133136978755</v>
+        <v>1.070751232744274</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057438796271307</v>
+        <v>1.052837310064999</v>
       </c>
       <c r="J15">
-        <v>1.042013521787454</v>
+        <v>1.05895054980432</v>
       </c>
       <c r="K15">
-        <v>1.048825022528966</v>
+        <v>1.062190112585421</v>
       </c>
       <c r="L15">
-        <v>1.043452288879963</v>
+        <v>1.063067503483247</v>
       </c>
       <c r="M15">
-        <v>1.054267961478935</v>
+        <v>1.07417891986382</v>
       </c>
       <c r="N15">
-        <v>1.017189152951115</v>
+        <v>1.02335804884439</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.016581975551921</v>
+        <v>1.053147252446009</v>
       </c>
       <c r="D16">
-        <v>1.037071314497781</v>
+        <v>1.059201881820641</v>
       </c>
       <c r="E16">
-        <v>1.031791472273656</v>
+        <v>1.060134862753915</v>
       </c>
       <c r="F16">
-        <v>1.042932921798106</v>
+        <v>1.071312396137876</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058720715678689</v>
+        <v>1.0530363466105</v>
       </c>
       <c r="J16">
-        <v>1.044078065925464</v>
+        <v>1.059348221544802</v>
       </c>
       <c r="K16">
-        <v>1.050767200086218</v>
+        <v>1.062558696298811</v>
       </c>
       <c r="L16">
-        <v>1.045574440114162</v>
+        <v>1.063488513466932</v>
       </c>
       <c r="M16">
-        <v>1.056533455570941</v>
+        <v>1.074628613787938</v>
       </c>
       <c r="N16">
-        <v>1.017901026430989</v>
+        <v>1.0234936499617</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.018593832485234</v>
+        <v>1.053531473158438</v>
       </c>
       <c r="D17">
-        <v>1.03860565762715</v>
+        <v>1.05950388588941</v>
       </c>
       <c r="E17">
-        <v>1.033442660786632</v>
+        <v>1.060469910276288</v>
       </c>
       <c r="F17">
-        <v>1.044668912083882</v>
+        <v>1.071664654814806</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.05951169626744</v>
+        <v>1.053160861954569</v>
       </c>
       <c r="J17">
-        <v>1.045355763825846</v>
+        <v>1.0595976137618</v>
       </c>
       <c r="K17">
-        <v>1.051969034513434</v>
+        <v>1.062789810322704</v>
       </c>
       <c r="L17">
-        <v>1.046888671239883</v>
+        <v>1.063752633305717</v>
       </c>
       <c r="M17">
-        <v>1.057936580775194</v>
+        <v>1.074910739768789</v>
       </c>
       <c r="N17">
-        <v>1.018341529936572</v>
+        <v>1.023578657801373</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.019758125533232</v>
+        <v>1.0537556368879</v>
       </c>
       <c r="D18">
-        <v>1.039494118558111</v>
+        <v>1.059680086532886</v>
       </c>
       <c r="E18">
-        <v>1.034399035094103</v>
+        <v>1.060665425702099</v>
       </c>
       <c r="F18">
-        <v>1.045674381447197</v>
+        <v>1.071870213085971</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059968429095182</v>
+        <v>1.053233368750032</v>
       </c>
       <c r="J18">
-        <v>1.046094928723016</v>
+        <v>1.059743059303135</v>
       </c>
       <c r="K18">
-        <v>1.052664259960959</v>
+        <v>1.062924582945008</v>
       </c>
       <c r="L18">
-        <v>1.047649286971954</v>
+        <v>1.063906700953091</v>
       </c>
       <c r="M18">
-        <v>1.058748687566518</v>
+        <v>1.07507531491745</v>
       </c>
       <c r="N18">
-        <v>1.018596343508757</v>
+        <v>1.023628222880533</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.020153584593708</v>
+        <v>1.053832080112431</v>
       </c>
       <c r="D19">
-        <v>1.03979597447045</v>
+        <v>1.059740174297089</v>
       </c>
       <c r="E19">
-        <v>1.034724008090433</v>
+        <v>1.060732106277774</v>
       </c>
       <c r="F19">
-        <v>1.046016032989192</v>
+        <v>1.071940318667212</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060123386627238</v>
+        <v>1.053258071171939</v>
       </c>
       <c r="J19">
-        <v>1.046345945170115</v>
+        <v>1.059792648934725</v>
       </c>
       <c r="K19">
-        <v>1.052900345770975</v>
+        <v>1.06297053142553</v>
       </c>
       <c r="L19">
-        <v>1.047907641463627</v>
+        <v>1.063959235878999</v>
       </c>
       <c r="M19">
-        <v>1.059024539023173</v>
+        <v>1.075131433445123</v>
       </c>
       <c r="N19">
-        <v>1.018682872626312</v>
+        <v>1.023645120133092</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.018378935457858</v>
+        <v>1.053490244291497</v>
       </c>
       <c r="D20">
-        <v>1.038441712684291</v>
+        <v>1.059471478863655</v>
       </c>
       <c r="E20">
-        <v>1.033266204604848</v>
+        <v>1.060433953749904</v>
       </c>
       <c r="F20">
-        <v>1.04448339578994</v>
+        <v>1.071626851293739</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059427312938649</v>
+        <v>1.053147515137978</v>
       </c>
       <c r="J20">
-        <v>1.045219312707476</v>
+        <v>1.059570858474287</v>
       </c>
       <c r="K20">
-        <v>1.051840690460889</v>
+        <v>1.062765017307614</v>
       </c>
       <c r="L20">
-        <v>1.046748285765591</v>
+        <v>1.063724294600588</v>
       </c>
       <c r="M20">
-        <v>1.057786695167955</v>
+        <v>1.074880468675482</v>
       </c>
       <c r="N20">
-        <v>1.018294488959389</v>
+        <v>1.023569539181291</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.012499553864273</v>
+        <v>1.052379542728326</v>
       </c>
       <c r="D21">
-        <v>1.033961354355901</v>
+        <v>1.05859847654268</v>
       </c>
       <c r="E21">
-        <v>1.028446304628273</v>
+        <v>1.059465666608356</v>
       </c>
       <c r="F21">
-        <v>1.039415806952549</v>
+        <v>1.070608819713426</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057109153646126</v>
+        <v>1.052786666964457</v>
       </c>
       <c r="J21">
-        <v>1.041483812849467</v>
+        <v>1.058849554574663</v>
       </c>
       <c r="K21">
-        <v>1.048326670721532</v>
+        <v>1.062096493599137</v>
       </c>
       <c r="L21">
-        <v>1.042908076344437</v>
+        <v>1.062960609354569</v>
       </c>
       <c r="M21">
-        <v>1.053687028822715</v>
+        <v>1.074064746402409</v>
       </c>
       <c r="N21">
-        <v>1.017006488369488</v>
+        <v>1.023323600943663</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.008714477466774</v>
+        <v>1.051681694785616</v>
       </c>
       <c r="D22">
-        <v>1.031082181107061</v>
+        <v>1.058050015017979</v>
       </c>
       <c r="E22">
-        <v>1.025351199584468</v>
+        <v>1.058857666090035</v>
       </c>
       <c r="F22">
-        <v>1.036161441046847</v>
+        <v>1.069969578121301</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055607695891591</v>
+        <v>1.05255870167937</v>
       </c>
       <c r="J22">
-        <v>1.039076891948884</v>
+        <v>1.058395861186951</v>
       </c>
       <c r="K22">
-        <v>1.046062057052315</v>
+        <v>1.061675881312107</v>
       </c>
       <c r="L22">
-        <v>1.040436635267336</v>
+        <v>1.06248055582162</v>
       </c>
       <c r="M22">
-        <v>1.051049030325855</v>
+        <v>1.073552019198617</v>
       </c>
       <c r="N22">
-        <v>1.016176420160155</v>
+        <v>1.023168805188422</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.010729692530045</v>
+        <v>1.052051590087969</v>
       </c>
       <c r="D23">
-        <v>1.032614566266363</v>
+        <v>1.058340723720277</v>
       </c>
       <c r="E23">
-        <v>1.026998300573581</v>
+        <v>1.059179902427459</v>
       </c>
       <c r="F23">
-        <v>1.03789331434645</v>
+        <v>1.070308372586042</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056407923264448</v>
+        <v>1.052679653135632</v>
       </c>
       <c r="J23">
-        <v>1.040358538664111</v>
+        <v>1.058636389517226</v>
       </c>
       <c r="K23">
-        <v>1.047267961494399</v>
+        <v>1.061898882562624</v>
       </c>
       <c r="L23">
-        <v>1.041752358680715</v>
+        <v>1.062735030949939</v>
       </c>
       <c r="M23">
-        <v>1.052453383300374</v>
+        <v>1.073823811050306</v>
       </c>
       <c r="N23">
-        <v>1.016618430696675</v>
+        <v>1.023250880828186</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.018476066511792</v>
+        <v>1.053508873674067</v>
       </c>
       <c r="D24">
-        <v>1.038515812381758</v>
+        <v>1.05948612205922</v>
       </c>
       <c r="E24">
-        <v>1.033345958333128</v>
+        <v>1.060450200685041</v>
       </c>
       <c r="F24">
-        <v>1.044567244529142</v>
+        <v>1.071643932794317</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05946545642626</v>
+        <v>1.053153546363473</v>
       </c>
       <c r="J24">
-        <v>1.045280987893721</v>
+        <v>1.059582948101123</v>
       </c>
       <c r="K24">
-        <v>1.051898701456436</v>
+        <v>1.062776220303729</v>
       </c>
       <c r="L24">
-        <v>1.046811738280744</v>
+        <v>1.063737099607655</v>
       </c>
       <c r="M24">
-        <v>1.057854441492811</v>
+        <v>1.074894146830695</v>
       </c>
       <c r="N24">
-        <v>1.01831575130643</v>
+        <v>1.023573659550565</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.027107265500628</v>
+        <v>1.055202097070765</v>
       </c>
       <c r="D25">
-        <v>1.045110660928265</v>
+        <v>1.060817123787615</v>
       </c>
       <c r="E25">
-        <v>1.040449527255508</v>
+        <v>1.061927753822099</v>
       </c>
       <c r="F25">
-        <v>1.052035074800177</v>
+        <v>1.073197370417134</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062832764741169</v>
+        <v>1.05369872866314</v>
       </c>
       <c r="J25">
-        <v>1.050755575556287</v>
+        <v>1.060680560871121</v>
       </c>
       <c r="K25">
-        <v>1.057046845562827</v>
+        <v>1.063793052612299</v>
       </c>
       <c r="L25">
-        <v>1.05245076737076</v>
+        <v>1.064900373144459</v>
       </c>
       <c r="M25">
-        <v>1.063875955497966</v>
+        <v>1.07613682944267</v>
       </c>
       <c r="N25">
-        <v>1.020202527106685</v>
+        <v>1.023947497050901</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.056554295772895</v>
+        <v>1.033729844475412</v>
       </c>
       <c r="D2">
-        <v>1.061880159772376</v>
+        <v>1.05018406947373</v>
       </c>
       <c r="E2">
-        <v>1.063108978231971</v>
+        <v>1.045922522768668</v>
       </c>
       <c r="F2">
-        <v>1.074439240449316</v>
+        <v>1.057788033444279</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054129719975071</v>
+        <v>1.065383232638694</v>
       </c>
       <c r="J2">
-        <v>1.061555325885056</v>
+        <v>1.054946466896889</v>
       </c>
       <c r="K2">
-        <v>1.064603020345378</v>
+        <v>1.060985881106156</v>
       </c>
       <c r="L2">
-        <v>1.065828508331149</v>
+        <v>1.056777114461221</v>
       </c>
       <c r="M2">
-        <v>1.077128450119488</v>
+        <v>1.068496980808761</v>
       </c>
       <c r="N2">
-        <v>1.024245067184439</v>
+        <v>1.021645879118821</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.057537079297227</v>
+        <v>1.038398854283114</v>
       </c>
       <c r="D3">
-        <v>1.062652828369846</v>
+        <v>1.053767511835301</v>
       </c>
       <c r="E3">
-        <v>1.063968215666284</v>
+        <v>1.049793132330051</v>
       </c>
       <c r="F3">
-        <v>1.075342580909083</v>
+        <v>1.061856247622885</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05444041915412</v>
+        <v>1.067161363461484</v>
       </c>
       <c r="J3">
-        <v>1.062190069750803</v>
+        <v>1.057894780917452</v>
       </c>
       <c r="K3">
-        <v>1.065190502055134</v>
+        <v>1.063755718928602</v>
       </c>
       <c r="L3">
-        <v>1.066502581242343</v>
+        <v>1.059826204083792</v>
       </c>
       <c r="M3">
-        <v>1.077848703985172</v>
+        <v>1.07175442044783</v>
       </c>
       <c r="N3">
-        <v>1.024460774060276</v>
+        <v>1.022660575082013</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.058173449703919</v>
+        <v>1.041359128063286</v>
       </c>
       <c r="D4">
-        <v>1.063153164679208</v>
+        <v>1.056042242363607</v>
       </c>
       <c r="E4">
-        <v>1.064524916488953</v>
+        <v>1.052252491434428</v>
       </c>
       <c r="F4">
-        <v>1.07592785094246</v>
+        <v>1.064440984537707</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.054640423384994</v>
+        <v>1.068279249625771</v>
       </c>
       <c r="J4">
-        <v>1.062600595645402</v>
+        <v>1.05976093461484</v>
       </c>
       <c r="K4">
-        <v>1.065570347094107</v>
+        <v>1.065508254770902</v>
       </c>
       <c r="L4">
-        <v>1.066938822253564</v>
+        <v>1.061758668013727</v>
       </c>
       <c r="M4">
-        <v>1.078314865907837</v>
+        <v>1.073819230389827</v>
       </c>
       <c r="N4">
-        <v>1.024600184208667</v>
+        <v>1.023302463732892</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.058441085194728</v>
+        <v>1.042589566511809</v>
       </c>
       <c r="D5">
-        <v>1.063363592931275</v>
+        <v>1.05698834420622</v>
       </c>
       <c r="E5">
-        <v>1.064759123839088</v>
+        <v>1.053275952849001</v>
       </c>
       <c r="F5">
-        <v>1.07617407629912</v>
+        <v>1.065516579305529</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054724255887667</v>
+        <v>1.06874158488443</v>
       </c>
       <c r="J5">
-        <v>1.062773132957957</v>
+        <v>1.060535812100044</v>
       </c>
       <c r="K5">
-        <v>1.065729962429856</v>
+        <v>1.066235791566916</v>
       </c>
       <c r="L5">
-        <v>1.06712223391864</v>
+        <v>1.062561683515762</v>
       </c>
       <c r="M5">
-        <v>1.078510865509056</v>
+        <v>1.074677310511367</v>
       </c>
       <c r="N5">
-        <v>1.02465875195506</v>
+        <v>1.023568898565736</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058486028525383</v>
+        <v>1.042795352548163</v>
       </c>
       <c r="D6">
-        <v>1.063398929818458</v>
+        <v>1.057146610563954</v>
       </c>
       <c r="E6">
-        <v>1.064798458234848</v>
+        <v>1.053447193810151</v>
       </c>
       <c r="F6">
-        <v>1.076215429009851</v>
+        <v>1.065696540492365</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054738317099918</v>
+        <v>1.068818771570853</v>
       </c>
       <c r="J6">
-        <v>1.062802099904611</v>
+        <v>1.060665359978269</v>
       </c>
       <c r="K6">
-        <v>1.065756758326581</v>
+        <v>1.066357414967182</v>
       </c>
       <c r="L6">
-        <v>1.067153030450272</v>
+        <v>1.06269597113872</v>
       </c>
       <c r="M6">
-        <v>1.078543776146524</v>
+        <v>1.074820810589503</v>
       </c>
       <c r="N6">
-        <v>1.024668583364029</v>
+        <v>1.023613436726301</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.058177025449474</v>
+        <v>1.041375623825728</v>
       </c>
       <c r="D7">
-        <v>1.063155976092043</v>
+        <v>1.056054923845189</v>
       </c>
       <c r="E7">
-        <v>1.064528045311357</v>
+        <v>1.052266207579633</v>
       </c>
       <c r="F7">
-        <v>1.075931140320614</v>
+        <v>1.064455399527266</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.054641544539175</v>
+        <v>1.068285457070894</v>
       </c>
       <c r="J7">
-        <v>1.062602901286247</v>
+        <v>1.059771326102333</v>
       </c>
       <c r="K7">
-        <v>1.0655724801642</v>
+        <v>1.065518012052297</v>
       </c>
       <c r="L7">
-        <v>1.066941272947808</v>
+        <v>1.061769434459616</v>
       </c>
       <c r="M7">
-        <v>1.078317484766723</v>
+        <v>1.073830734842881</v>
       </c>
       <c r="N7">
-        <v>1.024600966952521</v>
+        <v>1.023306037136952</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.056886339664937</v>
+        <v>1.035320684357421</v>
       </c>
       <c r="D8">
-        <v>1.062141209783629</v>
+        <v>1.051404428988492</v>
       </c>
       <c r="E8">
-        <v>1.063399212376903</v>
+        <v>1.047240193808957</v>
       </c>
       <c r="F8">
-        <v>1.074744372840765</v>
+        <v>1.059173012625109</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054234936995178</v>
+        <v>1.065991051442472</v>
       </c>
       <c r="J8">
-        <v>1.061769880557947</v>
+        <v>1.05595166673045</v>
       </c>
       <c r="K8">
-        <v>1.064801623051684</v>
+        <v>1.061930363031661</v>
       </c>
       <c r="L8">
-        <v>1.066056299175529</v>
+        <v>1.057816142143176</v>
       </c>
       <c r="M8">
-        <v>1.077371839956455</v>
+        <v>1.069606943817913</v>
       </c>
       <c r="N8">
-        <v>1.024318000599235</v>
+        <v>1.021991903966137</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054615423081794</v>
+        <v>1.024160234480012</v>
       </c>
       <c r="D9">
-        <v>1.060355935807046</v>
+        <v>1.042856669425609</v>
       </c>
       <c r="E9">
-        <v>1.061415609849954</v>
+        <v>1.038020390938505</v>
       </c>
       <c r="F9">
-        <v>1.072658926758232</v>
+        <v>1.049481484196932</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053510510370943</v>
+        <v>1.061688169340099</v>
       </c>
       <c r="J9">
-        <v>1.060300531111873</v>
+        <v>1.048887759901395</v>
       </c>
       <c r="K9">
-        <v>1.063441056108458</v>
+        <v>1.055290692268635</v>
       </c>
       <c r="L9">
-        <v>1.064497448293904</v>
+        <v>1.050525325640883</v>
       </c>
       <c r="M9">
-        <v>1.075706379713119</v>
+        <v>1.061819714126643</v>
       </c>
       <c r="N9">
-        <v>1.023818118793616</v>
+        <v>1.019558939950074</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053103839171154</v>
+        <v>1.016353354519485</v>
       </c>
       <c r="D10">
-        <v>1.059167758812218</v>
+        <v>1.036897028112158</v>
       </c>
       <c r="E10">
-        <v>1.060097011078111</v>
+        <v>1.031603947770674</v>
       </c>
       <c r="F10">
-        <v>1.071272599960863</v>
+        <v>1.042735763348551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053022258831806</v>
+        <v>1.058630693251696</v>
       </c>
       <c r="J10">
-        <v>1.059320035040105</v>
+        <v>1.043932838197847</v>
       </c>
       <c r="K10">
-        <v>1.062532573842687</v>
+        <v>1.050630588498774</v>
       </c>
       <c r="L10">
-        <v>1.063458666895702</v>
+        <v>1.045425103066425</v>
       </c>
       <c r="M10">
-        <v>1.074596733004101</v>
+        <v>1.056374023396824</v>
       </c>
       <c r="N10">
-        <v>1.023484040755719</v>
+        <v>1.017850954203515</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.05244987654199</v>
+        <v>1.012877084230592</v>
       </c>
       <c r="D11">
-        <v>1.058653756001705</v>
+        <v>1.034248755337932</v>
       </c>
       <c r="E11">
-        <v>1.059526960708989</v>
+        <v>1.028755353865683</v>
       </c>
       <c r="F11">
-        <v>1.070673263057141</v>
+        <v>1.03974074984521</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.052809590024744</v>
+        <v>1.057258538018834</v>
       </c>
       <c r="J11">
-        <v>1.058895259601859</v>
+        <v>1.041723802952111</v>
       </c>
       <c r="K11">
-        <v>1.062138861087946</v>
+        <v>1.048552456004708</v>
       </c>
       <c r="L11">
-        <v>1.06300898250055</v>
+        <v>1.043154623642096</v>
       </c>
       <c r="M11">
-        <v>1.074116413513845</v>
+        <v>1.053950209639524</v>
       </c>
       <c r="N11">
-        <v>1.023339190703628</v>
+        <v>1.017089247183659</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052207051059386</v>
+        <v>1.011570627825386</v>
       </c>
       <c r="D12">
-        <v>1.058462906635977</v>
+        <v>1.033254369031312</v>
       </c>
       <c r="E12">
-        <v>1.059315356794976</v>
+        <v>1.027686139986778</v>
       </c>
       <c r="F12">
-        <v>1.07045078690467</v>
+        <v>1.038616542084281</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05273040766208</v>
+        <v>1.056741293900639</v>
       </c>
       <c r="J12">
-        <v>1.058737447736646</v>
+        <v>1.040893244081351</v>
       </c>
       <c r="K12">
-        <v>1.061992569325535</v>
+        <v>1.047771044567502</v>
       </c>
       <c r="L12">
-        <v>1.062841967881194</v>
+        <v>1.042301468369385</v>
       </c>
       <c r="M12">
-        <v>1.073938027266085</v>
+        <v>1.053039509467057</v>
       </c>
       <c r="N12">
-        <v>1.023285358459553</v>
+        <v>1.016802830126023</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052259134075167</v>
+        <v>1.011851569405426</v>
       </c>
       <c r="D13">
-        <v>1.058503841097462</v>
+        <v>1.033468161326072</v>
       </c>
       <c r="E13">
-        <v>1.059360740280598</v>
+        <v>1.027916002706258</v>
       </c>
       <c r="F13">
-        <v>1.070498502246162</v>
+        <v>1.038858229158114</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.052747401033352</v>
+        <v>1.056852592145736</v>
       </c>
       <c r="J13">
-        <v>1.058771300323063</v>
+        <v>1.041071863521939</v>
       </c>
       <c r="K13">
-        <v>1.062023951623038</v>
+        <v>1.047939097367858</v>
       </c>
       <c r="L13">
-        <v>1.062877792245885</v>
+        <v>1.042484924459756</v>
       </c>
       <c r="M13">
-        <v>1.073976290537857</v>
+        <v>1.053235336273991</v>
       </c>
       <c r="N13">
-        <v>1.023296906941733</v>
+        <v>1.016864427945833</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052429802766293</v>
+        <v>1.012769407438648</v>
       </c>
       <c r="D14">
-        <v>1.058637978813743</v>
+        <v>1.034166780506438</v>
       </c>
       <c r="E14">
-        <v>1.059509466637684</v>
+        <v>1.028667202562152</v>
       </c>
       <c r="F14">
-        <v>1.070654870158785</v>
+        <v>1.039648065296848</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.052803048612033</v>
+        <v>1.057215938677416</v>
       </c>
       <c r="J14">
-        <v>1.058882215458704</v>
+        <v>1.041655356102167</v>
       </c>
       <c r="K14">
-        <v>1.06212676956629</v>
+        <v>1.048488060778033</v>
       </c>
       <c r="L14">
-        <v>1.062995176643561</v>
+        <v>1.043084304307407</v>
       </c>
       <c r="M14">
-        <v>1.074101667518742</v>
+        <v>1.053875145818279</v>
       </c>
       <c r="N14">
-        <v>1.023334741492494</v>
+        <v>1.017065643916029</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.05253496871248</v>
+        <v>1.01333287624099</v>
       </c>
       <c r="D15">
-        <v>1.058720635351147</v>
+        <v>1.034595788621691</v>
       </c>
       <c r="E15">
-        <v>1.059601120200767</v>
+        <v>1.029128550540793</v>
       </c>
       <c r="F15">
-        <v>1.070751232744274</v>
+        <v>1.040133136978753</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.052837310064999</v>
+        <v>1.057438796271307</v>
       </c>
       <c r="J15">
-        <v>1.05895054980432</v>
+        <v>1.042013521787452</v>
       </c>
       <c r="K15">
-        <v>1.062190112585421</v>
+        <v>1.048825022528965</v>
       </c>
       <c r="L15">
-        <v>1.063067503483247</v>
+        <v>1.043452288879962</v>
       </c>
       <c r="M15">
-        <v>1.07417891986382</v>
+        <v>1.054267961478933</v>
       </c>
       <c r="N15">
-        <v>1.02335804884439</v>
+        <v>1.017189152951114</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053147252446009</v>
+        <v>1.016581975551919</v>
       </c>
       <c r="D16">
-        <v>1.059201881820641</v>
+        <v>1.037071314497779</v>
       </c>
       <c r="E16">
-        <v>1.060134862753915</v>
+        <v>1.031791472273654</v>
       </c>
       <c r="F16">
-        <v>1.071312396137876</v>
+        <v>1.042932921798103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.0530363466105</v>
+        <v>1.058720715678688</v>
       </c>
       <c r="J16">
-        <v>1.059348221544802</v>
+        <v>1.044078065925462</v>
       </c>
       <c r="K16">
-        <v>1.062558696298811</v>
+        <v>1.050767200086216</v>
       </c>
       <c r="L16">
-        <v>1.063488513466932</v>
+        <v>1.04557444011416</v>
       </c>
       <c r="M16">
-        <v>1.074628613787938</v>
+        <v>1.056533455570938</v>
       </c>
       <c r="N16">
-        <v>1.0234936499617</v>
+        <v>1.017901026430989</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053531473158438</v>
+        <v>1.018593832485235</v>
       </c>
       <c r="D17">
-        <v>1.05950388588941</v>
+        <v>1.038605657627151</v>
       </c>
       <c r="E17">
-        <v>1.060469910276288</v>
+        <v>1.033442660786632</v>
       </c>
       <c r="F17">
-        <v>1.071664654814806</v>
+        <v>1.044668912083883</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053160861954569</v>
+        <v>1.059511696267441</v>
       </c>
       <c r="J17">
-        <v>1.0595976137618</v>
+        <v>1.045355763825847</v>
       </c>
       <c r="K17">
-        <v>1.062789810322704</v>
+        <v>1.051969034513435</v>
       </c>
       <c r="L17">
-        <v>1.063752633305717</v>
+        <v>1.046888671239884</v>
       </c>
       <c r="M17">
-        <v>1.074910739768789</v>
+        <v>1.057936580775194</v>
       </c>
       <c r="N17">
-        <v>1.023578657801373</v>
+        <v>1.018341529936573</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.0537556368879</v>
+        <v>1.019758125533232</v>
       </c>
       <c r="D18">
-        <v>1.059680086532886</v>
+        <v>1.039494118558112</v>
       </c>
       <c r="E18">
-        <v>1.060665425702099</v>
+        <v>1.034399035094103</v>
       </c>
       <c r="F18">
-        <v>1.071870213085971</v>
+        <v>1.045674381447198</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053233368750032</v>
+        <v>1.059968429095183</v>
       </c>
       <c r="J18">
-        <v>1.059743059303135</v>
+        <v>1.046094928723016</v>
       </c>
       <c r="K18">
-        <v>1.062924582945008</v>
+        <v>1.052664259960959</v>
       </c>
       <c r="L18">
-        <v>1.063906700953091</v>
+        <v>1.047649286971954</v>
       </c>
       <c r="M18">
-        <v>1.07507531491745</v>
+        <v>1.058748687566519</v>
       </c>
       <c r="N18">
-        <v>1.023628222880533</v>
+        <v>1.018596343508757</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.053832080112431</v>
+        <v>1.020153584593707</v>
       </c>
       <c r="D19">
-        <v>1.059740174297089</v>
+        <v>1.039795974470449</v>
       </c>
       <c r="E19">
-        <v>1.060732106277774</v>
+        <v>1.034724008090432</v>
       </c>
       <c r="F19">
-        <v>1.071940318667212</v>
+        <v>1.04601603298919</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.053258071171939</v>
+        <v>1.060123386627237</v>
       </c>
       <c r="J19">
-        <v>1.059792648934725</v>
+        <v>1.046345945170113</v>
       </c>
       <c r="K19">
-        <v>1.06297053142553</v>
+        <v>1.052900345770974</v>
       </c>
       <c r="L19">
-        <v>1.063959235878999</v>
+        <v>1.047907641463626</v>
       </c>
       <c r="M19">
-        <v>1.075131433445123</v>
+        <v>1.059024539023171</v>
       </c>
       <c r="N19">
-        <v>1.023645120133092</v>
+        <v>1.018682872626312</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053490244291497</v>
+        <v>1.018378935457858</v>
       </c>
       <c r="D20">
-        <v>1.059471478863655</v>
+        <v>1.038441712684292</v>
       </c>
       <c r="E20">
-        <v>1.060433953749904</v>
+        <v>1.033266204604849</v>
       </c>
       <c r="F20">
-        <v>1.071626851293739</v>
+        <v>1.044483395789941</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053147515137978</v>
+        <v>1.05942731293865</v>
       </c>
       <c r="J20">
-        <v>1.059570858474287</v>
+        <v>1.045219312707477</v>
       </c>
       <c r="K20">
-        <v>1.062765017307614</v>
+        <v>1.05184069046089</v>
       </c>
       <c r="L20">
-        <v>1.063724294600588</v>
+        <v>1.046748285765592</v>
       </c>
       <c r="M20">
-        <v>1.074880468675482</v>
+        <v>1.057786695167956</v>
       </c>
       <c r="N20">
-        <v>1.023569539181291</v>
+        <v>1.01829448895939</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052379542728326</v>
+        <v>1.012499553864273</v>
       </c>
       <c r="D21">
-        <v>1.05859847654268</v>
+        <v>1.033961354355901</v>
       </c>
       <c r="E21">
-        <v>1.059465666608356</v>
+        <v>1.028446304628273</v>
       </c>
       <c r="F21">
-        <v>1.070608819713426</v>
+        <v>1.039415806952548</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.052786666964457</v>
+        <v>1.057109153646125</v>
       </c>
       <c r="J21">
-        <v>1.058849554574663</v>
+        <v>1.041483812849467</v>
       </c>
       <c r="K21">
-        <v>1.062096493599137</v>
+        <v>1.048326670721532</v>
       </c>
       <c r="L21">
-        <v>1.062960609354569</v>
+        <v>1.042908076344436</v>
       </c>
       <c r="M21">
-        <v>1.074064746402409</v>
+        <v>1.053687028822714</v>
       </c>
       <c r="N21">
-        <v>1.023323600943663</v>
+        <v>1.017006488369488</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051681694785616</v>
+        <v>1.008714477466772</v>
       </c>
       <c r="D22">
-        <v>1.058050015017979</v>
+        <v>1.03108218110706</v>
       </c>
       <c r="E22">
-        <v>1.058857666090035</v>
+        <v>1.025351199584467</v>
       </c>
       <c r="F22">
-        <v>1.069969578121301</v>
+        <v>1.036161441046846</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05255870167937</v>
+        <v>1.05560769589159</v>
       </c>
       <c r="J22">
-        <v>1.058395861186951</v>
+        <v>1.039076891948883</v>
       </c>
       <c r="K22">
-        <v>1.061675881312107</v>
+        <v>1.046062057052313</v>
       </c>
       <c r="L22">
-        <v>1.06248055582162</v>
+        <v>1.040436635267335</v>
       </c>
       <c r="M22">
-        <v>1.073552019198617</v>
+        <v>1.051049030325854</v>
       </c>
       <c r="N22">
-        <v>1.023168805188422</v>
+        <v>1.016176420160154</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.052051590087969</v>
+        <v>1.010729692530046</v>
       </c>
       <c r="D23">
-        <v>1.058340723720277</v>
+        <v>1.032614566266364</v>
       </c>
       <c r="E23">
-        <v>1.059179902427459</v>
+        <v>1.026998300573581</v>
       </c>
       <c r="F23">
-        <v>1.070308372586042</v>
+        <v>1.03789331434645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.052679653135632</v>
+        <v>1.056407923264448</v>
       </c>
       <c r="J23">
-        <v>1.058636389517226</v>
+        <v>1.040358538664111</v>
       </c>
       <c r="K23">
-        <v>1.061898882562624</v>
+        <v>1.0472679614944</v>
       </c>
       <c r="L23">
-        <v>1.062735030949939</v>
+        <v>1.041752358680715</v>
       </c>
       <c r="M23">
-        <v>1.073823811050306</v>
+        <v>1.052453383300374</v>
       </c>
       <c r="N23">
-        <v>1.023250880828186</v>
+        <v>1.016618430696676</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053508873674067</v>
+        <v>1.018476066511794</v>
       </c>
       <c r="D24">
-        <v>1.05948612205922</v>
+        <v>1.038515812381759</v>
       </c>
       <c r="E24">
-        <v>1.060450200685041</v>
+        <v>1.033345958333129</v>
       </c>
       <c r="F24">
-        <v>1.071643932794317</v>
+        <v>1.044567244529142</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053153546363473</v>
+        <v>1.05946545642626</v>
       </c>
       <c r="J24">
-        <v>1.059582948101123</v>
+        <v>1.045280987893722</v>
       </c>
       <c r="K24">
-        <v>1.062776220303729</v>
+        <v>1.051898701456436</v>
       </c>
       <c r="L24">
-        <v>1.063737099607655</v>
+        <v>1.046811738280744</v>
       </c>
       <c r="M24">
-        <v>1.074894146830695</v>
+        <v>1.057854441492812</v>
       </c>
       <c r="N24">
-        <v>1.023573659550565</v>
+        <v>1.01831575130643</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055202097070765</v>
+        <v>1.027107265500627</v>
       </c>
       <c r="D25">
-        <v>1.060817123787615</v>
+        <v>1.045110660928265</v>
       </c>
       <c r="E25">
-        <v>1.061927753822099</v>
+        <v>1.040449527255508</v>
       </c>
       <c r="F25">
-        <v>1.073197370417134</v>
+        <v>1.052035074800177</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.05369872866314</v>
+        <v>1.062832764741169</v>
       </c>
       <c r="J25">
-        <v>1.060680560871121</v>
+        <v>1.050755575556286</v>
       </c>
       <c r="K25">
-        <v>1.063793052612299</v>
+        <v>1.057046845562827</v>
       </c>
       <c r="L25">
-        <v>1.064900373144459</v>
+        <v>1.052450767370759</v>
       </c>
       <c r="M25">
-        <v>1.07613682944267</v>
+        <v>1.063875955497965</v>
       </c>
       <c r="N25">
-        <v>1.023947497050901</v>
+        <v>1.020202527106685</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.033729844475412</v>
+        <v>0.9972372382147729</v>
       </c>
       <c r="D2">
-        <v>1.05018406947373</v>
+        <v>1.023392055922251</v>
       </c>
       <c r="E2">
-        <v>1.045922522768668</v>
+        <v>1.004108624200678</v>
       </c>
       <c r="F2">
-        <v>1.057788033444279</v>
+        <v>1.03015491976806</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.065383232638694</v>
+        <v>1.048388539599033</v>
       </c>
       <c r="J2">
-        <v>1.054946466896889</v>
+        <v>1.019500898192011</v>
       </c>
       <c r="K2">
-        <v>1.060985881106156</v>
+        <v>1.034534844525208</v>
       </c>
       <c r="L2">
-        <v>1.056777114461221</v>
+        <v>1.015511014601397</v>
       </c>
       <c r="M2">
-        <v>1.068496980808761</v>
+        <v>1.041209545095312</v>
       </c>
       <c r="N2">
-        <v>1.021645879118821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.010500771582973</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.041186980918149</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.035489366208508</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.038398854283114</v>
+        <v>1.000787052732694</v>
       </c>
       <c r="D3">
-        <v>1.053767511835301</v>
+        <v>1.025760548516411</v>
       </c>
       <c r="E3">
-        <v>1.049793132330051</v>
+        <v>1.006868502449835</v>
       </c>
       <c r="F3">
-        <v>1.061856247622885</v>
+        <v>1.032679932959205</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.067161363461484</v>
+        <v>1.049096709119464</v>
       </c>
       <c r="J3">
-        <v>1.057894780917452</v>
+        <v>1.021256284868105</v>
       </c>
       <c r="K3">
-        <v>1.063755718928602</v>
+        <v>1.036074095931051</v>
       </c>
       <c r="L3">
-        <v>1.059826204083792</v>
+        <v>1.01741424741467</v>
       </c>
       <c r="M3">
-        <v>1.07175442044783</v>
+        <v>1.04291106958635</v>
       </c>
       <c r="N3">
-        <v>1.022660575082013</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.011088388969637</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042533620934284</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.036575083653977</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041359128063286</v>
+        <v>1.003044790412644</v>
       </c>
       <c r="D4">
-        <v>1.056042242363607</v>
+        <v>1.027268528760717</v>
       </c>
       <c r="E4">
-        <v>1.052252491434428</v>
+        <v>1.008629776104106</v>
       </c>
       <c r="F4">
-        <v>1.064440984537707</v>
+        <v>1.034291890586765</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.068279249625771</v>
+        <v>1.049533283961861</v>
       </c>
       <c r="J4">
-        <v>1.05976093461484</v>
+        <v>1.02237092952631</v>
       </c>
       <c r="K4">
-        <v>1.065508254770902</v>
+        <v>1.037048619628301</v>
       </c>
       <c r="L4">
-        <v>1.061758668013727</v>
+        <v>1.018625151272002</v>
       </c>
       <c r="M4">
-        <v>1.073819230389827</v>
+        <v>1.043993335779906</v>
       </c>
       <c r="N4">
-        <v>1.023302463732892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011461534192475</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.043390159150336</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.037265059848157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.042589566511809</v>
+        <v>1.003987053494749</v>
       </c>
       <c r="D5">
-        <v>1.05698834420622</v>
+        <v>1.027899856283244</v>
       </c>
       <c r="E5">
-        <v>1.053275952849001</v>
+        <v>1.009366521422373</v>
       </c>
       <c r="F5">
-        <v>1.065516579305529</v>
+        <v>1.034966697092262</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06874158488443</v>
+        <v>1.04971328341334</v>
       </c>
       <c r="J5">
-        <v>1.060535812100044</v>
+        <v>1.022836744191522</v>
       </c>
       <c r="K5">
-        <v>1.066235791566916</v>
+        <v>1.037456363339322</v>
       </c>
       <c r="L5">
-        <v>1.062561683515762</v>
+        <v>1.019131401662141</v>
       </c>
       <c r="M5">
-        <v>1.074677310511367</v>
+        <v>1.044446161676977</v>
       </c>
       <c r="N5">
-        <v>1.023568898565736</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011617743049872</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043748538969201</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03756056508258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.042795352548163</v>
+        <v>1.004147457875652</v>
       </c>
       <c r="D6">
-        <v>1.057146610563954</v>
+        <v>1.028009337608041</v>
       </c>
       <c r="E6">
-        <v>1.053447193810151</v>
+        <v>1.009492364054204</v>
       </c>
       <c r="F6">
-        <v>1.065696540492365</v>
+        <v>1.035082451379295</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.068818771570853</v>
+        <v>1.049745146616734</v>
       </c>
       <c r="J6">
-        <v>1.060665359978269</v>
+        <v>1.022917324276802</v>
       </c>
       <c r="K6">
-        <v>1.066357414967182</v>
+        <v>1.037528303509755</v>
       </c>
       <c r="L6">
-        <v>1.06269597113872</v>
+        <v>1.019218566925305</v>
       </c>
       <c r="M6">
-        <v>1.074820810589503</v>
+        <v>1.04452465670299</v>
       </c>
       <c r="N6">
-        <v>1.023613436726301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011645090355429</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043810662238373</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.037620206102547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041375623825728</v>
+        <v>1.003064706524685</v>
       </c>
       <c r="D7">
-        <v>1.056054923845189</v>
+        <v>1.027287169771415</v>
       </c>
       <c r="E7">
-        <v>1.052266207579633</v>
+        <v>1.008646267022951</v>
       </c>
       <c r="F7">
-        <v>1.064455399527266</v>
+        <v>1.034308268647667</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.068285457070894</v>
+        <v>1.049540887759413</v>
       </c>
       <c r="J7">
-        <v>1.059771326102333</v>
+        <v>1.022384278250404</v>
       </c>
       <c r="K7">
-        <v>1.065518012052297</v>
+        <v>1.037064155374944</v>
       </c>
       <c r="L7">
-        <v>1.061769434459616</v>
+        <v>1.018638480563005</v>
       </c>
       <c r="M7">
-        <v>1.073830734842881</v>
+        <v>1.044006663413725</v>
       </c>
       <c r="N7">
-        <v>1.023306037136952</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011466894585415</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.043400707036763</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.037296223964323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035320684357421</v>
+        <v>0.9984541685540901</v>
       </c>
       <c r="D8">
-        <v>1.051404428988492</v>
+        <v>1.024210073748359</v>
       </c>
       <c r="E8">
-        <v>1.047240193808957</v>
+        <v>1.005054688650074</v>
       </c>
       <c r="F8">
-        <v>1.059173012625109</v>
+        <v>1.031021823064494</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.065991051442472</v>
+        <v>1.048638686714552</v>
       </c>
       <c r="J8">
-        <v>1.05595166673045</v>
+        <v>1.020107307319544</v>
       </c>
       <c r="K8">
-        <v>1.061930363031661</v>
+        <v>1.03507179380425</v>
       </c>
       <c r="L8">
-        <v>1.057816142143176</v>
+        <v>1.016166623541122</v>
       </c>
       <c r="M8">
-        <v>1.069606943817913</v>
+        <v>1.041797360988964</v>
       </c>
       <c r="N8">
-        <v>1.021991903966137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.010704916859478</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041652197193542</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.035892032768638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024160234480012</v>
+        <v>0.990005523515381</v>
       </c>
       <c r="D9">
-        <v>1.042856669425609</v>
+        <v>1.018577821399258</v>
       </c>
       <c r="E9">
-        <v>1.038020390938505</v>
+        <v>0.9985202676735851</v>
       </c>
       <c r="F9">
-        <v>1.049481484196932</v>
+        <v>1.025045904839347</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061688169340099</v>
+        <v>1.046872460396702</v>
       </c>
       <c r="J9">
-        <v>1.048887759901395</v>
+        <v>1.015916217060371</v>
       </c>
       <c r="K9">
-        <v>1.055290692268635</v>
+        <v>1.031376509353036</v>
       </c>
       <c r="L9">
-        <v>1.050525325640883</v>
+        <v>1.011637398210788</v>
       </c>
       <c r="M9">
-        <v>1.061819714126643</v>
+        <v>1.037745291106133</v>
       </c>
       <c r="N9">
-        <v>1.019558939950074</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.009301079198033</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038445253548291</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.033276011315167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.016353354519485</v>
+        <v>0.9841821739652873</v>
       </c>
       <c r="D10">
-        <v>1.036897028112158</v>
+        <v>1.014735619522951</v>
       </c>
       <c r="E10">
-        <v>1.031603947770674</v>
+        <v>0.9940563960395994</v>
       </c>
       <c r="F10">
-        <v>1.042735763348551</v>
+        <v>1.021070051929849</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058630693251696</v>
+        <v>1.045604181253044</v>
       </c>
       <c r="J10">
-        <v>1.043932838197847</v>
+        <v>1.013037738742329</v>
       </c>
       <c r="K10">
-        <v>1.050630588498774</v>
+        <v>1.028843818965187</v>
       </c>
       <c r="L10">
-        <v>1.045425103066425</v>
+        <v>1.008533799771287</v>
       </c>
       <c r="M10">
-        <v>1.056374023396824</v>
+        <v>1.035069023137472</v>
       </c>
       <c r="N10">
-        <v>1.017850954203515</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.00834150560405</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.036378727450583</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.031502119117692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012877084230592</v>
+        <v>0.9818791595846824</v>
       </c>
       <c r="D11">
-        <v>1.034248755337932</v>
+        <v>1.013420710425522</v>
       </c>
       <c r="E11">
-        <v>1.028755353865683</v>
+        <v>0.9923390033772157</v>
       </c>
       <c r="F11">
-        <v>1.03974074984521</v>
+        <v>1.020348523061249</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057258538018834</v>
+        <v>1.045220379505988</v>
       </c>
       <c r="J11">
-        <v>1.041723802952111</v>
+        <v>1.012025712204205</v>
       </c>
       <c r="K11">
-        <v>1.048552456004708</v>
+        <v>1.028093893507465</v>
       </c>
       <c r="L11">
-        <v>1.043154623642096</v>
+        <v>1.007406855609633</v>
       </c>
       <c r="M11">
-        <v>1.053950209639524</v>
+        <v>1.034896634724141</v>
       </c>
       <c r="N11">
-        <v>1.017089247183659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.008039385411351</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.036679416687666</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.031004902725197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011570627825386</v>
+        <v>0.9810901275678805</v>
       </c>
       <c r="D12">
-        <v>1.033254369031312</v>
+        <v>1.013034833004695</v>
       </c>
       <c r="E12">
-        <v>1.027686139986778</v>
+        <v>0.9917654341697171</v>
       </c>
       <c r="F12">
-        <v>1.038616542084281</v>
+        <v>1.020425265826012</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056741293900639</v>
+        <v>1.045127945919267</v>
       </c>
       <c r="J12">
-        <v>1.040893244081351</v>
+        <v>1.01171692281429</v>
       </c>
       <c r="K12">
-        <v>1.047771044567502</v>
+        <v>1.027916495637287</v>
       </c>
       <c r="L12">
-        <v>1.042301468369385</v>
+        <v>1.007052114370552</v>
       </c>
       <c r="M12">
-        <v>1.053039509467057</v>
+        <v>1.035171340046562</v>
       </c>
       <c r="N12">
-        <v>1.016802830126023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.007963757911459</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037223622040328</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.030879475428775</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011851569405426</v>
+        <v>0.9814251674289936</v>
       </c>
       <c r="D13">
-        <v>1.033468161326072</v>
+        <v>1.013354685947194</v>
       </c>
       <c r="E13">
-        <v>1.027916002706258</v>
+        <v>0.9920416533937396</v>
       </c>
       <c r="F13">
-        <v>1.038858229158114</v>
+        <v>1.021147579442732</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056852592145736</v>
+        <v>1.045267693107286</v>
       </c>
       <c r="J13">
-        <v>1.041071863521939</v>
+        <v>1.011941413318248</v>
       </c>
       <c r="K13">
-        <v>1.047939097367858</v>
+        <v>1.028187236652541</v>
       </c>
       <c r="L13">
-        <v>1.042484924459756</v>
+        <v>1.007278375293346</v>
       </c>
       <c r="M13">
-        <v>1.053235336273991</v>
+        <v>1.035837825810052</v>
       </c>
       <c r="N13">
-        <v>1.016864427945833</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.008062840244564</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.038027610832923</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.031068394043502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012769407438648</v>
+        <v>0.9821680544380615</v>
       </c>
       <c r="D14">
-        <v>1.034166780506438</v>
+        <v>1.013896865841966</v>
       </c>
       <c r="E14">
-        <v>1.028667202562152</v>
+        <v>0.992619141074825</v>
       </c>
       <c r="F14">
-        <v>1.039648065296848</v>
+        <v>1.021942527767872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057215938677416</v>
+        <v>1.045469630061373</v>
       </c>
       <c r="J14">
-        <v>1.041655356102167</v>
+        <v>1.012338695167358</v>
       </c>
       <c r="K14">
-        <v>1.048488060778033</v>
+        <v>1.028578013102879</v>
       </c>
       <c r="L14">
-        <v>1.043084304307407</v>
+        <v>1.00769875852287</v>
       </c>
       <c r="M14">
-        <v>1.053875145818279</v>
+        <v>1.036478616001525</v>
       </c>
       <c r="N14">
-        <v>1.017065643916029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.008210900418939</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.038707618799936</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.031346120762315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.01333287624099</v>
+        <v>0.9825985207794184</v>
       </c>
       <c r="D15">
-        <v>1.034595788621691</v>
+        <v>1.014192055798677</v>
       </c>
       <c r="E15">
-        <v>1.029128550540793</v>
+        <v>0.9929497016822231</v>
       </c>
       <c r="F15">
-        <v>1.040133136978753</v>
+        <v>1.022296985197682</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057438796271307</v>
+        <v>1.045574190381927</v>
       </c>
       <c r="J15">
-        <v>1.042013521787452</v>
+        <v>1.012557985268129</v>
       </c>
       <c r="K15">
-        <v>1.048825022528965</v>
+        <v>1.028780734100936</v>
       </c>
       <c r="L15">
-        <v>1.043452288879962</v>
+        <v>1.007933137737213</v>
       </c>
       <c r="M15">
-        <v>1.054267961478933</v>
+        <v>1.036740653998287</v>
       </c>
       <c r="N15">
-        <v>1.017189152951114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.008287543838033</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.038952296545928</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.031495354287689</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016581975551919</v>
+        <v>0.9850009955208173</v>
       </c>
       <c r="D16">
-        <v>1.037071314497779</v>
+        <v>1.015768926373661</v>
       </c>
       <c r="E16">
-        <v>1.031791472273654</v>
+        <v>0.9947812758522959</v>
       </c>
       <c r="F16">
-        <v>1.042932921798103</v>
+        <v>1.023886819574388</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058720715678688</v>
+        <v>1.046108038570887</v>
       </c>
       <c r="J16">
-        <v>1.044078065925462</v>
+        <v>1.013743873343315</v>
       </c>
       <c r="K16">
-        <v>1.050767200086216</v>
+        <v>1.029823328313783</v>
       </c>
       <c r="L16">
-        <v>1.04557444011416</v>
+        <v>1.00920844271298</v>
       </c>
       <c r="M16">
-        <v>1.056533455570938</v>
+        <v>1.037802328049318</v>
       </c>
       <c r="N16">
-        <v>1.017901026430989</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.008678565537326</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.039752696159046</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.032235695321608</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.018593832485235</v>
+        <v>0.9864579417544246</v>
       </c>
       <c r="D17">
-        <v>1.038605657627151</v>
+        <v>1.016696602124291</v>
       </c>
       <c r="E17">
-        <v>1.033442660786632</v>
+        <v>0.9958880497957776</v>
       </c>
       <c r="F17">
-        <v>1.044668912083883</v>
+        <v>1.024685265999314</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059511696267441</v>
+        <v>1.046408878223342</v>
       </c>
       <c r="J17">
-        <v>1.045355763825847</v>
+        <v>1.014446655578413</v>
       </c>
       <c r="K17">
-        <v>1.051969034513435</v>
+        <v>1.030418078587867</v>
       </c>
       <c r="L17">
-        <v>1.046888671239884</v>
+        <v>1.009968562578349</v>
       </c>
       <c r="M17">
-        <v>1.057936580775194</v>
+        <v>1.038273887413809</v>
       </c>
       <c r="N17">
-        <v>1.018341529936573</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.008901317060372</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.039996294390036</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.032658810053922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.019758125533232</v>
+        <v>0.9872274396111032</v>
       </c>
       <c r="D18">
-        <v>1.039494118558112</v>
+        <v>1.017125439181076</v>
       </c>
       <c r="E18">
-        <v>1.034399035094103</v>
+        <v>0.9964611483217288</v>
       </c>
       <c r="F18">
-        <v>1.045674381447198</v>
+        <v>1.024813258517149</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059968429095183</v>
+        <v>1.046526455862084</v>
       </c>
       <c r="J18">
-        <v>1.046094928723016</v>
+        <v>1.014781817171348</v>
       </c>
       <c r="K18">
-        <v>1.052664259960959</v>
+        <v>1.030654970804487</v>
       </c>
       <c r="L18">
-        <v>1.047649286971954</v>
+        <v>1.0103412478336</v>
       </c>
       <c r="M18">
-        <v>1.058748687566519</v>
+        <v>1.038217000527604</v>
       </c>
       <c r="N18">
-        <v>1.018596343508757</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.008992727453767</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.039713414508448</v>
+      </c>
+      <c r="Q18">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R18">
+        <v>1.032814609695277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020153584593707</v>
+        <v>0.9873616257124083</v>
       </c>
       <c r="D19">
-        <v>1.039795974470449</v>
+        <v>1.017090400272268</v>
       </c>
       <c r="E19">
-        <v>1.034724008090432</v>
+        <v>0.9965396793813812</v>
       </c>
       <c r="F19">
-        <v>1.04601603298919</v>
+        <v>1.024313856303938</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060123386627237</v>
+        <v>1.046474592392381</v>
       </c>
       <c r="J19">
-        <v>1.046345945170113</v>
+        <v>1.014773272317638</v>
       </c>
       <c r="K19">
-        <v>1.052900345770974</v>
+        <v>1.030557513252498</v>
       </c>
       <c r="L19">
-        <v>1.047907641463626</v>
+        <v>1.010353545240742</v>
       </c>
       <c r="M19">
-        <v>1.059024539023171</v>
+        <v>1.037663329641593</v>
       </c>
       <c r="N19">
-        <v>1.018682872626312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.008964269394252</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.038949723396861</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.03275212876083</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.018378935457858</v>
+        <v>0.9857085087906676</v>
       </c>
       <c r="D20">
-        <v>1.038441712684292</v>
+        <v>1.015755064412676</v>
       </c>
       <c r="E20">
-        <v>1.033266204604849</v>
+        <v>0.9952266212044841</v>
       </c>
       <c r="F20">
-        <v>1.044483395789941</v>
+        <v>1.022119816175271</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05942731293865</v>
+        <v>1.045950574317504</v>
       </c>
       <c r="J20">
-        <v>1.045219312707477</v>
+        <v>1.013801680994846</v>
       </c>
       <c r="K20">
-        <v>1.05184069046089</v>
+        <v>1.029526423938785</v>
       </c>
       <c r="L20">
-        <v>1.046748285765592</v>
+        <v>1.009353927252188</v>
       </c>
       <c r="M20">
-        <v>1.057786695167956</v>
+        <v>1.03578455554507</v>
       </c>
       <c r="N20">
-        <v>1.01829448895939</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.008598935753137</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036934421500284</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.032027042319995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012499553864273</v>
+        <v>0.9812831981246143</v>
       </c>
       <c r="D21">
-        <v>1.033961354355901</v>
+        <v>1.012797996621036</v>
       </c>
       <c r="E21">
-        <v>1.028446304628273</v>
+        <v>0.9918390757973473</v>
       </c>
       <c r="F21">
-        <v>1.039415806952548</v>
+        <v>1.01894626163495</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057109153646125</v>
+        <v>1.044935400643557</v>
       </c>
       <c r="J21">
-        <v>1.041483812849467</v>
+        <v>1.01158485357822</v>
       </c>
       <c r="K21">
-        <v>1.048326670721532</v>
+        <v>1.02754089686997</v>
       </c>
       <c r="L21">
-        <v>1.042908076344436</v>
+        <v>1.006976726596135</v>
       </c>
       <c r="M21">
-        <v>1.053687028822714</v>
+        <v>1.033577366950937</v>
       </c>
       <c r="N21">
-        <v>1.017006488369488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.007853279915335</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035146603956684</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.030626431689631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008714477466772</v>
+        <v>0.978457923084221</v>
       </c>
       <c r="D22">
-        <v>1.03108218110706</v>
+        <v>1.010922006447503</v>
       </c>
       <c r="E22">
-        <v>1.025351199584467</v>
+        <v>0.989685770566803</v>
       </c>
       <c r="F22">
-        <v>1.036161441046846</v>
+        <v>1.016980540241503</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05560769589159</v>
+        <v>1.044279213814238</v>
       </c>
       <c r="J22">
-        <v>1.039076891948883</v>
+        <v>1.01017362714522</v>
       </c>
       <c r="K22">
-        <v>1.046062057052313</v>
+        <v>1.026280157535294</v>
       </c>
       <c r="L22">
-        <v>1.040436635267335</v>
+        <v>1.005464361351011</v>
       </c>
       <c r="M22">
-        <v>1.051049030325854</v>
+        <v>1.032222951334345</v>
       </c>
       <c r="N22">
-        <v>1.016176420160154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.007379580395236</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034074665953574</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.029721442122799</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.010729692530046</v>
+        <v>0.9799545108916948</v>
       </c>
       <c r="D23">
-        <v>1.032614566266364</v>
+        <v>1.011911121732189</v>
       </c>
       <c r="E23">
-        <v>1.026998300573581</v>
+        <v>0.9908246332132175</v>
       </c>
       <c r="F23">
-        <v>1.03789331434645</v>
+        <v>1.018019247383968</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056407923264448</v>
+        <v>1.04462524282083</v>
       </c>
       <c r="J23">
-        <v>1.040358538664111</v>
+        <v>1.010918354553916</v>
       </c>
       <c r="K23">
-        <v>1.0472679614944</v>
+        <v>1.026942819042186</v>
       </c>
       <c r="L23">
-        <v>1.041752358680715</v>
+        <v>1.006262990672066</v>
       </c>
       <c r="M23">
-        <v>1.052453383300374</v>
+        <v>1.032937248704003</v>
       </c>
       <c r="N23">
-        <v>1.016618430696676</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.007628586066442</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034639989301598</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030180285924054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.018476066511794</v>
+        <v>0.9857434058870747</v>
       </c>
       <c r="D24">
-        <v>1.038515812381759</v>
+        <v>1.015751243377511</v>
       </c>
       <c r="E24">
-        <v>1.033345958333129</v>
+        <v>0.99524799723027</v>
       </c>
       <c r="F24">
-        <v>1.044567244529142</v>
+        <v>1.022057560678956</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05946545642626</v>
+        <v>1.045940409727582</v>
       </c>
       <c r="J24">
-        <v>1.045280987893722</v>
+        <v>1.013801515982235</v>
       </c>
       <c r="K24">
-        <v>1.051898701456436</v>
+        <v>1.029507282847668</v>
       </c>
       <c r="L24">
-        <v>1.046811738280744</v>
+        <v>1.009359080462427</v>
       </c>
       <c r="M24">
-        <v>1.057854441492812</v>
+        <v>1.035708085545716</v>
       </c>
       <c r="N24">
-        <v>1.01831575130643</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.008594275223893</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.036832935504088</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.03198596133535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027107265500627</v>
+        <v>0.9922398125206896</v>
       </c>
       <c r="D25">
-        <v>1.045110660928265</v>
+        <v>1.020073088793346</v>
       </c>
       <c r="E25">
-        <v>1.040449527255508</v>
+        <v>1.000244008670317</v>
       </c>
       <c r="F25">
-        <v>1.052035074800177</v>
+        <v>1.026623278356849</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.062832764741169</v>
+        <v>1.047357170998838</v>
       </c>
       <c r="J25">
-        <v>1.050755575556286</v>
+        <v>1.017031190281919</v>
       </c>
       <c r="K25">
-        <v>1.057046845562827</v>
+        <v>1.032367587204868</v>
       </c>
       <c r="L25">
-        <v>1.052450767370759</v>
+        <v>1.012838537899045</v>
       </c>
       <c r="M25">
-        <v>1.063875955497965</v>
+        <v>1.038821896559122</v>
       </c>
       <c r="N25">
-        <v>1.020202527106685</v>
+        <v>1.009676057234929</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039297316511203</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.034005485905592</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9972372382147729</v>
+        <v>0.9973211440560993</v>
       </c>
       <c r="D2">
-        <v>1.023392055922251</v>
+        <v>1.02304381924774</v>
       </c>
       <c r="E2">
-        <v>1.004108624200678</v>
+        <v>1.004183499457684</v>
       </c>
       <c r="F2">
-        <v>1.03015491976806</v>
+        <v>1.029903453216513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048388539599033</v>
+        <v>1.048211747393309</v>
       </c>
       <c r="J2">
-        <v>1.019500898192011</v>
+        <v>1.019582275537163</v>
       </c>
       <c r="K2">
-        <v>1.034534844525208</v>
+        <v>1.034191187155317</v>
       </c>
       <c r="L2">
-        <v>1.015511014601397</v>
+        <v>1.015584857557089</v>
       </c>
       <c r="M2">
-        <v>1.041209545095312</v>
+        <v>1.040961330821098</v>
       </c>
       <c r="N2">
-        <v>1.010500771582973</v>
+        <v>1.012461365318093</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.041186980918149</v>
+        <v>1.040990536122681</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.035489366208508</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.03525517848119</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021218400851865</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.000787052732694</v>
+        <v>1.00075084496587</v>
       </c>
       <c r="D3">
-        <v>1.025760548516411</v>
+        <v>1.025258019242165</v>
       </c>
       <c r="E3">
-        <v>1.006868502449835</v>
+        <v>1.006839042542837</v>
       </c>
       <c r="F3">
-        <v>1.032679932959205</v>
+        <v>1.032317404349019</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049096709119464</v>
+        <v>1.048841319659736</v>
       </c>
       <c r="J3">
-        <v>1.021256284868105</v>
+        <v>1.021221062097605</v>
       </c>
       <c r="K3">
-        <v>1.036074095931051</v>
+        <v>1.035577605609946</v>
       </c>
       <c r="L3">
-        <v>1.01741424741467</v>
+        <v>1.017385158077996</v>
       </c>
       <c r="M3">
-        <v>1.04291106958635</v>
+        <v>1.042552824769104</v>
       </c>
       <c r="N3">
-        <v>1.011088388969637</v>
+        <v>1.012897455081946</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042533620934284</v>
+        <v>1.042250094922651</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.036575083653977</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.036232551858084</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021485946045495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003044790412644</v>
+        <v>1.002932993965442</v>
       </c>
       <c r="D4">
-        <v>1.027268528760717</v>
+        <v>1.026668421678616</v>
       </c>
       <c r="E4">
-        <v>1.008629776104106</v>
+        <v>1.008534554857983</v>
       </c>
       <c r="F4">
-        <v>1.034291890586765</v>
+        <v>1.033859235367305</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049533283961861</v>
+        <v>1.049228095291915</v>
       </c>
       <c r="J4">
-        <v>1.02237092952631</v>
+        <v>1.022261969864327</v>
       </c>
       <c r="K4">
-        <v>1.037048619628301</v>
+        <v>1.036455293868633</v>
       </c>
       <c r="L4">
-        <v>1.018625151272002</v>
+        <v>1.018531055162647</v>
       </c>
       <c r="M4">
-        <v>1.043993335779906</v>
+        <v>1.043565487321224</v>
       </c>
       <c r="N4">
-        <v>1.011461534192475</v>
+        <v>1.013174492811573</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.043390159150336</v>
+        <v>1.043051547053562</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.037265059848157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.036854138045488</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.021652819875969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003987053494749</v>
+        <v>1.003843911743597</v>
       </c>
       <c r="D5">
-        <v>1.027899856283244</v>
+        <v>1.027259234679363</v>
       </c>
       <c r="E5">
-        <v>1.009366521422373</v>
+        <v>1.009244005000694</v>
       </c>
       <c r="F5">
-        <v>1.034966697092262</v>
+        <v>1.034504950319378</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.04971328341334</v>
+        <v>1.049387395849864</v>
       </c>
       <c r="J5">
-        <v>1.022836744191522</v>
+        <v>1.022697126711306</v>
       </c>
       <c r="K5">
-        <v>1.037456363339322</v>
+        <v>1.036822790151597</v>
       </c>
       <c r="L5">
-        <v>1.019131401662141</v>
+        <v>1.019010294143892</v>
       </c>
       <c r="M5">
-        <v>1.044446161676977</v>
+        <v>1.043989409431664</v>
       </c>
       <c r="N5">
-        <v>1.011617743049872</v>
+        <v>1.013290526576935</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043748538969201</v>
+        <v>1.043387051721344</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03756056508258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.037121894537987</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021722434358878</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.004147457875652</v>
+        <v>1.003999012275696</v>
       </c>
       <c r="D6">
-        <v>1.028009337608041</v>
+        <v>1.027361924150813</v>
       </c>
       <c r="E6">
-        <v>1.009492364054204</v>
+        <v>1.009365223528491</v>
       </c>
       <c r="F6">
-        <v>1.035082451379295</v>
+        <v>1.034615829110515</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049745146616734</v>
+        <v>1.049415787799281</v>
       </c>
       <c r="J6">
-        <v>1.022917324276802</v>
+        <v>1.022772514854062</v>
       </c>
       <c r="K6">
-        <v>1.037528303509755</v>
+        <v>1.036887980908854</v>
       </c>
       <c r="L6">
-        <v>1.019218566925305</v>
+        <v>1.019092881750129</v>
       </c>
       <c r="M6">
-        <v>1.04452465670299</v>
+        <v>1.044063058786436</v>
       </c>
       <c r="N6">
-        <v>1.011645090355429</v>
+        <v>1.013310879990884</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043810662238373</v>
+        <v>1.043445340013026</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.037620206102547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.037177630673507</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021735175283019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003064706524685</v>
+        <v>1.002959508479182</v>
       </c>
       <c r="D7">
-        <v>1.027287169771415</v>
+        <v>1.026690977297756</v>
       </c>
       <c r="E7">
-        <v>1.008646267022951</v>
+        <v>1.008556916772952</v>
       </c>
       <c r="F7">
-        <v>1.034308268647667</v>
+        <v>1.033878437272324</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049540887759413</v>
+        <v>1.049237688608833</v>
       </c>
       <c r="J7">
-        <v>1.022384278250404</v>
+        <v>1.022281748415157</v>
       </c>
       <c r="K7">
-        <v>1.037064155374944</v>
+        <v>1.036474697406791</v>
       </c>
       <c r="L7">
-        <v>1.018638480563005</v>
+        <v>1.018550185673489</v>
       </c>
       <c r="M7">
-        <v>1.044006663413725</v>
+        <v>1.043581605633941</v>
       </c>
       <c r="N7">
-        <v>1.011466894585415</v>
+        <v>1.013206325312623</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.043400707036763</v>
+        <v>1.043064303572317</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.037296223964323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.036890033125889</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021658107946205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9984541685540901</v>
+        <v>0.9985188989464762</v>
       </c>
       <c r="D8">
-        <v>1.024210073748359</v>
+        <v>1.023823001533408</v>
       </c>
       <c r="E8">
-        <v>1.005054688650074</v>
+        <v>1.005113399838805</v>
       </c>
       <c r="F8">
-        <v>1.031021823064494</v>
+        <v>1.030742406272349</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048638686714552</v>
+        <v>1.048442109597956</v>
       </c>
       <c r="J8">
-        <v>1.020107307319544</v>
+        <v>1.020170152205247</v>
       </c>
       <c r="K8">
-        <v>1.03507179380425</v>
+        <v>1.0346896618404</v>
       </c>
       <c r="L8">
-        <v>1.016166623541122</v>
+        <v>1.016224549523987</v>
       </c>
       <c r="M8">
-        <v>1.041797360988964</v>
+        <v>1.041521451431281</v>
       </c>
       <c r="N8">
-        <v>1.010704916859478</v>
+        <v>1.012697345120414</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041652197193542</v>
+        <v>1.041433833593212</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.035892032768638</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.035632903672522</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.02131787085929</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.990005523515381</v>
+        <v>0.9903643424024916</v>
       </c>
       <c r="D9">
-        <v>1.018577821399258</v>
+        <v>1.018563082553636</v>
       </c>
       <c r="E9">
-        <v>0.9985202676735851</v>
+        <v>0.9988338046825518</v>
       </c>
       <c r="F9">
-        <v>1.025045904839347</v>
+        <v>1.025035240148913</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046872460396702</v>
+        <v>1.046864992777704</v>
       </c>
       <c r="J9">
-        <v>1.015916217060371</v>
+        <v>1.01626200993412</v>
       </c>
       <c r="K9">
-        <v>1.031376509353036</v>
+        <v>1.03136199862599</v>
       </c>
       <c r="L9">
-        <v>1.011637398210788</v>
+        <v>1.011945830971096</v>
       </c>
       <c r="M9">
-        <v>1.037745291106133</v>
+        <v>1.037734788831027</v>
       </c>
       <c r="N9">
-        <v>1.009301079198033</v>
+        <v>1.011666387830989</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038445253548291</v>
+        <v>1.03843694167787</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.033276011315167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.033276542375908</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.020660627876036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9841821739652873</v>
+        <v>0.9847782203291598</v>
       </c>
       <c r="D10">
-        <v>1.014735619522951</v>
+        <v>1.014998064651097</v>
       </c>
       <c r="E10">
-        <v>0.9940563960395994</v>
+        <v>0.9945751723455192</v>
       </c>
       <c r="F10">
-        <v>1.021070051929849</v>
+        <v>1.021260230427484</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045604181253044</v>
+        <v>1.045736950950813</v>
       </c>
       <c r="J10">
-        <v>1.013037738742329</v>
+        <v>1.01360906328333</v>
       </c>
       <c r="K10">
-        <v>1.028843818965187</v>
+        <v>1.029101703561491</v>
       </c>
       <c r="L10">
-        <v>1.008533799771287</v>
+        <v>1.009043069423281</v>
       </c>
       <c r="M10">
-        <v>1.035069023137472</v>
+        <v>1.035255949347003</v>
       </c>
       <c r="N10">
-        <v>1.00834150560405</v>
+        <v>1.011080577474793</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.036378727450583</v>
+        <v>1.036526658581151</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.031502119117692</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.031696933272605</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020207912176957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9818791595846824</v>
+        <v>0.9825998654373274</v>
       </c>
       <c r="D11">
-        <v>1.013420710425522</v>
+        <v>1.013802736677771</v>
       </c>
       <c r="E11">
-        <v>0.9923390033772157</v>
+        <v>0.9929644809144487</v>
       </c>
       <c r="F11">
-        <v>1.020348523061249</v>
+        <v>1.020625108509038</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045220379505988</v>
+        <v>1.045413523335775</v>
       </c>
       <c r="J11">
-        <v>1.012025712204205</v>
+        <v>1.012714863828817</v>
       </c>
       <c r="K11">
-        <v>1.028093893507465</v>
+        <v>1.028468964894576</v>
       </c>
       <c r="L11">
-        <v>1.007406855609633</v>
+        <v>1.008020307757828</v>
       </c>
       <c r="M11">
-        <v>1.034896634724141</v>
+        <v>1.035168272603344</v>
       </c>
       <c r="N11">
-        <v>1.008039385411351</v>
+        <v>1.011096277800514</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.036679416687666</v>
+        <v>1.036894279017884</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.031004902725197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.031285786633765</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020112920379108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9810901275678805</v>
+        <v>0.981853328362158</v>
       </c>
       <c r="D12">
-        <v>1.013034833004695</v>
+        <v>1.013454742398332</v>
       </c>
       <c r="E12">
-        <v>0.9917654341697171</v>
+        <v>0.9924262497496821</v>
       </c>
       <c r="F12">
-        <v>1.020425265826012</v>
+        <v>1.020729018311157</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045127945919267</v>
+        <v>1.045340194488773</v>
       </c>
       <c r="J12">
-        <v>1.01171692281429</v>
+        <v>1.012446050983797</v>
       </c>
       <c r="K12">
-        <v>1.027916495637287</v>
+        <v>1.028328632091989</v>
       </c>
       <c r="L12">
-        <v>1.007052114370552</v>
+        <v>1.007700003688754</v>
       </c>
       <c r="M12">
-        <v>1.035171340046562</v>
+        <v>1.035469574391705</v>
       </c>
       <c r="N12">
-        <v>1.007963757911459</v>
+        <v>1.011145127260463</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037223622040328</v>
+        <v>1.03745944176079</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.030879475428775</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.031186567972223</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020104050580638</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,105 +1121,123 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9814251674289936</v>
+        <v>0.9821599348992101</v>
       </c>
       <c r="D13">
-        <v>1.013354685947194</v>
+        <v>1.013745406211727</v>
       </c>
       <c r="E13">
-        <v>0.9920416533937396</v>
+        <v>0.9926762208307821</v>
       </c>
       <c r="F13">
-        <v>1.021147579442732</v>
+        <v>1.021429958963011</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045267693107286</v>
+        <v>1.045465199244238</v>
       </c>
       <c r="J13">
-        <v>1.011941413318248</v>
+        <v>1.01264352871981</v>
       </c>
       <c r="K13">
-        <v>1.028187236652541</v>
+        <v>1.02857075417031</v>
       </c>
       <c r="L13">
-        <v>1.007278375293346</v>
+        <v>1.007900580332888</v>
       </c>
       <c r="M13">
-        <v>1.035837825810052</v>
+        <v>1.036115101861817</v>
       </c>
       <c r="N13">
-        <v>1.008062840244564</v>
+        <v>1.011191054677057</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.038027610832923</v>
+        <v>1.038246803200449</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.031068394043502</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.031355006015967</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.02016626513178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9821680544380615</v>
+        <v>0.9828518626260175</v>
       </c>
       <c r="D14">
-        <v>1.013896865841966</v>
+        <v>1.01423772035463</v>
       </c>
       <c r="E14">
-        <v>0.992619141074825</v>
+        <v>0.9932085406895335</v>
       </c>
       <c r="F14">
-        <v>1.021942527767872</v>
+        <v>1.022188707499444</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045469630061373</v>
+        <v>1.045641958861924</v>
       </c>
       <c r="J14">
-        <v>1.012338695167358</v>
+        <v>1.012992545185697</v>
       </c>
       <c r="K14">
-        <v>1.028578013102879</v>
+        <v>1.028912661439679</v>
       </c>
       <c r="L14">
-        <v>1.00769875852287</v>
+        <v>1.008276819314487</v>
       </c>
       <c r="M14">
-        <v>1.036478616001525</v>
+        <v>1.036720403984896</v>
       </c>
       <c r="N14">
-        <v>1.008210900418939</v>
+        <v>1.011222945697823</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.038707618799936</v>
+        <v>1.038898731285502</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.031346120762315</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.031598313416305</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020241773575266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9825985207794184</v>
+        <v>0.9832545815030569</v>
       </c>
       <c r="D15">
-        <v>1.014192055798677</v>
+        <v>1.014505898581787</v>
       </c>
       <c r="E15">
-        <v>0.9929497016822231</v>
+        <v>0.9935148472543751</v>
       </c>
       <c r="F15">
-        <v>1.022296985197682</v>
+        <v>1.022523610007718</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045574190381927</v>
+        <v>1.045732879093176</v>
       </c>
       <c r="J15">
-        <v>1.012557985268129</v>
+        <v>1.013185553765416</v>
       </c>
       <c r="K15">
-        <v>1.028780734100936</v>
+        <v>1.029088905694598</v>
       </c>
       <c r="L15">
-        <v>1.007933137737213</v>
+        <v>1.008487494938737</v>
       </c>
       <c r="M15">
-        <v>1.036740653998287</v>
+        <v>1.036963266998863</v>
       </c>
       <c r="N15">
-        <v>1.008287543838033</v>
+        <v>1.011234829259973</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.038952296545928</v>
+        <v>1.039128248229321</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.031495354287689</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03172939441582</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020278700976532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9850009955208173</v>
+        <v>0.9855142128276929</v>
       </c>
       <c r="D16">
-        <v>1.015768926373661</v>
+        <v>1.015940688439679</v>
       </c>
       <c r="E16">
-        <v>0.9947812758522959</v>
+        <v>0.9952228680258064</v>
       </c>
       <c r="F16">
-        <v>1.023886819574388</v>
+        <v>1.024010784184811</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046108038570887</v>
+        <v>1.046194939121352</v>
       </c>
       <c r="J16">
-        <v>1.013743873343315</v>
+        <v>1.014235920285783</v>
       </c>
       <c r="K16">
-        <v>1.029823328313783</v>
+        <v>1.029992121876735</v>
       </c>
       <c r="L16">
-        <v>1.00920844271298</v>
+        <v>1.009641980959311</v>
       </c>
       <c r="M16">
-        <v>1.037802328049318</v>
+        <v>1.037924193711893</v>
       </c>
       <c r="N16">
-        <v>1.008678565537326</v>
+        <v>1.011303728233153</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.039752696159046</v>
+        <v>1.039849020629565</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.032235695321608</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.032371485030997</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.020460289271842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9864579417544246</v>
+        <v>0.9868959202796387</v>
       </c>
       <c r="D17">
-        <v>1.016696602124291</v>
+        <v>1.016790134304116</v>
       </c>
       <c r="E17">
-        <v>0.9958880497957776</v>
+        <v>0.9962650164243844</v>
       </c>
       <c r="F17">
-        <v>1.024685265999314</v>
+        <v>1.024752767202506</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046408878223342</v>
+        <v>1.046456217404801</v>
       </c>
       <c r="J17">
-        <v>1.014446655578413</v>
+        <v>1.014867152529033</v>
       </c>
       <c r="K17">
-        <v>1.030418078587867</v>
+        <v>1.030510039713733</v>
       </c>
       <c r="L17">
-        <v>1.009968562578349</v>
+        <v>1.010338851898043</v>
       </c>
       <c r="M17">
-        <v>1.038273887413809</v>
+        <v>1.03834027739436</v>
       </c>
       <c r="N17">
-        <v>1.008901317060372</v>
+        <v>1.01136895217922</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.039996294390036</v>
+        <v>1.040048775270502</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.032658810053922</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.032740521089256</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020560306665515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9872274396111032</v>
+        <v>0.9876333131334862</v>
       </c>
       <c r="D18">
-        <v>1.017125439181076</v>
+        <v>1.017184507947764</v>
       </c>
       <c r="E18">
-        <v>0.9964611483217288</v>
+        <v>0.996811208555864</v>
       </c>
       <c r="F18">
-        <v>1.024813258517149</v>
+        <v>1.024855907315191</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046526455862084</v>
+        <v>1.046556358684267</v>
       </c>
       <c r="J18">
-        <v>1.014781817171348</v>
+        <v>1.015171799831067</v>
       </c>
       <c r="K18">
-        <v>1.030654970804487</v>
+        <v>1.030713063748653</v>
       </c>
       <c r="L18">
-        <v>1.0103412478336</v>
+        <v>1.010685212648176</v>
       </c>
       <c r="M18">
-        <v>1.038217000527604</v>
+        <v>1.038258958256458</v>
       </c>
       <c r="N18">
-        <v>1.008992727453767</v>
+        <v>1.011394595585225</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.039713414508448</v>
+        <v>1.039746588765657</v>
       </c>
       <c r="Q18">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.032814609695277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.032871239929134</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020590138159629</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9873616257124083</v>
+        <v>0.9877719602774289</v>
       </c>
       <c r="D19">
-        <v>1.017090400272268</v>
+        <v>1.017154787792979</v>
       </c>
       <c r="E19">
-        <v>0.9965396793813812</v>
+        <v>0.9968948180345854</v>
       </c>
       <c r="F19">
-        <v>1.024313856303938</v>
+        <v>1.024360390174338</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046474592392381</v>
+        <v>1.046507189969687</v>
       </c>
       <c r="J19">
-        <v>1.014773272317638</v>
+        <v>1.015167641881697</v>
       </c>
       <c r="K19">
-        <v>1.030557513252498</v>
+        <v>1.030620842680374</v>
       </c>
       <c r="L19">
-        <v>1.010353545240742</v>
+        <v>1.010702534577658</v>
       </c>
       <c r="M19">
-        <v>1.037663329641593</v>
+        <v>1.037709112574394</v>
       </c>
       <c r="N19">
-        <v>1.008964269394252</v>
+        <v>1.011364259130764</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.038949723396861</v>
+        <v>1.038985933944253</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.03275212876083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.032813085232673</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020553166766464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9857085087906676</v>
+        <v>0.9862219392580026</v>
       </c>
       <c r="D20">
-        <v>1.015755064412676</v>
+        <v>1.015932503321949</v>
       </c>
       <c r="E20">
-        <v>0.9952266212044841</v>
+        <v>0.9956733835505588</v>
       </c>
       <c r="F20">
-        <v>1.022119816175271</v>
+        <v>1.022248345269447</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045950574317504</v>
+        <v>1.046040374343278</v>
       </c>
       <c r="J20">
-        <v>1.013801680994846</v>
+        <v>1.014294512066275</v>
       </c>
       <c r="K20">
-        <v>1.029526423938785</v>
+        <v>1.029700867098471</v>
       </c>
       <c r="L20">
-        <v>1.009353927252188</v>
+        <v>1.009792740336601</v>
       </c>
       <c r="M20">
-        <v>1.03578455554507</v>
+        <v>1.035910949174749</v>
       </c>
       <c r="N20">
-        <v>1.008598935753137</v>
+        <v>1.011165812727945</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036934421500284</v>
+        <v>1.037034449095013</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.032027042319995</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.032166953518308</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020330374739978</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9812831981246143</v>
+        <v>0.9820796778909641</v>
       </c>
       <c r="D21">
-        <v>1.012797996621036</v>
+        <v>1.013252565207344</v>
       </c>
       <c r="E21">
-        <v>0.9918390757973473</v>
+        <v>0.9925334534508162</v>
       </c>
       <c r="F21">
-        <v>1.01894626163495</v>
+        <v>1.019275998285616</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044935400643557</v>
+        <v>1.045165200205312</v>
       </c>
       <c r="J21">
-        <v>1.01158485357822</v>
+        <v>1.01234622897645</v>
       </c>
       <c r="K21">
-        <v>1.02754089686997</v>
+        <v>1.027987139480913</v>
       </c>
       <c r="L21">
-        <v>1.006976726596135</v>
+        <v>1.007657676134945</v>
       </c>
       <c r="M21">
-        <v>1.033577366950937</v>
+        <v>1.033901157474996</v>
       </c>
       <c r="N21">
-        <v>1.007853279915335</v>
+        <v>1.011062825676659</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035146603956684</v>
+        <v>1.035402864322487</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.030626431689631</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.030958850637857</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019981532513697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.978457923084221</v>
+        <v>0.9794331345206633</v>
       </c>
       <c r="D22">
-        <v>1.010922006447503</v>
+        <v>1.011551544345573</v>
       </c>
       <c r="E22">
-        <v>0.989685770566803</v>
+        <v>0.9905363628705879</v>
       </c>
       <c r="F22">
-        <v>1.016980540241503</v>
+        <v>1.017437569021302</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.044279213814238</v>
+        <v>1.044597249159424</v>
       </c>
       <c r="J22">
-        <v>1.01017362714522</v>
+        <v>1.011103342505732</v>
       </c>
       <c r="K22">
-        <v>1.026280157535294</v>
+        <v>1.026897584453739</v>
       </c>
       <c r="L22">
-        <v>1.005464361351011</v>
+        <v>1.006297656708501</v>
       </c>
       <c r="M22">
-        <v>1.032222951334345</v>
+        <v>1.032671322289156</v>
       </c>
       <c r="N22">
-        <v>1.007379580395236</v>
+        <v>1.010989292319893</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034074665953574</v>
+        <v>1.034429524613204</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.029721442122799</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030173602090439</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019758294231761</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9799545108916948</v>
+        <v>0.9808234932311273</v>
       </c>
       <c r="D23">
-        <v>1.011911121732189</v>
+        <v>1.012440490137273</v>
       </c>
       <c r="E23">
-        <v>0.9908246332132175</v>
+        <v>0.9915821715683385</v>
       </c>
       <c r="F23">
-        <v>1.018019247383968</v>
+        <v>1.018403388943638</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.04462524282083</v>
+        <v>1.044892770048375</v>
       </c>
       <c r="J23">
-        <v>1.010918354553916</v>
+        <v>1.011747990891628</v>
       </c>
       <c r="K23">
-        <v>1.026942819042186</v>
+        <v>1.027462262952686</v>
       </c>
       <c r="L23">
-        <v>1.006262990672066</v>
+        <v>1.00700552612126</v>
       </c>
       <c r="M23">
-        <v>1.032937248704003</v>
+        <v>1.033314299302301</v>
       </c>
       <c r="N23">
-        <v>1.007628586066442</v>
+        <v>1.010984220390066</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034639989301598</v>
+        <v>1.034938401958759</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030180285924054</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.030562223581109</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019872711029461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9857434058870747</v>
+        <v>0.9862569385880505</v>
       </c>
       <c r="D24">
-        <v>1.015751243377511</v>
+        <v>1.0159286787585</v>
       </c>
       <c r="E24">
-        <v>0.99524799723027</v>
+        <v>0.9956950540327217</v>
       </c>
       <c r="F24">
-        <v>1.022057560678956</v>
+        <v>1.022186104635068</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045940409727582</v>
+        <v>1.046030209451229</v>
       </c>
       <c r="J24">
-        <v>1.013801515982235</v>
+        <v>1.014294476304514</v>
       </c>
       <c r="K24">
-        <v>1.029507282847668</v>
+        <v>1.029681726354462</v>
       </c>
       <c r="L24">
-        <v>1.009359080462427</v>
+        <v>1.009798193480742</v>
       </c>
       <c r="M24">
-        <v>1.035708085545716</v>
+        <v>1.035834496191958</v>
       </c>
       <c r="N24">
-        <v>1.008594275223893</v>
+        <v>1.011158581422003</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.036832935504088</v>
+        <v>1.036932981560369</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.03198596133535</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.032123203564927</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020321877997949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9922398125206896</v>
+        <v>0.9925112217125519</v>
       </c>
       <c r="D25">
-        <v>1.020073088793346</v>
+        <v>1.019954159657572</v>
       </c>
       <c r="E25">
-        <v>1.000244008670317</v>
+        <v>1.000481685573913</v>
       </c>
       <c r="F25">
-        <v>1.026623278356849</v>
+        <v>1.026537277836226</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.047357170998838</v>
+        <v>1.047296877934887</v>
       </c>
       <c r="J25">
-        <v>1.017031190281919</v>
+        <v>1.01729326845312</v>
       </c>
       <c r="K25">
-        <v>1.032367587204868</v>
+        <v>1.032250413386622</v>
       </c>
       <c r="L25">
-        <v>1.012838537899045</v>
+        <v>1.013072528593496</v>
       </c>
       <c r="M25">
-        <v>1.038821896559122</v>
+        <v>1.038737144843085</v>
       </c>
       <c r="N25">
-        <v>1.009676057234929</v>
+        <v>1.011909114500423</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039297316511203</v>
+        <v>1.039230241095099</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.034005485905592</v>
+        <v>1.03393622589135</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020839449907823</v>
       </c>
     </row>
   </sheetData>
